--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="3560" windowWidth="25600" windowHeight="16060" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="17140" tabRatio="529"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,37 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
-  <si>
-    <t>skeletonWarrior</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>deathKnight</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>priest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>demonHunter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>paladin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>steamTank</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -112,54 +84,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>horseArcher_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -168,66 +92,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_specialMaterials</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand,heroBones,magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,brightRing,holyBook</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,brightRing,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood,holyBook,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing,holyBook,brightAlloy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand,heroBones,soulStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand,heroBones,magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroBones,soulStone,magicBox</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_recruitTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -253,22 +117,6 @@
   </si>
   <si>
     <t>INT_citizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_citizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -396,6 +244,178 @@
   </si>
   <si>
     <t>workshop</t>
+  </si>
+  <si>
+    <t>swordsman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonWarrior</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,soulStone_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,magicBox_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_2,heroBones_2,magicBox_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_4,soulStone_4,magicBox_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,holyBook_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonHunter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>paladin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamTank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_4,holyBook_4,brightAlloy_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_specialMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_load</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2973,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2984,141 +3004,141 @@
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
-        <v>24</v>
-      </c>
       <c r="H2" s="3">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I2" s="3">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J2" s="3">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L2" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M2" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N2" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
@@ -3127,90 +3147,90 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S2" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="T2" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="U2" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V2" s="3">
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X2" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="1">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>50</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G3" s="3">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I3" s="3">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="J3" s="3">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="K3" s="3">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="L3" s="3">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="M3" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N3" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -3219,90 +3239,90 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="S3" s="1">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="T3" s="1">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="U3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V3" s="3">
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="X3" s="1">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="Y3" s="1">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>10000</v>
       </c>
       <c r="AC3" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="G4" s="3">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="I4" s="3">
-        <v>63</v>
+        <v>360</v>
       </c>
       <c r="J4" s="3">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K4" s="3">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="L4" s="3">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="M4" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N4" s="3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -3311,90 +3331,90 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="S4" s="1">
-        <v>720</v>
+        <v>960</v>
       </c>
       <c r="T4" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="U4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="X4" s="1">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="Y4" s="1">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="Z4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>86400</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I5" s="3">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="L5" s="3">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M5" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N5" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -3403,90 +3423,90 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="S5" s="1">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="T5" s="1">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="U5" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="X5" s="1">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="Y5" s="1">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="1">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="G6" s="3">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H6" s="3">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I6" s="3">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3">
         <v>48</v>
       </c>
       <c r="K6" s="3">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="L6" s="3">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="M6" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N6" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -3495,90 +3515,90 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>748</v>
+        <v>640</v>
       </c>
       <c r="S6" s="1">
-        <v>748</v>
+        <v>640</v>
       </c>
       <c r="T6" s="1">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="U6" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="X6" s="1">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="Y6" s="1">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>10000</v>
       </c>
       <c r="AC6" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G7" s="3">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="H7" s="3">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="I7" s="3">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="J7" s="3">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="K7" s="3">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="L7" s="3">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="M7" s="1">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N7" s="3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -3587,1699 +3607,1699 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1056</v>
+        <v>1280</v>
       </c>
       <c r="S7" s="1">
-        <v>1056</v>
+        <v>1280</v>
       </c>
       <c r="T7" s="1">
-        <v>528</v>
+        <v>640</v>
       </c>
       <c r="U7" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="X7" s="1">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="Y7" s="1">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="Z7" s="1">
-        <v>12</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>86400</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G8" s="3">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I8" s="3">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="K8" s="3">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L8" s="3">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M8" s="1">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N8" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>525</v>
+        <v>400</v>
       </c>
       <c r="R8" s="1">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="U8" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V8" s="3">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="W8" s="1">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="1">
-        <v>17</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G9" s="3">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="J9" s="3">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="L9" s="3">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M9" s="1">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N9" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>893</v>
+        <v>800</v>
       </c>
       <c r="R9" s="1">
-        <v>536</v>
+        <v>480</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="U9" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V9" s="3">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="W9" s="1">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="Z9" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AA9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>10000</v>
       </c>
       <c r="AC9" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="G10" s="3">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="J10" s="3">
-        <v>59</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="L10" s="3">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="M10" s="1">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N10" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1260</v>
+        <v>1600</v>
       </c>
       <c r="R10" s="1">
-        <v>756</v>
+        <v>960</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="U10" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="V10" s="3">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="W10" s="1">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="Z10" s="1">
-        <v>17</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>86400</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G11" s="3">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J11" s="3">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="K11" s="3">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="L11" s="3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M11" s="1">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="N11" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>525</v>
+        <v>320</v>
       </c>
       <c r="R11" s="1">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="U11" s="1">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="V11" s="3">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="W11" s="1">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Z11" s="1">
-        <v>19</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G12" s="3">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="H12" s="3">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="I12" s="3">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J12" s="3">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K12" s="3">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="L12" s="3">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M12" s="1">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="N12" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>893</v>
+        <v>640</v>
       </c>
       <c r="R12" s="1">
-        <v>536</v>
+        <v>640</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="U12" s="1">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="V12" s="3">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="W12" s="1">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="Z12" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>10000</v>
       </c>
       <c r="AC12" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3">
-        <v>111</v>
+        <v>480</v>
       </c>
       <c r="G13" s="3">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="H13" s="3">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="I13" s="3">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="J13" s="3">
-        <v>59</v>
+        <v>384</v>
       </c>
       <c r="K13" s="3">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="L13" s="3">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="M13" s="1">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="N13" s="3">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="R13" s="1">
-        <v>756</v>
+        <v>1280</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="U13" s="1">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="V13" s="3">
-        <v>420</v>
+        <v>256</v>
       </c>
       <c r="W13" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="Z13" s="1">
-        <v>19</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>86400</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G14" s="3">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="H14" s="3">
+        <v>120</v>
+      </c>
+      <c r="I14" s="3">
+        <v>180</v>
+      </c>
+      <c r="J14" s="3">
         <v>60</v>
       </c>
-      <c r="I14" s="3">
-        <v>72</v>
-      </c>
-      <c r="J14" s="3">
-        <v>48</v>
-      </c>
       <c r="K14" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L14" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M14" s="1">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="N14" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1">
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="U14" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="V14" s="3">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="Y14" s="1">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="Z14" s="1">
-        <v>37</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="G15" s="3">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="H15" s="3">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="I15" s="3">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="J15" s="3">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="K15" s="3">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="L15" s="3">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="M15" s="1">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="O15" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P15" s="1">
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>1020</v>
+        <v>960</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T15" s="1">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="U15" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="V15" s="3">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>567</v>
+        <v>320</v>
       </c>
       <c r="Y15" s="1">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="Z15" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AA15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>10000</v>
       </c>
       <c r="AC15" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="G16" s="3">
-        <v>42</v>
+        <v>576</v>
       </c>
       <c r="H16" s="3">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="I16" s="3">
-        <v>101</v>
+        <v>720</v>
       </c>
       <c r="J16" s="3">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="K16" s="3">
-        <v>112</v>
+        <v>640</v>
       </c>
       <c r="L16" s="3">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="M16" s="1">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="N16" s="3">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="O16" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>1440</v>
+        <v>1920</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="T16" s="1">
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="U16" s="1">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="V16" s="3">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="Y16" s="1">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="Z16" s="1">
-        <v>37</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>86400</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="H17" s="3">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="I17" s="3">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="J17" s="3">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="K17" s="3">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="L17" s="3">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M17" s="1">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="N17" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="T17" s="1">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="U17" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="V17" s="3">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="Y17" s="1">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="Z17" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="H18" s="3">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="I18" s="3">
-        <v>159</v>
+        <v>384</v>
       </c>
       <c r="J18" s="3">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="K18" s="3">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="L18" s="3">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="M18" s="1">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="N18" s="3">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>1496</v>
+        <v>1280</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1496</v>
+        <v>1280</v>
       </c>
       <c r="T18" s="1">
-        <v>748</v>
+        <v>640</v>
       </c>
       <c r="U18" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="V18" s="3">
-        <v>499</v>
+        <v>256</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>499</v>
+        <v>256</v>
       </c>
       <c r="Y18" s="1">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="Z18" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AA18" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>10000</v>
       </c>
       <c r="AC18" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="G19" s="3">
-        <v>99</v>
+        <v>960</v>
       </c>
       <c r="H19" s="3">
-        <v>124</v>
+        <v>640</v>
       </c>
       <c r="I19" s="3">
-        <v>185</v>
+        <v>768</v>
       </c>
       <c r="J19" s="3">
-        <v>62</v>
+        <v>512</v>
       </c>
       <c r="K19" s="3">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="L19" s="3">
-        <v>53</v>
+        <v>360</v>
       </c>
       <c r="M19" s="1">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="N19" s="3">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="O19" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
       </c>
       <c r="Q19" s="3">
-        <v>2112</v>
+        <v>2560</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>2112</v>
+        <v>2560</v>
       </c>
       <c r="T19" s="1">
-        <v>1056</v>
+        <v>1280</v>
       </c>
       <c r="U19" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="V19" s="3">
-        <v>704</v>
+        <v>512</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>704</v>
+        <v>512</v>
       </c>
       <c r="Y19" s="1">
-        <v>352</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>86400</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="G20" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>192</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>96</v>
-      </c>
-      <c r="L20" s="3">
-        <v>40</v>
-      </c>
       <c r="M20" s="1">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="N20" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P20" s="1">
         <v>4</v>
       </c>
       <c r="Q20" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="R20" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="S20" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="T20" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="U20" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="V20" s="3">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="W20" s="1">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="X20" s="1">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="Y20" s="1">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="Z20" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>192</v>
+        <v>640</v>
       </c>
       <c r="G21" s="3">
-        <v>288</v>
+        <v>960</v>
       </c>
       <c r="H21" s="3">
+        <v>400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>384</v>
+      </c>
+      <c r="L21" s="3">
+        <v>400</v>
+      </c>
+      <c r="M21" s="1">
         <v>120</v>
       </c>
-      <c r="I21" s="3">
-        <v>240</v>
-      </c>
-      <c r="J21" s="3">
-        <v>360</v>
-      </c>
-      <c r="K21" s="3">
-        <v>116</v>
-      </c>
-      <c r="L21" s="3">
-        <v>68</v>
-      </c>
-      <c r="M21" s="1">
-        <v>58</v>
-      </c>
       <c r="N21" s="3">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="O21" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P21" s="1">
         <v>4</v>
       </c>
       <c r="Q21" s="3">
-        <v>2040</v>
+        <v>1920</v>
       </c>
       <c r="R21" s="1">
-        <v>2040</v>
+        <v>1920</v>
       </c>
       <c r="S21" s="1">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="T21" s="1">
-        <v>1360</v>
+        <v>1280</v>
       </c>
       <c r="U21" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="V21" s="3">
-        <v>680</v>
+        <v>384</v>
       </c>
       <c r="W21" s="1">
-        <v>680</v>
+        <v>384</v>
       </c>
       <c r="X21" s="1">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="Y21" s="1">
-        <v>454</v>
+        <v>256</v>
       </c>
       <c r="Z21" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA21" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>10000</v>
       </c>
       <c r="AC21" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3">
-        <v>224</v>
+        <v>1280</v>
       </c>
       <c r="G22" s="3">
-        <v>336</v>
+        <v>1920</v>
       </c>
       <c r="H22" s="3">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="I22" s="3">
-        <v>280</v>
+        <v>1600</v>
       </c>
       <c r="J22" s="3">
-        <v>420</v>
+        <v>2400</v>
       </c>
       <c r="K22" s="3">
-        <v>135</v>
+        <v>768</v>
       </c>
       <c r="L22" s="3">
-        <v>96</v>
+        <v>800</v>
       </c>
       <c r="M22" s="1">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="N22" s="3">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="O22" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="P22" s="1">
         <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="R22" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="S22" s="1">
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="T22" s="1">
-        <v>1920</v>
+        <v>2560</v>
       </c>
       <c r="U22" s="1">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="V22" s="3">
-        <v>960</v>
+        <v>768</v>
       </c>
       <c r="W22" s="1">
-        <v>960</v>
+        <v>768</v>
       </c>
       <c r="X22" s="1">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="Y22" s="1">
-        <v>640</v>
+        <v>512</v>
       </c>
       <c r="Z22" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>86400</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="G23" s="3">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="H23" s="3">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I23" s="3">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="J23" s="3">
-        <v>212</v>
+        <v>384</v>
       </c>
       <c r="K23" s="3">
+        <v>240</v>
+      </c>
+      <c r="L23" s="3">
+        <v>180</v>
+      </c>
+      <c r="M23" s="1">
         <v>132</v>
       </c>
-      <c r="L23" s="3">
-        <v>44</v>
-      </c>
-      <c r="M23" s="1">
-        <v>55</v>
-      </c>
       <c r="N23" s="3">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="O23" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P23" s="1">
         <v>4</v>
       </c>
       <c r="Q23" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="R23" s="1">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="S23" s="1">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T23" s="1">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="U23" s="1">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="V23" s="3">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="W23" s="1">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="X23" s="1">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="Y23" s="1">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="Z23" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>0</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="3">
-        <v>42</v>
+      <c r="E24" s="4">
+        <v>16</v>
       </c>
       <c r="F24" s="3">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="G24" s="3">
-        <v>317</v>
+        <v>960</v>
       </c>
       <c r="H24" s="3">
-        <v>169</v>
-      </c>
-      <c r="I24" s="3">
-        <v>212</v>
+        <v>512</v>
+      </c>
+      <c r="I24" s="1">
+        <v>640</v>
       </c>
       <c r="J24" s="3">
-        <v>254</v>
+        <v>768</v>
       </c>
       <c r="K24" s="3">
-        <v>159</v>
+        <v>480</v>
       </c>
       <c r="L24" s="3">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="M24" s="1">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="N24" s="3">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="O24" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P24" s="1">
         <v>4</v>
       </c>
       <c r="Q24" s="3">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="R24" s="1">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="S24" s="1">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="T24" s="1">
-        <v>1870</v>
+        <v>1600</v>
       </c>
       <c r="U24" s="1">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="V24" s="3">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="W24" s="1">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="X24" s="1">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="Y24" s="1">
-        <v>624</v>
+        <v>320</v>
       </c>
       <c r="Z24" s="1">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="AA24" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>100</v>
+        <v>5000</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>10000</v>
       </c>
       <c r="AC24" s="5">
-        <v>100</v>
+        <v>43200</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
-        <v>57</v>
+      <c r="E25" s="4">
+        <v>32</v>
       </c>
       <c r="F25" s="3">
-        <v>124</v>
-      </c>
-      <c r="G25" s="3">
-        <v>370</v>
+        <v>640</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1920</v>
       </c>
       <c r="H25" s="3">
-        <v>198</v>
-      </c>
-      <c r="I25" s="3">
-        <v>247</v>
-      </c>
-      <c r="J25" s="3">
-        <v>296</v>
+        <v>1024</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1280</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1536</v>
       </c>
       <c r="K25" s="3">
-        <v>185</v>
-      </c>
-      <c r="L25" s="3">
-        <v>106</v>
+        <v>960</v>
+      </c>
+      <c r="L25" s="1">
+        <v>720</v>
       </c>
       <c r="M25" s="1">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="N25" s="3">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="O25" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="P25" s="1">
         <v>4</v>
       </c>
-      <c r="Q25" s="3">
-        <v>2640</v>
+      <c r="Q25" s="1">
+        <v>3200</v>
       </c>
       <c r="R25" s="1">
-        <v>2640</v>
+        <v>3200</v>
       </c>
       <c r="S25" s="1">
-        <v>2640</v>
+        <v>3200</v>
       </c>
       <c r="T25" s="1">
-        <v>2640</v>
+        <v>3200</v>
       </c>
       <c r="U25" s="1">
-        <v>190</v>
-      </c>
-      <c r="V25" s="3">
-        <v>880</v>
+        <v>80</v>
+      </c>
+      <c r="V25" s="1">
+        <v>640</v>
       </c>
       <c r="W25" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="X25" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="Y25" s="1">
-        <v>880</v>
+        <v>640</v>
       </c>
       <c r="Z25" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA25" s="5">
-        <v>200</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>200</v>
+        <v>20</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>20000</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>86400</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="20" customHeight="1">
@@ -5362,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5377,506 +5397,506 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1">
+        <v>105</v>
+      </c>
+      <c r="H2" s="1">
+        <v>252</v>
+      </c>
+      <c r="I2" s="1">
+        <v>315</v>
+      </c>
+      <c r="J2" s="1">
+        <v>168</v>
+      </c>
+      <c r="K2" s="1">
+        <v>210</v>
+      </c>
+      <c r="L2" s="1">
+        <v>150</v>
+      </c>
+      <c r="M2" s="1">
+        <v>145</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="1">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="R2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" s="1">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1">
-        <v>50</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>40</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="G3" s="1">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="H3" s="1">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="J3" s="1">
+        <v>360</v>
+      </c>
+      <c r="K3" s="1">
+        <v>192</v>
+      </c>
+      <c r="L3" s="1">
+        <v>150</v>
+      </c>
+      <c r="M3" s="1">
+        <v>155</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K3" s="1">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1">
-        <v>64</v>
-      </c>
-      <c r="N3" s="1">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>60</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>174</v>
+        <v>456</v>
       </c>
       <c r="G4" s="1">
-        <v>58</v>
+        <v>684</v>
       </c>
       <c r="H4" s="1">
-        <v>116</v>
+        <v>570</v>
       </c>
       <c r="I4" s="1">
-        <v>140</v>
+        <v>855</v>
       </c>
       <c r="J4" s="1">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="K4" s="1">
-        <v>87</v>
+        <v>525</v>
       </c>
       <c r="L4" s="1">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="M4" s="1">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="N4" s="1">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
-        <v>224</v>
+        <v>1080</v>
       </c>
       <c r="G5" s="1">
-        <v>336</v>
+        <v>1620</v>
       </c>
       <c r="H5" s="1">
-        <v>140</v>
+        <v>675</v>
       </c>
       <c r="I5" s="1">
-        <v>280</v>
+        <v>1350</v>
       </c>
       <c r="J5" s="1">
-        <v>420</v>
+        <v>2025</v>
       </c>
       <c r="K5" s="1">
-        <v>135</v>
+        <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>96</v>
+        <v>750</v>
       </c>
       <c r="M5" s="1">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="N5" s="1">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="H6" s="1">
-        <v>31</v>
+        <v>405</v>
       </c>
       <c r="I6" s="1">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="J6" s="1">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="K6" s="1">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="L6" s="1">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="M6" s="1">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="N6" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
-        <v>78</v>
+        <v>810</v>
       </c>
       <c r="G7" s="1">
-        <v>65</v>
+        <v>540</v>
       </c>
       <c r="H7" s="1">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="I7" s="1">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="J7" s="1">
-        <v>33</v>
+        <v>648</v>
       </c>
       <c r="K7" s="1">
-        <v>49</v>
+        <v>360</v>
       </c>
       <c r="L7" s="1">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="M7" s="1">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="N7" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="G8" s="1">
-        <v>58</v>
+        <v>1080</v>
       </c>
       <c r="H8" s="1">
-        <v>72</v>
+        <v>720</v>
       </c>
       <c r="I8" s="1">
-        <v>108</v>
+        <v>864</v>
       </c>
       <c r="J8" s="1">
-        <v>36</v>
+        <v>576</v>
       </c>
       <c r="K8" s="1">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="L8" s="1">
-        <v>53</v>
+        <v>400</v>
       </c>
       <c r="M8" s="1">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="N8" s="1">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="G9" s="1">
-        <v>372</v>
+        <v>1080</v>
       </c>
       <c r="H9" s="1">
-        <v>199</v>
+        <v>576</v>
       </c>
       <c r="I9" s="1">
-        <v>248</v>
+        <v>720</v>
       </c>
       <c r="J9" s="1">
-        <v>298</v>
+        <v>864</v>
       </c>
       <c r="K9" s="1">
-        <v>186</v>
+        <v>4320</v>
       </c>
       <c r="L9" s="1">
-        <v>106</v>
+        <v>800</v>
       </c>
       <c r="M9" s="1">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="N9" s="1">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="O9" s="1">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="P9" s="1">
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25600" windowHeight="17140" tabRatio="529"/>
+    <workbookView xWindow="2240" yWindow="1020" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2993,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5382,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5672,7 +5680,7 @@
         <v>100</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1">
@@ -5896,7 +5904,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1020" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="1100" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5506,7 +5506,7 @@
         <v>6</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
         <v>30</v>
@@ -5562,7 +5562,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
         <v>30</v>
@@ -5618,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1">
         <v>50</v>
@@ -5674,7 +5674,7 @@
         <v>30</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1">
         <v>100</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1100" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="1820" yWindow="480" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>horseArcher_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -174,31 +170,203 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeCoinNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTimeSecondsNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_upgradeTechPointNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_killScore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_techBuildingName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingGround</t>
+  </si>
+  <si>
+    <t>hunterHall</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>ranger_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonWarrior</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>demonHunter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_specialMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_load</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_citizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>swordsman</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>sentinel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>sentinel_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>ranger</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>crossbowman_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>crossbowman</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>lancer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult</t>
+    <t>crossbowman_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -206,127 +374,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_upgradeCoinNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upgradeTimeSecondsNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_upgradeTechPointNeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_killScore</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_techBuildingName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>trainingGround</t>
-  </si>
-  <si>
-    <t>hunterHall</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>workshop</t>
-  </si>
-  <si>
-    <t>swordsman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista</t>
+    <t>siege</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -334,20 +382,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>siege</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>skeletonWarrior</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>deathHand_1,heroBones_1,soulStone_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>skeletonArcher</t>
@@ -355,11 +394,9 @@
   </si>
   <si>
     <t>deathHand_1,heroBones_1,magicBox_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>deathHand_2,heroBones_2,magicBox_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>meatWagon</t>
@@ -367,7 +404,6 @@
   </si>
   <si>
     <t>heroBones_4,soulStone_4,magicBox_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>priest</t>
@@ -375,23 +411,20 @@
   </si>
   <si>
     <t>confessionHood_1,brightRing_1,holyBook_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>demonHunter</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>paladin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>steamTank</t>
@@ -403,27 +436,6 @@
   </si>
   <si>
     <t>brightRing_4,holyBook_4,brightAlloy_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_specialMaterials</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_load</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_citizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3001,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showRuler="0" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3012,13 +3024,13 @@
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3027,37 +3039,37 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -3072,45 +3084,45 @@
         <v>9</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3155,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="S2" s="1">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="T2" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
@@ -3170,39 +3182,39 @@
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="X2" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3247,13 +3259,13 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="S3" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="T3" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
@@ -3262,75 +3274,75 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="X3" s="1">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="Y3" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="Z3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB3" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC3" s="5">
         <v>43200</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3">
+        <v>180</v>
+      </c>
+      <c r="G4" s="3">
+        <v>90</v>
+      </c>
+      <c r="H4" s="3">
+        <v>216</v>
+      </c>
+      <c r="I4" s="3">
+        <v>270</v>
+      </c>
+      <c r="J4" s="3">
+        <v>144</v>
+      </c>
+      <c r="K4" s="3">
         <v>240</v>
       </c>
-      <c r="G4" s="3">
-        <v>120</v>
-      </c>
-      <c r="H4" s="3">
-        <v>288</v>
-      </c>
-      <c r="I4" s="3">
-        <v>360</v>
-      </c>
-      <c r="J4" s="3">
-        <v>192</v>
-      </c>
-      <c r="K4" s="3">
-        <v>320</v>
-      </c>
       <c r="L4" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M4" s="1">
         <v>170</v>
       </c>
       <c r="N4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -3339,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1600</v>
+        <v>480</v>
       </c>
       <c r="S4" s="1">
         <v>960</v>
       </c>
       <c r="T4" s="1">
-        <v>640</v>
+        <v>960</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
@@ -3354,39 +3366,39 @@
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="X4" s="1">
         <v>192</v>
       </c>
       <c r="Y4" s="1">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="Z4" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="1">
         <v>100000</v>
       </c>
       <c r="AB4" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC4" s="1">
         <v>86400</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3431,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="S5" s="1">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="T5" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
@@ -3446,39 +3458,39 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="X5" s="1">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Y5" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="5">
         <v>0</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="1">
         <v>0</v>
       </c>
       <c r="AC5" s="5">
         <v>0</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -3523,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="S6" s="1">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="T6" s="1">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
@@ -3538,75 +3550,75 @@
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="X6" s="1">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="1">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="Z6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA6" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB6" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC6" s="5">
         <v>43200</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="G7" s="3">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="H7" s="3">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="I7" s="3">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="J7" s="3">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K7" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L7" s="3">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="M7" s="1">
         <v>140</v>
       </c>
       <c r="N7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -3615,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1280</v>
+        <v>480</v>
       </c>
       <c r="S7" s="1">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="T7" s="1">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="U7" s="1">
         <v>20</v>
@@ -3630,39 +3642,39 @@
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="X7" s="1">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="Y7" s="1">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Z7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA7" s="1">
         <v>100000</v>
       </c>
       <c r="AB7" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC7" s="1">
         <v>86400</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3707,13 +3719,13 @@
         <v>400</v>
       </c>
       <c r="R8" s="1">
+        <v>160</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
         <v>240</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>160</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
@@ -3722,39 +3734,39 @@
         <v>80</v>
       </c>
       <c r="W8" s="1">
+        <v>32</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
         <v>48</v>
       </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>32</v>
-      </c>
       <c r="Z8" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA8" s="5">
         <v>0</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="1">
         <v>0</v>
       </c>
       <c r="AC8" s="5">
         <v>0</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -3799,13 +3811,13 @@
         <v>800</v>
       </c>
       <c r="R9" s="1">
+        <v>320</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>480</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>320</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
@@ -3814,131 +3826,131 @@
         <v>160</v>
       </c>
       <c r="W9" s="1">
+        <v>64</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
         <v>96</v>
       </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>64</v>
-      </c>
       <c r="Z9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA9" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB9" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC9" s="5">
         <v>43200</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="G10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="J10" s="3">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K10" s="3">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="L10" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="M10" s="1">
         <v>160</v>
       </c>
       <c r="N10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="R10" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="U10" s="1">
         <v>20</v>
       </c>
       <c r="V10" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="W10" s="1">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="Z10" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="1">
         <v>100000</v>
       </c>
       <c r="AB10" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC10" s="1">
         <v>86400</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -4007,30 +4019,30 @@
         <v>32</v>
       </c>
       <c r="Z11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA11" s="5">
         <v>0</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AB11" s="1">
         <v>0</v>
       </c>
       <c r="AC11" s="5">
         <v>0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -4099,122 +4111,122 @@
         <v>64</v>
       </c>
       <c r="Z12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA12" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB12" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC12" s="5">
         <v>43200</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="G13" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="H13" s="3">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="I13" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J13" s="3">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="K13" s="3">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="L13" s="3">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="M13" s="1">
         <v>150</v>
       </c>
       <c r="N13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="R13" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="U13" s="1">
         <v>20</v>
       </c>
       <c r="V13" s="3">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="W13" s="1">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="Z13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="1">
         <v>100000</v>
       </c>
       <c r="AB13" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC13" s="1">
         <v>86400</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -4283,30 +4295,30 @@
         <v>64</v>
       </c>
       <c r="Z14" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA14" s="5">
         <v>0</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="1">
         <v>0</v>
       </c>
       <c r="AC14" s="5">
         <v>0</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -4375,122 +4387,122 @@
         <v>128</v>
       </c>
       <c r="Z15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA15" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB15" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC15" s="5">
         <v>43200</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16" s="3">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="G16" s="3">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="H16" s="3">
+        <v>360</v>
+      </c>
+      <c r="I16" s="3">
+        <v>540</v>
+      </c>
+      <c r="J16" s="3">
+        <v>180</v>
+      </c>
+      <c r="K16" s="3">
         <v>480</v>
       </c>
-      <c r="I16" s="3">
-        <v>720</v>
-      </c>
-      <c r="J16" s="3">
-        <v>240</v>
-      </c>
-      <c r="K16" s="3">
-        <v>640</v>
-      </c>
       <c r="L16" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M16" s="1">
         <v>200</v>
       </c>
       <c r="N16" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O16" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="T16" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U16" s="1">
         <v>40</v>
       </c>
       <c r="V16" s="3">
-        <v>384</v>
+        <v>288</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Y16" s="1">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="Z16" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA16" s="1">
         <v>100000</v>
       </c>
       <c r="AB16" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC16" s="1">
         <v>86400</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -4559,30 +4571,30 @@
         <v>64</v>
       </c>
       <c r="Z17" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA17" s="5">
         <v>0</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="1">
         <v>0</v>
       </c>
       <c r="AC17" s="5">
         <v>0</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -4651,122 +4663,122 @@
         <v>128</v>
       </c>
       <c r="Z18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA18" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB18" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC18" s="5">
         <v>43200</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="G19" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="H19" s="3">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="I19" s="3">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="J19" s="3">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="K19" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="L19" s="3">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="M19" s="1">
         <v>240</v>
       </c>
       <c r="N19" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O19" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
       </c>
       <c r="Q19" s="3">
-        <v>2560</v>
+        <v>1920</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>2560</v>
+        <v>1920</v>
       </c>
       <c r="T19" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U19" s="1">
         <v>40</v>
       </c>
       <c r="V19" s="3">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="Y19" s="1">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="Z19" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA19" s="1">
         <v>100000</v>
       </c>
       <c r="AB19" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC19" s="1">
         <v>86400</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4814,7 +4826,7 @@
         <v>960</v>
       </c>
       <c r="S20" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="T20" s="1">
         <v>640</v>
@@ -4829,36 +4841,36 @@
         <v>192</v>
       </c>
       <c r="X20" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="Y20" s="1">
         <v>128</v>
       </c>
       <c r="Z20" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA20" s="5">
         <v>0</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="1">
         <v>0</v>
       </c>
       <c r="AC20" s="5">
         <v>0</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -4906,7 +4918,7 @@
         <v>1920</v>
       </c>
       <c r="S21" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="T21" s="1">
         <v>1280</v>
@@ -4921,133 +4933,133 @@
         <v>384</v>
       </c>
       <c r="X21" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="Y21" s="1">
         <v>256</v>
       </c>
       <c r="Z21" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA21" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB21" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC21" s="5">
         <v>43200</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="G22" s="3">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="H22" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="3">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="L22" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M22" s="1">
         <v>120</v>
       </c>
       <c r="N22" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O22" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P22" s="1">
         <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>3840</v>
+        <v>2880</v>
       </c>
       <c r="R22" s="1">
-        <v>3840</v>
+        <v>2880</v>
       </c>
       <c r="S22" s="1">
-        <v>1280</v>
+        <v>1920</v>
       </c>
       <c r="T22" s="1">
-        <v>2560</v>
+        <v>1920</v>
       </c>
       <c r="U22" s="1">
         <v>80</v>
       </c>
       <c r="V22" s="3">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="W22" s="1">
-        <v>768</v>
+        <v>576</v>
       </c>
       <c r="X22" s="1">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="Y22" s="1">
-        <v>512</v>
+        <v>384</v>
       </c>
       <c r="Z22" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA22" s="1">
         <v>100000</v>
       </c>
       <c r="AB22" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC22" s="1">
         <v>86400</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>8</v>
       </c>
       <c r="F23" s="3">
@@ -5059,7 +5071,7 @@
       <c r="H23" s="3">
         <v>256</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>320</v>
       </c>
       <c r="J23" s="3">
@@ -5111,30 +5123,30 @@
         <v>160</v>
       </c>
       <c r="Z23" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA23" s="5">
         <v>0</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AB23" s="1">
         <v>0</v>
       </c>
       <c r="AC23" s="5">
         <v>0</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -5145,7 +5157,7 @@
       <c r="F24" s="3">
         <v>320</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>960</v>
       </c>
       <c r="H24" s="3">
@@ -5154,13 +5166,13 @@
       <c r="I24" s="1">
         <v>640</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <v>768</v>
       </c>
       <c r="K24" s="3">
         <v>480</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>360</v>
       </c>
       <c r="M24" s="1">
@@ -5175,7 +5187,7 @@
       <c r="P24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="1">
         <v>1600</v>
       </c>
       <c r="R24" s="1">
@@ -5190,7 +5202,7 @@
       <c r="U24" s="1">
         <v>80</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="1">
         <v>320</v>
       </c>
       <c r="W24" s="1">
@@ -5203,111 +5215,111 @@
         <v>320</v>
       </c>
       <c r="Z24" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA24" s="5">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="AB24" s="5">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="AC24" s="5">
         <v>43200</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="4">
-        <v>32</v>
-      </c>
-      <c r="F25" s="3">
-        <v>640</v>
+        <v>24</v>
+      </c>
+      <c r="F25" s="4">
+        <v>480</v>
       </c>
       <c r="G25" s="4">
-        <v>1920</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1024</v>
+        <v>1440</v>
+      </c>
+      <c r="H25" s="1">
+        <v>768</v>
       </c>
       <c r="I25" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="J25" s="1">
-        <v>1536</v>
-      </c>
-      <c r="K25" s="3">
-        <v>960</v>
+        <v>1152</v>
+      </c>
+      <c r="K25" s="1">
+        <v>720</v>
       </c>
       <c r="L25" s="1">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="M25" s="1">
         <v>132</v>
       </c>
-      <c r="N25" s="3">
-        <v>16</v>
+      <c r="N25" s="1">
+        <v>12</v>
       </c>
       <c r="O25" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P25" s="1">
         <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="R25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="S25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="T25" s="1">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="U25" s="1">
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="W25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="X25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Y25" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Z25" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AA25" s="1">
         <v>100000</v>
       </c>
       <c r="AB25" s="5">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="AC25" s="1">
         <v>86400</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="20" customHeight="1">
@@ -5390,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5405,13 +5417,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5420,19 +5432,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -5444,66 +5456,66 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="J2" s="1">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="L2" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M2" s="1">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
@@ -5512,54 +5524,54 @@
         <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="G3" s="1">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="J3" s="1">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="K3" s="1">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="L3" s="1">
+        <v>60</v>
+      </c>
+      <c r="M3" s="1">
         <v>150</v>
       </c>
-      <c r="M3" s="1">
-        <v>155</v>
-      </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -5568,7 +5580,7 @@
         <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20" customHeight="1">
@@ -5576,37 +5588,37 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>456</v>
+        <v>216</v>
       </c>
       <c r="G4" s="1">
-        <v>684</v>
+        <v>324</v>
       </c>
       <c r="H4" s="1">
-        <v>570</v>
+        <v>270</v>
       </c>
       <c r="I4" s="1">
-        <v>855</v>
+        <v>405</v>
       </c>
       <c r="J4" s="1">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="K4" s="1">
-        <v>525</v>
+        <v>360</v>
       </c>
       <c r="L4" s="1">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="M4" s="1">
         <v>185</v>
@@ -5615,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
@@ -5624,45 +5636,45 @@
         <v>50</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>1080</v>
+        <v>346</v>
       </c>
       <c r="G5" s="1">
-        <v>1620</v>
+        <v>518</v>
       </c>
       <c r="H5" s="1">
-        <v>675</v>
+        <v>216</v>
       </c>
       <c r="I5" s="1">
-        <v>1350</v>
+        <v>432</v>
       </c>
       <c r="J5" s="1">
-        <v>2025</v>
+        <v>648</v>
       </c>
       <c r="K5" s="1">
         <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="M5" s="1">
         <v>125</v>
@@ -5671,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P5" s="1">
         <v>4</v>
@@ -5680,54 +5692,54 @@
         <v>100</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="I6" s="1">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="J6" s="1">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="L6" s="1">
+        <v>140</v>
+      </c>
+      <c r="M6" s="1">
         <v>160</v>
       </c>
-      <c r="M6" s="1">
-        <v>150</v>
-      </c>
       <c r="N6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -5736,54 +5748,54 @@
         <v>30</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>810</v>
+        <v>375</v>
       </c>
       <c r="G7" s="1">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="H7" s="1">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="I7" s="1">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="J7" s="1">
-        <v>648</v>
+        <v>300</v>
       </c>
       <c r="K7" s="1">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="L7" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -5792,54 +5804,54 @@
         <v>30</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1">
-        <v>1080</v>
+        <v>300</v>
       </c>
       <c r="H8" s="1">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1">
-        <v>864</v>
+        <v>240</v>
       </c>
       <c r="J8" s="1">
-        <v>576</v>
+        <v>160</v>
       </c>
       <c r="K8" s="1">
-        <v>1080</v>
+        <v>600</v>
       </c>
       <c r="L8" s="1">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="M8" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="N8" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -5848,54 +5860,54 @@
         <v>50</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="G9" s="1">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="H9" s="1">
+        <v>384</v>
+      </c>
+      <c r="I9" s="1">
+        <v>480</v>
+      </c>
+      <c r="J9" s="1">
         <v>576</v>
       </c>
-      <c r="I9" s="1">
-        <v>720</v>
-      </c>
-      <c r="J9" s="1">
-        <v>864</v>
-      </c>
       <c r="K9" s="1">
-        <v>4320</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="1">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M9" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O9" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P9" s="1">
         <v>4</v>
@@ -5904,7 +5916,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="480" windowWidth="25600" windowHeight="17140" tabRatio="529" activeTab="1"/>
+    <workbookView xWindow="3460" yWindow="1140" windowWidth="32100" windowHeight="18280" tabRatio="132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -92,22 +92,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_treatWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatFood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_treatTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -214,14 +198,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_techBuildingName</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -436,6 +412,18 @@
   </si>
   <si>
     <t>brightRing_4,holyBook_4,brightAlloy_4</t>
+  </si>
+  <si>
+    <t>FLOAT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="974">
+  <cellStyleXfs count="992">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1571,8 +1559,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1589,8 +1595,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="974">
+  <cellStyles count="992">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2080,6 +2089,15 @@
     <cellStyle name="超链接" xfId="968" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="970" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="990" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2562,6 +2580,15 @@
     <cellStyle name="访问过的超链接" xfId="969" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="971" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="991" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3011,26 +3038,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="13" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="20.6640625" style="1"/>
+    <col min="22" max="22" width="14.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3039,37 +3071,37 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -3087,42 +3119,33 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" ht="20" customHeight="1">
+    <row r="2" spans="1:27" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3154,8 +3177,8 @@
       <c r="M2" s="1">
         <v>170</v>
       </c>
-      <c r="N2" s="3">
-        <v>1</v>
+      <c r="N2" s="6">
+        <v>0.25</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
@@ -3167,54 +3190,45 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="S2" s="1">
         <v>320</v>
       </c>
       <c r="T2" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="1">
+        <v>200</v>
+      </c>
+      <c r="W2" s="1">
+        <v>10</v>
+      </c>
+      <c r="X2" s="5">
         <v>0</v>
       </c>
-      <c r="W2" s="1">
-        <v>32</v>
-      </c>
-      <c r="X2" s="1">
-        <v>64</v>
-      </c>
       <c r="Y2" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="5">
         <v>0</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="Z2" s="5">
         <v>0</v>
       </c>
-      <c r="AC2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>48</v>
+      <c r="AA2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="20" customHeight="1">
+    <row r="3" spans="1:27" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3246,8 +3260,8 @@
       <c r="M3" s="1">
         <v>170</v>
       </c>
-      <c r="N3" s="3">
-        <v>2</v>
+      <c r="N3" s="6">
+        <v>0.5</v>
       </c>
       <c r="O3" s="1">
         <v>4</v>
@@ -3259,54 +3273,45 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="S3" s="1">
         <v>640</v>
       </c>
       <c r="T3" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
       </c>
-      <c r="V3" s="3">
-        <v>0</v>
+      <c r="V3" s="1">
+        <v>400</v>
       </c>
       <c r="W3" s="1">
-        <v>64</v>
-      </c>
-      <c r="X3" s="1">
-        <v>128</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z3" s="1">
         <v>10</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="X3" s="5">
         <v>50000</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="Y3" s="5">
         <v>2500</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="Z3" s="5">
         <v>43200</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>48</v>
+      <c r="AA3" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="20" customHeight="1">
+    <row r="4" spans="1:27" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3338,8 +3343,8 @@
       <c r="M4" s="1">
         <v>170</v>
       </c>
-      <c r="N4" s="3">
-        <v>3</v>
+      <c r="N4" s="6">
+        <v>0.75</v>
       </c>
       <c r="O4" s="1">
         <v>6</v>
@@ -3351,54 +3356,45 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S4" s="1">
         <v>960</v>
       </c>
       <c r="T4" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
       </c>
-      <c r="V4" s="3">
-        <v>0</v>
+      <c r="V4" s="1">
+        <v>600</v>
       </c>
       <c r="W4" s="1">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="X4" s="1">
-        <v>192</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>192</v>
+        <v>100000</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>5000</v>
       </c>
       <c r="Z4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC4" s="1">
         <v>86400</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>48</v>
+      <c r="AA4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="20" customHeight="1">
+    <row r="5" spans="1:27" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3430,8 +3426,8 @@
       <c r="M5" s="1">
         <v>140</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
+      <c r="N5" s="6">
+        <v>0.25</v>
       </c>
       <c r="O5" s="1">
         <v>2</v>
@@ -3443,54 +3439,45 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="S5" s="1">
         <v>400</v>
       </c>
       <c r="T5" s="1">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="1">
+        <v>200</v>
+      </c>
+      <c r="W5" s="1">
+        <v>10</v>
+      </c>
+      <c r="X5" s="5">
         <v>0</v>
       </c>
-      <c r="W5" s="1">
-        <v>32</v>
-      </c>
-      <c r="X5" s="1">
-        <v>80</v>
-      </c>
       <c r="Y5" s="1">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="5">
         <v>0</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="Z5" s="5">
         <v>0</v>
       </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>48</v>
+      <c r="AA5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="20" customHeight="1">
+    <row r="6" spans="1:27" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -3522,8 +3509,8 @@
       <c r="M6" s="1">
         <v>140</v>
       </c>
-      <c r="N6" s="3">
-        <v>2</v>
+      <c r="N6" s="6">
+        <v>0.5</v>
       </c>
       <c r="O6" s="1">
         <v>4</v>
@@ -3535,54 +3522,45 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="S6" s="1">
         <v>800</v>
       </c>
       <c r="T6" s="1">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
       </c>
-      <c r="V6" s="3">
-        <v>0</v>
+      <c r="V6" s="1">
+        <v>400</v>
       </c>
       <c r="W6" s="1">
-        <v>64</v>
-      </c>
-      <c r="X6" s="1">
-        <v>160</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>96</v>
-      </c>
-      <c r="Z6" s="1">
         <v>10</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="X6" s="5">
         <v>50000</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="Y6" s="5">
         <v>2500</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="Z6" s="5">
         <v>43200</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>48</v>
+      <c r="AA6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="20" customHeight="1">
+    <row r="7" spans="1:27" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -3614,8 +3592,8 @@
       <c r="M7" s="1">
         <v>140</v>
       </c>
-      <c r="N7" s="3">
-        <v>3</v>
+      <c r="N7" s="6">
+        <v>0.75</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
@@ -3627,54 +3605,45 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="S7" s="1">
         <v>1200</v>
       </c>
       <c r="T7" s="1">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="U7" s="1">
         <v>20</v>
       </c>
-      <c r="V7" s="3">
-        <v>0</v>
+      <c r="V7" s="1">
+        <v>600</v>
       </c>
       <c r="W7" s="1">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="X7" s="1">
-        <v>240</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>144</v>
+        <v>100000</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>5000</v>
       </c>
       <c r="Z7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC7" s="1">
         <v>86400</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>48</v>
+      <c r="AA7" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="20" customHeight="1">
+    <row r="8" spans="1:27" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -3706,8 +3675,8 @@
       <c r="M8" s="1">
         <v>160</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
+      <c r="N8" s="6">
+        <v>0.25</v>
       </c>
       <c r="O8" s="1">
         <v>2</v>
@@ -3719,54 +3688,45 @@
         <v>400</v>
       </c>
       <c r="R8" s="1">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
       </c>
-      <c r="V8" s="3">
-        <v>80</v>
+      <c r="V8" s="1">
+        <v>200</v>
       </c>
       <c r="W8" s="1">
-        <v>32</v>
-      </c>
-      <c r="X8" s="1">
+        <v>10</v>
+      </c>
+      <c r="X8" s="5">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA8" s="5">
         <v>0</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="Z8" s="5">
         <v>0</v>
       </c>
-      <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>49</v>
+      <c r="AA8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="20" customHeight="1">
+    <row r="9" spans="1:27" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -3798,8 +3758,8 @@
       <c r="M9" s="1">
         <v>160</v>
       </c>
-      <c r="N9" s="3">
-        <v>2</v>
+      <c r="N9" s="6">
+        <v>0.5</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
@@ -3811,54 +3771,45 @@
         <v>800</v>
       </c>
       <c r="R9" s="1">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
       </c>
-      <c r="V9" s="3">
-        <v>160</v>
+      <c r="V9" s="1">
+        <v>400</v>
       </c>
       <c r="W9" s="1">
-        <v>64</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>96</v>
-      </c>
-      <c r="Z9" s="1">
         <v>10</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="X9" s="5">
         <v>50000</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="Y9" s="5">
         <v>2500</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="Z9" s="5">
         <v>43200</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>49</v>
+      <c r="AA9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="20" customHeight="1">
+    <row r="10" spans="1:27" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -3890,8 +3841,8 @@
       <c r="M10" s="1">
         <v>160</v>
       </c>
-      <c r="N10" s="3">
-        <v>3</v>
+      <c r="N10" s="6">
+        <v>0.75</v>
       </c>
       <c r="O10" s="1">
         <v>6</v>
@@ -3903,54 +3854,45 @@
         <v>1200</v>
       </c>
       <c r="R10" s="1">
-        <v>480</v>
+        <v>720</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="U10" s="1">
         <v>20</v>
       </c>
-      <c r="V10" s="3">
-        <v>240</v>
+      <c r="V10" s="1">
+        <v>600</v>
       </c>
       <c r="W10" s="1">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>144</v>
+        <v>100000</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>5000</v>
       </c>
       <c r="Z10" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC10" s="1">
         <v>86400</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>49</v>
+      <c r="AA10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="20" customHeight="1">
+    <row r="11" spans="1:27" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3982,8 +3924,8 @@
       <c r="M11" s="1">
         <v>150</v>
       </c>
-      <c r="N11" s="3">
-        <v>1</v>
+      <c r="N11" s="6">
+        <v>0.25</v>
       </c>
       <c r="O11" s="1">
         <v>2</v>
@@ -4006,43 +3948,34 @@
       <c r="U11" s="1">
         <v>20</v>
       </c>
-      <c r="V11" s="3">
-        <v>64</v>
+      <c r="V11" s="1">
+        <v>200</v>
       </c>
       <c r="W11" s="1">
-        <v>64</v>
-      </c>
-      <c r="X11" s="1">
+        <v>10</v>
+      </c>
+      <c r="X11" s="5">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="20" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -4074,8 +4007,8 @@
       <c r="M12" s="1">
         <v>150</v>
       </c>
-      <c r="N12" s="3">
-        <v>2</v>
+      <c r="N12" s="6">
+        <v>0.5</v>
       </c>
       <c r="O12" s="1">
         <v>4</v>
@@ -4098,43 +4031,34 @@
       <c r="U12" s="1">
         <v>20</v>
       </c>
-      <c r="V12" s="3">
-        <v>128</v>
+      <c r="V12" s="1">
+        <v>400</v>
       </c>
       <c r="W12" s="1">
-        <v>128</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="1">
         <v>10</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="X12" s="5">
         <v>50000</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="Y12" s="5">
         <v>2500</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="Z12" s="5">
         <v>43200</v>
       </c>
-      <c r="AD12" s="1" t="s">
-        <v>49</v>
+      <c r="AA12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="20" customHeight="1">
+    <row r="13" spans="1:27" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -4166,8 +4090,8 @@
       <c r="M13" s="1">
         <v>150</v>
       </c>
-      <c r="N13" s="3">
-        <v>3</v>
+      <c r="N13" s="6">
+        <v>0.75</v>
       </c>
       <c r="O13" s="1">
         <v>6</v>
@@ -4176,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="R13" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="T13" s="1">
         <v>480</v>
@@ -4190,43 +4114,34 @@
       <c r="U13" s="1">
         <v>20</v>
       </c>
-      <c r="V13" s="3">
-        <v>192</v>
+      <c r="V13" s="1">
+        <v>600</v>
       </c>
       <c r="W13" s="1">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>96</v>
+        <v>100000</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>5000</v>
       </c>
       <c r="Z13" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC13" s="1">
         <v>86400</v>
       </c>
-      <c r="AD13" s="1" t="s">
-        <v>49</v>
+      <c r="AA13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="20" customHeight="1">
+    <row r="14" spans="1:27" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -4258,8 +4173,8 @@
       <c r="M14" s="1">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>2</v>
+      <c r="N14" s="6">
+        <v>0.5</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
@@ -4282,43 +4197,34 @@
       <c r="U14" s="1">
         <v>40</v>
       </c>
-      <c r="V14" s="3">
-        <v>96</v>
+      <c r="V14" s="1">
+        <v>400</v>
       </c>
       <c r="W14" s="1">
+        <v>20</v>
+      </c>
+      <c r="X14" s="5">
         <v>0</v>
       </c>
-      <c r="X14" s="1">
-        <v>160</v>
-      </c>
       <c r="Y14" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -4350,8 +4256,8 @@
       <c r="M15" s="1">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>4</v>
+      <c r="N15" s="6">
+        <v>1</v>
       </c>
       <c r="O15" s="1">
         <v>8</v>
@@ -4374,43 +4280,34 @@
       <c r="U15" s="1">
         <v>40</v>
       </c>
-      <c r="V15" s="3">
-        <v>192</v>
+      <c r="V15" s="1">
+        <v>800</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>320</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z15" s="1">
         <v>20</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="X15" s="5">
         <v>50000</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="Y15" s="5">
         <v>2500</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="Z15" s="5">
         <v>43200</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -4442,8 +4339,8 @@
       <c r="M16" s="1">
         <v>200</v>
       </c>
-      <c r="N16" s="3">
-        <v>6</v>
+      <c r="N16" s="6">
+        <v>1.5</v>
       </c>
       <c r="O16" s="1">
         <v>12</v>
@@ -4466,43 +4363,34 @@
       <c r="U16" s="1">
         <v>40</v>
       </c>
-      <c r="V16" s="3">
-        <v>288</v>
+      <c r="V16" s="1">
+        <v>1200</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X16" s="1">
-        <v>480</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>192</v>
+        <v>100000</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>5000</v>
       </c>
       <c r="Z16" s="1">
+        <v>86400</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB16" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>86400</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -4534,8 +4422,8 @@
       <c r="M17" s="1">
         <v>240</v>
       </c>
-      <c r="N17" s="3">
-        <v>2</v>
+      <c r="N17" s="6">
+        <v>0.5</v>
       </c>
       <c r="O17" s="1">
         <v>4</v>
@@ -4558,43 +4446,34 @@
       <c r="U17" s="1">
         <v>40</v>
       </c>
-      <c r="V17" s="3">
-        <v>128</v>
+      <c r="V17" s="1">
+        <v>400</v>
       </c>
       <c r="W17" s="1">
+        <v>20</v>
+      </c>
+      <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="X17" s="1">
-        <v>128</v>
-      </c>
       <c r="Y17" s="1">
-        <v>64</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA17" s="5">
         <v>0</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="Z17" s="5">
         <v>0</v>
       </c>
-      <c r="AC17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>50</v>
+      <c r="AA17" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="20" customHeight="1">
+    <row r="18" spans="1:27" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -4626,8 +4505,8 @@
       <c r="M18" s="1">
         <v>240</v>
       </c>
-      <c r="N18" s="3">
-        <v>4</v>
+      <c r="N18" s="6">
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <v>8</v>
@@ -4650,43 +4529,34 @@
       <c r="U18" s="1">
         <v>40</v>
       </c>
-      <c r="V18" s="3">
-        <v>256</v>
+      <c r="V18" s="1">
+        <v>800</v>
       </c>
       <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>256</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z18" s="1">
         <v>20</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="X18" s="5">
         <v>50000</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="Y18" s="5">
         <v>2500</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="Z18" s="5">
         <v>43200</v>
       </c>
-      <c r="AD18" s="1" t="s">
-        <v>50</v>
+      <c r="AA18" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="20" customHeight="1">
+    <row r="19" spans="1:27" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -4718,8 +4588,8 @@
       <c r="M19" s="1">
         <v>240</v>
       </c>
-      <c r="N19" s="3">
-        <v>6</v>
+      <c r="N19" s="6">
+        <v>1.5</v>
       </c>
       <c r="O19" s="1">
         <v>12</v>
@@ -4742,43 +4612,34 @@
       <c r="U19" s="1">
         <v>40</v>
       </c>
-      <c r="V19" s="3">
-        <v>384</v>
+      <c r="V19" s="1">
+        <v>1200</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X19" s="1">
-        <v>384</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>192</v>
+        <v>100000</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>5000</v>
       </c>
       <c r="Z19" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC19" s="1">
         <v>86400</v>
       </c>
-      <c r="AD19" s="1" t="s">
-        <v>50</v>
+      <c r="AA19" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="20" customHeight="1">
+    <row r="20" spans="1:27" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -4810,8 +4671,8 @@
       <c r="M20" s="1">
         <v>120</v>
       </c>
-      <c r="N20" s="3">
-        <v>4</v>
+      <c r="N20" s="6">
+        <v>1</v>
       </c>
       <c r="O20" s="1">
         <v>8</v>
@@ -4820,10 +4681,10 @@
         <v>4</v>
       </c>
       <c r="Q20" s="3">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="R20" s="1">
-        <v>960</v>
+        <v>1280</v>
       </c>
       <c r="S20" s="1">
         <v>640</v>
@@ -4834,43 +4695,34 @@
       <c r="U20" s="1">
         <v>80</v>
       </c>
-      <c r="V20" s="3">
-        <v>192</v>
+      <c r="V20" s="1">
+        <v>800</v>
       </c>
       <c r="W20" s="1">
-        <v>192</v>
-      </c>
-      <c r="X20" s="1">
-        <v>128</v>
+        <v>40</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>128</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA20" s="5">
         <v>0</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="Z20" s="5">
         <v>0</v>
       </c>
-      <c r="AC20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>51</v>
+      <c r="AA20" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="20" customHeight="1">
+    <row r="21" spans="1:27" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -4902,8 +4754,8 @@
       <c r="M21" s="1">
         <v>120</v>
       </c>
-      <c r="N21" s="3">
-        <v>8</v>
+      <c r="N21" s="6">
+        <v>2</v>
       </c>
       <c r="O21" s="1">
         <v>16</v>
@@ -4912,10 +4764,10 @@
         <v>4</v>
       </c>
       <c r="Q21" s="3">
-        <v>1920</v>
+        <v>1280</v>
       </c>
       <c r="R21" s="1">
-        <v>1920</v>
+        <v>2560</v>
       </c>
       <c r="S21" s="1">
         <v>1280</v>
@@ -4926,43 +4778,34 @@
       <c r="U21" s="1">
         <v>80</v>
       </c>
-      <c r="V21" s="3">
-        <v>384</v>
+      <c r="V21" s="1">
+        <v>1600</v>
       </c>
       <c r="W21" s="1">
-        <v>384</v>
-      </c>
-      <c r="X21" s="1">
-        <v>256</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>256</v>
-      </c>
-      <c r="Z21" s="1">
         <v>40</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="X21" s="5">
         <v>50000</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="Y21" s="5">
         <v>2500</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="Z21" s="5">
         <v>43200</v>
       </c>
-      <c r="AD21" s="1" t="s">
-        <v>51</v>
+      <c r="AA21" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="20" customHeight="1">
+    <row r="22" spans="1:27" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -4994,8 +4837,8 @@
       <c r="M22" s="1">
         <v>120</v>
       </c>
-      <c r="N22" s="3">
-        <v>12</v>
+      <c r="N22" s="6">
+        <v>3</v>
       </c>
       <c r="O22" s="1">
         <v>24</v>
@@ -5004,10 +4847,10 @@
         <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>2880</v>
+        <v>1920</v>
       </c>
       <c r="R22" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="S22" s="1">
         <v>1920</v>
@@ -5018,43 +4861,34 @@
       <c r="U22" s="1">
         <v>80</v>
       </c>
-      <c r="V22" s="3">
-        <v>576</v>
+      <c r="V22" s="1">
+        <v>2400</v>
       </c>
       <c r="W22" s="1">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="X22" s="1">
-        <v>384</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>384</v>
+        <v>100000</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>5000</v>
       </c>
       <c r="Z22" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB22" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC22" s="1">
         <v>86400</v>
       </c>
-      <c r="AD22" s="1" t="s">
-        <v>51</v>
+      <c r="AA22" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="20" customHeight="1">
+    <row r="23" spans="1:27" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -5086,8 +4920,8 @@
       <c r="M23" s="1">
         <v>132</v>
       </c>
-      <c r="N23" s="3">
-        <v>4</v>
+      <c r="N23" s="6">
+        <v>1</v>
       </c>
       <c r="O23" s="1">
         <v>8</v>
@@ -5095,58 +4929,49 @@
       <c r="P23" s="1">
         <v>4</v>
       </c>
-      <c r="Q23" s="3">
-        <v>800</v>
+      <c r="Q23" s="1">
+        <v>960</v>
       </c>
       <c r="R23" s="1">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="S23" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="T23" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="U23" s="1">
         <v>80</v>
       </c>
-      <c r="V23" s="3">
-        <v>160</v>
+      <c r="V23" s="1">
+        <v>800</v>
       </c>
       <c r="W23" s="1">
-        <v>160</v>
-      </c>
-      <c r="X23" s="1">
-        <v>160</v>
+        <v>40</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>160</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA23" s="5">
         <v>0</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="Z23" s="5">
         <v>0</v>
       </c>
-      <c r="AC23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>51</v>
+      <c r="AA23" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="20" customHeight="1">
+    <row r="24" spans="1:27" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
@@ -5178,8 +5003,8 @@
       <c r="M24" s="1">
         <v>132</v>
       </c>
-      <c r="N24" s="3">
-        <v>8</v>
+      <c r="N24" s="6">
+        <v>2</v>
       </c>
       <c r="O24" s="1">
         <v>16</v>
@@ -5188,57 +5013,48 @@
         <v>4</v>
       </c>
       <c r="Q24" s="1">
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="R24" s="1">
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="S24" s="1">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="T24" s="1">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="U24" s="1">
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>320</v>
+        <v>1600</v>
       </c>
       <c r="W24" s="1">
-        <v>320</v>
-      </c>
-      <c r="X24" s="1">
-        <v>320</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>320</v>
-      </c>
-      <c r="Z24" s="1">
         <v>40</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="X24" s="5">
         <v>50000</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="Y24" s="5">
         <v>2500</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="Z24" s="5">
         <v>43200</v>
       </c>
-      <c r="AD24" s="1" t="s">
-        <v>51</v>
+      <c r="AA24" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="20" customHeight="1">
+    <row r="25" spans="1:27" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -5270,8 +5086,8 @@
       <c r="M25" s="1">
         <v>132</v>
       </c>
-      <c r="N25" s="1">
-        <v>12</v>
+      <c r="N25" s="6">
+        <v>3</v>
       </c>
       <c r="O25" s="1">
         <v>24</v>
@@ -5280,49 +5096,40 @@
         <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <v>2400</v>
+        <v>2880</v>
       </c>
       <c r="R25" s="1">
-        <v>2400</v>
+        <v>2880</v>
       </c>
       <c r="S25" s="1">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="T25" s="1">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="U25" s="1">
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>480</v>
+        <v>2400</v>
       </c>
       <c r="W25" s="1">
-        <v>480</v>
+        <v>40</v>
       </c>
       <c r="X25" s="1">
-        <v>480</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>480</v>
+        <v>100000</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>5000</v>
       </c>
       <c r="Z25" s="1">
-        <v>40</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>100000</v>
-      </c>
-      <c r="AB25" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AC25" s="1">
         <v>86400</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>51</v>
+      <c r="AA25" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="20" customHeight="1">
+    <row r="26" spans="1:27" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
@@ -5330,7 +5137,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:30" ht="20" customHeight="1">
+    <row r="27" spans="1:27" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -5338,7 +5145,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:30" ht="20" customHeight="1">
+    <row r="28" spans="1:27" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="D28" s="4"/>
@@ -5346,7 +5153,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:30" ht="20" customHeight="1">
+    <row r="29" spans="1:27" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="D29" s="4"/>
@@ -5354,7 +5161,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:30" ht="20" customHeight="1">
+    <row r="30" spans="1:27" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
@@ -5362,7 +5169,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:30" ht="20" customHeight="1">
+    <row r="31" spans="1:27" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
@@ -5370,7 +5177,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:30" ht="20" customHeight="1">
+    <row r="32" spans="1:27" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -5400,10 +5207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5411,19 +5218,24 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
     <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="20.6640625" style="1"/>
+    <col min="4" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="1" customWidth="1"/>
+    <col min="15" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="1"/>
+    <col min="18" max="18" width="14.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.83203125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -5432,19 +5244,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -5456,30 +5268,36 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1">
+    <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5523,19 +5341,25 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
+      <c r="R2" s="1">
+        <v>200</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1">
+    <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5579,19 +5403,25 @@
       <c r="Q3" s="1">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>49</v>
+      <c r="R3" s="1">
+        <v>400</v>
+      </c>
+      <c r="S3" s="1">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1">
+    <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5635,19 +5465,25 @@
       <c r="Q4" s="1">
         <v>50</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>50</v>
+      <c r="R4" s="1">
+        <v>600</v>
+      </c>
+      <c r="S4" s="1">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1">
+    <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5691,19 +5527,25 @@
       <c r="Q5" s="1">
         <v>100</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>25</v>
+      <c r="R5" s="1">
+        <v>200</v>
+      </c>
+      <c r="S5" s="1">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1">
+    <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5736,7 +5578,7 @@
         <v>160</v>
       </c>
       <c r="N6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>5</v>
@@ -5747,19 +5589,25 @@
       <c r="Q6" s="1">
         <v>30</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>48</v>
+      <c r="R6" s="1">
+        <v>400</v>
+      </c>
+      <c r="S6" s="1">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
+    <row r="7" spans="1:20" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5792,7 +5640,7 @@
         <v>150</v>
       </c>
       <c r="N7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
         <v>5</v>
@@ -5803,19 +5651,25 @@
       <c r="Q7" s="1">
         <v>30</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>49</v>
+      <c r="R7" s="1">
+        <v>600</v>
+      </c>
+      <c r="S7" s="1">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+    <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5848,7 +5702,7 @@
         <v>220</v>
       </c>
       <c r="N8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1">
         <v>10</v>
@@ -5859,19 +5713,25 @@
       <c r="Q8" s="1">
         <v>50</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>50</v>
+      <c r="R8" s="1">
+        <v>200</v>
+      </c>
+      <c r="S8" s="1">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20" customHeight="1">
+    <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -5904,7 +5764,7 @@
         <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
         <v>20</v>
@@ -5915,8 +5775,14 @@
       <c r="Q9" s="1">
         <v>100</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>25</v>
+      <c r="R9" s="1">
+        <v>400</v>
+      </c>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1140" windowWidth="32100" windowHeight="18280" tabRatio="132" activeTab="1"/>
+    <workbookView xWindow="-180" yWindow="1520" windowWidth="25000" windowHeight="15600" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="992">
+  <cellStyleXfs count="1004">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1599,7 +1611,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="992">
+  <cellStyles count="1004">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2098,6 +2110,12 @@
     <cellStyle name="超链接" xfId="986" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="988" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2589,6 +2607,12 @@
     <cellStyle name="访问过的超链接" xfId="987" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="989" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3040,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView showRuler="0" topLeftCell="P3" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3190,19 +3214,19 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="S2" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="T2" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
       </c>
       <c r="V2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W2" s="1">
         <v>10</v>
@@ -3273,19 +3297,19 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="S3" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="T3" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
       </c>
       <c r="V3" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W3" s="1">
         <v>10</v>
@@ -3439,19 +3463,19 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="S5" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T5" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W5" s="1">
         <v>10</v>
@@ -3522,19 +3546,19 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="S6" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T6" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
       </c>
       <c r="V6" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W6" s="1">
         <v>10</v>
@@ -3685,22 +3709,22 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R8" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
       </c>
       <c r="V8" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="1">
         <v>10</v>
@@ -3768,22 +3792,22 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="R9" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
       </c>
       <c r="V9" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W9" s="1">
         <v>10</v>
@@ -3934,22 +3958,22 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="R11" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="U11" s="1">
         <v>20</v>
       </c>
       <c r="V11" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W11" s="1">
         <v>10</v>
@@ -4017,22 +4041,22 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="R12" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="U12" s="1">
         <v>20</v>
       </c>
       <c r="V12" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W12" s="1">
         <v>10</v>
@@ -4183,22 +4207,22 @@
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T14" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="U14" s="1">
         <v>40</v>
       </c>
       <c r="V14" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W14" s="1">
         <v>20</v>
@@ -4266,22 +4290,22 @@
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="T15" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="U15" s="1">
         <v>40</v>
       </c>
       <c r="V15" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="W15" s="1">
         <v>20</v>
@@ -4432,22 +4456,22 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="T17" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="U17" s="1">
         <v>40</v>
       </c>
       <c r="V17" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W17" s="1">
         <v>20</v>
@@ -4515,22 +4539,22 @@
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="T18" s="1">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="U18" s="1">
         <v>40</v>
       </c>
       <c r="V18" s="1">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="W18" s="1">
         <v>20</v>
@@ -4681,22 +4705,22 @@
         <v>4</v>
       </c>
       <c r="Q20" s="3">
+        <v>320</v>
+      </c>
+      <c r="R20" s="1">
         <v>640</v>
       </c>
-      <c r="R20" s="1">
-        <v>1280</v>
-      </c>
       <c r="S20" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="T20" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="U20" s="1">
         <v>80</v>
       </c>
       <c r="V20" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="W20" s="1">
         <v>40</v>
@@ -4764,22 +4788,22 @@
         <v>4</v>
       </c>
       <c r="Q21" s="3">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="R21" s="1">
-        <v>2560</v>
+        <v>1920</v>
       </c>
       <c r="S21" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="T21" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U21" s="1">
         <v>80</v>
       </c>
       <c r="V21" s="1">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="W21" s="1">
         <v>40</v>
@@ -4846,7 +4870,7 @@
       <c r="P22" s="1">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="1">
         <v>1920</v>
       </c>
       <c r="R22" s="1">
@@ -4930,22 +4954,22 @@
         <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="R23" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="S23" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="T23" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="U23" s="1">
         <v>80</v>
       </c>
       <c r="V23" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="W23" s="1">
         <v>40</v>
@@ -5013,22 +5037,22 @@
         <v>4</v>
       </c>
       <c r="Q24" s="1">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="R24" s="1">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="S24" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="T24" s="1">
-        <v>1280</v>
+        <v>960</v>
       </c>
       <c r="U24" s="1">
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="W24" s="1">
         <v>40</v>
@@ -5209,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5342,10 +5366,10 @@
         <v>30</v>
       </c>
       <c r="R2" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S2" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
@@ -5404,10 +5428,10 @@
         <v>30</v>
       </c>
       <c r="R3" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>43</v>
@@ -5463,13 +5487,13 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="S4" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>44</v>
@@ -5525,13 +5549,13 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R5" s="1">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="S5" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>21</v>
@@ -5590,10 +5614,10 @@
         <v>30</v>
       </c>
       <c r="R6" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S6" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>42</v>
@@ -5652,10 +5676,10 @@
         <v>30</v>
       </c>
       <c r="R7" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>43</v>
@@ -5711,13 +5735,13 @@
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="S8" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>44</v>
@@ -5773,13 +5797,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R9" s="1">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="S9" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="1520" windowWidth="25000" windowHeight="15600" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1004">
+  <cellStyleXfs count="1008">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1611,7 +1615,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1004">
+  <cellStyles count="1008">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2116,6 +2120,8 @@
     <cellStyle name="超链接" xfId="998" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1000" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1006" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2613,6 +2619,8 @@
     <cellStyle name="访问过的超链接" xfId="999" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1001" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1007" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3064,8 +3072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="P3" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:T25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3202,7 +3210,7 @@
         <v>170</v>
       </c>
       <c r="N2" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
@@ -3285,7 +3293,7 @@
         <v>170</v>
       </c>
       <c r="N3" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>4</v>
@@ -3368,7 +3376,7 @@
         <v>170</v>
       </c>
       <c r="N4" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O4" s="1">
         <v>6</v>
@@ -3451,7 +3459,7 @@
         <v>140</v>
       </c>
       <c r="N5" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="1">
         <v>2</v>
@@ -3534,7 +3542,7 @@
         <v>140</v>
       </c>
       <c r="N6" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>4</v>
@@ -3617,7 +3625,7 @@
         <v>140</v>
       </c>
       <c r="N7" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
@@ -3700,7 +3708,7 @@
         <v>160</v>
       </c>
       <c r="N8" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="1">
         <v>2</v>
@@ -3709,13 +3717,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="R8" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T8" s="1">
         <v>80</v>
@@ -3783,7 +3791,7 @@
         <v>160</v>
       </c>
       <c r="N9" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>4</v>
@@ -3792,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="R9" s="1">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="T9" s="1">
         <v>240</v>
@@ -3866,7 +3874,7 @@
         <v>160</v>
       </c>
       <c r="N10" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O10" s="1">
         <v>6</v>
@@ -3875,13 +3883,13 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="R10" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="T10" s="1">
         <v>480</v>
@@ -3949,7 +3957,7 @@
         <v>150</v>
       </c>
       <c r="N11" s="6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="1">
         <v>2</v>
@@ -3958,13 +3966,13 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="R11" s="1">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T11" s="1">
         <v>80</v>
@@ -4032,7 +4040,7 @@
         <v>150</v>
       </c>
       <c r="N12" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <v>4</v>
@@ -4041,13 +4049,13 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="R12" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T12" s="1">
         <v>240</v>
@@ -4115,7 +4123,7 @@
         <v>150</v>
       </c>
       <c r="N13" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="O13" s="1">
         <v>6</v>
@@ -4198,7 +4206,7 @@
         <v>200</v>
       </c>
       <c r="N14" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
         <v>4</v>
@@ -4210,10 +4218,10 @@
         <v>240</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S14" s="1">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="T14" s="1">
         <v>160</v>
@@ -4281,7 +4289,7 @@
         <v>200</v>
       </c>
       <c r="N15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" s="1">
         <v>8</v>
@@ -4293,10 +4301,10 @@
         <v>720</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S15" s="1">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="T15" s="1">
         <v>480</v>
@@ -4364,7 +4372,7 @@
         <v>200</v>
       </c>
       <c r="N16" s="6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O16" s="1">
         <v>12</v>
@@ -4376,10 +4384,10 @@
         <v>1440</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="S16" s="1">
-        <v>2400</v>
+        <v>1440</v>
       </c>
       <c r="T16" s="1">
         <v>960</v>
@@ -4447,7 +4455,7 @@
         <v>240</v>
       </c>
       <c r="N17" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
         <v>4</v>
@@ -4459,10 +4467,10 @@
         <v>320</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S17" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="T17" s="1">
         <v>160</v>
@@ -4530,7 +4538,7 @@
         <v>240</v>
       </c>
       <c r="N18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="1">
         <v>8</v>
@@ -4542,10 +4550,10 @@
         <v>960</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S18" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="T18" s="1">
         <v>480</v>
@@ -4613,7 +4621,7 @@
         <v>240</v>
       </c>
       <c r="N19" s="6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O19" s="1">
         <v>12</v>
@@ -4625,10 +4633,10 @@
         <v>1920</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="S19" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="T19" s="1">
         <v>960</v>
@@ -4696,7 +4704,7 @@
         <v>120</v>
       </c>
       <c r="N20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="1">
         <v>8</v>
@@ -4705,13 +4713,13 @@
         <v>4</v>
       </c>
       <c r="Q20" s="3">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="R20" s="1">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="S20" s="1">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
         <v>320</v>
@@ -4779,7 +4787,7 @@
         <v>120</v>
       </c>
       <c r="N21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" s="1">
         <v>16</v>
@@ -4787,14 +4795,14 @@
       <c r="P21" s="1">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>960</v>
+      <c r="Q21" s="1">
+        <v>1440</v>
       </c>
       <c r="R21" s="1">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="S21" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
         <v>960</v>
@@ -4862,7 +4870,7 @@
         <v>120</v>
       </c>
       <c r="N22" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O22" s="1">
         <v>24</v>
@@ -4871,13 +4879,13 @@
         <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>1920</v>
+        <v>2880</v>
       </c>
       <c r="R22" s="1">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="S22" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1">
         <v>1920</v>
@@ -4945,7 +4953,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="1">
         <v>8</v>
@@ -4954,13 +4962,13 @@
         <v>4</v>
       </c>
       <c r="Q23" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="R23" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="S23" s="1">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
         <v>320</v>
@@ -5028,7 +5036,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1">
         <v>16</v>
@@ -5037,13 +5045,13 @@
         <v>4</v>
       </c>
       <c r="Q24" s="1">
-        <v>1440</v>
+        <v>1920</v>
       </c>
       <c r="R24" s="1">
-        <v>1440</v>
+        <v>1920</v>
       </c>
       <c r="S24" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="T24" s="1">
         <v>960</v>
@@ -5111,7 +5119,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O25" s="1">
         <v>24</v>
@@ -5120,13 +5128,13 @@
         <v>4</v>
       </c>
       <c r="Q25" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="R25" s="1">
-        <v>2880</v>
+        <v>3840</v>
       </c>
       <c r="S25" s="1">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1">
         <v>1920</v>
@@ -5233,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q9"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5348,7 +5356,7 @@
         <v>300</v>
       </c>
       <c r="L2" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="M2" s="1">
         <v>140</v>
@@ -5410,7 +5418,7 @@
         <v>150</v>
       </c>
       <c r="L3" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M3" s="1">
         <v>150</v>
@@ -5472,7 +5480,7 @@
         <v>360</v>
       </c>
       <c r="L4" s="1">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="M4" s="1">
         <v>185</v>
@@ -5534,7 +5542,7 @@
         <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="M5" s="1">
         <v>125</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
+    <workbookView xWindow="4380" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1008">
+  <cellStyleXfs count="1024">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1615,7 +1631,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1008">
+  <cellStyles count="1024">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2122,6 +2138,14 @@
     <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1004" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1022" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2621,6 +2645,14 @@
     <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1005" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1023" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3072,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L19"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3234,10 +3266,10 @@
         <v>20</v>
       </c>
       <c r="V2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X2" s="5">
         <v>0</v>
@@ -3317,10 +3349,10 @@
         <v>20</v>
       </c>
       <c r="V3" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X3" s="5">
         <v>50000</v>
@@ -3400,10 +3432,10 @@
         <v>20</v>
       </c>
       <c r="V4" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X4" s="1">
         <v>100000</v>
@@ -3483,10 +3515,10 @@
         <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X5" s="5">
         <v>0</v>
@@ -3566,10 +3598,10 @@
         <v>20</v>
       </c>
       <c r="V6" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W6" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X6" s="5">
         <v>50000</v>
@@ -3649,10 +3681,10 @@
         <v>20</v>
       </c>
       <c r="V7" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X7" s="1">
         <v>100000</v>
@@ -3732,10 +3764,10 @@
         <v>20</v>
       </c>
       <c r="V8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X8" s="5">
         <v>0</v>
@@ -3815,10 +3847,10 @@
         <v>20</v>
       </c>
       <c r="V9" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W9" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X9" s="5">
         <v>50000</v>
@@ -3898,10 +3930,10 @@
         <v>20</v>
       </c>
       <c r="V10" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W10" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X10" s="1">
         <v>100000</v>
@@ -3981,10 +4013,10 @@
         <v>20</v>
       </c>
       <c r="V11" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
@@ -4064,10 +4096,10 @@
         <v>20</v>
       </c>
       <c r="V12" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="W12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X12" s="5">
         <v>50000</v>
@@ -4147,10 +4179,10 @@
         <v>20</v>
       </c>
       <c r="V13" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X13" s="1">
         <v>100000</v>
@@ -4230,10 +4262,10 @@
         <v>40</v>
       </c>
       <c r="V14" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W14" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
@@ -4313,10 +4345,10 @@
         <v>40</v>
       </c>
       <c r="V15" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W15" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X15" s="5">
         <v>50000</v>
@@ -4396,10 +4428,10 @@
         <v>40</v>
       </c>
       <c r="V16" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W16" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X16" s="1">
         <v>100000</v>
@@ -4479,10 +4511,10 @@
         <v>40</v>
       </c>
       <c r="V17" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W17" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X17" s="5">
         <v>0</v>
@@ -4562,10 +4594,10 @@
         <v>40</v>
       </c>
       <c r="V18" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W18" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X18" s="5">
         <v>50000</v>
@@ -4645,10 +4677,10 @@
         <v>40</v>
       </c>
       <c r="V19" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W19" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X19" s="1">
         <v>100000</v>
@@ -4728,10 +4760,10 @@
         <v>80</v>
       </c>
       <c r="V20" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W20" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X20" s="5">
         <v>0</v>
@@ -4811,10 +4843,10 @@
         <v>80</v>
       </c>
       <c r="V21" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W21" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X21" s="5">
         <v>50000</v>
@@ -4894,10 +4926,10 @@
         <v>80</v>
       </c>
       <c r="V22" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="W22" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X22" s="1">
         <v>100000</v>
@@ -4977,10 +5009,10 @@
         <v>80</v>
       </c>
       <c r="V23" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="W23" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X23" s="5">
         <v>0</v>
@@ -5060,10 +5092,10 @@
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W24" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X24" s="5">
         <v>50000</v>
@@ -5143,10 +5175,10 @@
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="W25" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="X25" s="1">
         <v>100000</v>
@@ -5241,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5374,10 +5406,10 @@
         <v>30</v>
       </c>
       <c r="R2" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="S2" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
@@ -5436,10 +5468,10 @@
         <v>30</v>
       </c>
       <c r="R3" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="S3" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>43</v>
@@ -5498,10 +5530,10 @@
         <v>60</v>
       </c>
       <c r="R4" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="S4" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>44</v>
@@ -5560,10 +5592,10 @@
         <v>120</v>
       </c>
       <c r="R5" s="1">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="S5" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>21</v>
@@ -5619,13 +5651,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="S6" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>42</v>
@@ -5681,13 +5713,13 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="S7" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>43</v>
@@ -5743,13 +5775,13 @@
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R8" s="1">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="S8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>44</v>
@@ -5805,13 +5837,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="R9" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="S9" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="0" windowWidth="35800" windowHeight="19360" tabRatio="288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34340" windowHeight="18080" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1024">
+  <cellStyleXfs count="1038">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1631,7 +1645,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1024">
+  <cellStyles count="1038">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2146,6 +2160,13 @@
     <cellStyle name="超链接" xfId="1018" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1020" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2653,6 +2674,13 @@
     <cellStyle name="访问过的超链接" xfId="1019" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1021" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3104,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23:V25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27:AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3251,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R2" s="1">
+        <v>80</v>
+      </c>
+      <c r="S2" s="1">
+        <v>120</v>
+      </c>
+      <c r="T2" s="1">
         <v>160</v>
-      </c>
-      <c r="S2" s="1">
-        <v>160</v>
-      </c>
-      <c r="T2" s="1">
-        <v>80</v>
       </c>
       <c r="U2" s="1">
         <v>20</v>
       </c>
       <c r="V2" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W2" s="1">
         <v>5</v>
@@ -3334,22 +3362,22 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R3" s="1">
+        <v>240</v>
+      </c>
+      <c r="S3" s="1">
+        <v>360</v>
+      </c>
+      <c r="T3" s="1">
         <v>480</v>
-      </c>
-      <c r="S3" s="1">
-        <v>480</v>
-      </c>
-      <c r="T3" s="1">
-        <v>240</v>
       </c>
       <c r="U3" s="1">
         <v>20</v>
       </c>
       <c r="V3" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W3" s="1">
         <v>5</v>
@@ -3417,22 +3445,22 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="R4" s="1">
+        <v>480</v>
+      </c>
+      <c r="S4" s="1">
+        <v>720</v>
+      </c>
+      <c r="T4" s="1">
         <v>960</v>
-      </c>
-      <c r="S4" s="1">
-        <v>960</v>
-      </c>
-      <c r="T4" s="1">
-        <v>480</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
       </c>
       <c r="V4" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W4" s="1">
         <v>5</v>
@@ -3503,19 +3531,19 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S5" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="T5" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="U5" s="1">
         <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W5" s="1">
         <v>5</v>
@@ -3586,19 +3614,19 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="S6" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="T6" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="U6" s="1">
         <v>20</v>
       </c>
       <c r="V6" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W6" s="1">
         <v>5</v>
@@ -3669,19 +3697,19 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="S7" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T7" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U7" s="1">
         <v>20</v>
       </c>
       <c r="V7" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W7" s="1">
         <v>5</v>
@@ -3749,22 +3777,22 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
+        <v>120</v>
+      </c>
+      <c r="T8" s="1">
         <v>160</v>
-      </c>
-      <c r="T8" s="1">
-        <v>80</v>
       </c>
       <c r="U8" s="1">
         <v>20</v>
       </c>
       <c r="V8" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -3832,22 +3860,22 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1">
+        <v>360</v>
+      </c>
+      <c r="T9" s="1">
         <v>480</v>
-      </c>
-      <c r="T9" s="1">
-        <v>240</v>
       </c>
       <c r="U9" s="1">
         <v>20</v>
       </c>
       <c r="V9" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W9" s="1">
         <v>5</v>
@@ -3915,22 +3943,22 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="1">
+        <v>720</v>
+      </c>
+      <c r="T10" s="1">
         <v>960</v>
-      </c>
-      <c r="T10" s="1">
-        <v>480</v>
       </c>
       <c r="U10" s="1">
         <v>20</v>
       </c>
       <c r="V10" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W10" s="1">
         <v>5</v>
@@ -3998,22 +4026,22 @@
         <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="T11" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="U11" s="1">
         <v>20</v>
       </c>
       <c r="V11" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W11" s="1">
         <v>5</v>
@@ -4081,22 +4109,22 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="R12" s="1">
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="T12" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="U12" s="1">
         <v>20</v>
       </c>
       <c r="V12" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W12" s="1">
         <v>5</v>
@@ -4164,22 +4192,22 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="R13" s="1">
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="T13" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U13" s="1">
         <v>20</v>
       </c>
       <c r="V13" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W13" s="1">
         <v>5</v>
@@ -4247,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="R14" s="1">
         <v>160</v>
@@ -4256,13 +4284,13 @@
         <v>240</v>
       </c>
       <c r="T14" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="U14" s="1">
         <v>40</v>
       </c>
       <c r="V14" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W14" s="1">
         <v>10</v>
@@ -4330,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="R15" s="1">
         <v>480</v>
@@ -4339,13 +4367,13 @@
         <v>720</v>
       </c>
       <c r="T15" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U15" s="1">
         <v>40</v>
       </c>
       <c r="V15" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W15" s="1">
         <v>10</v>
@@ -4413,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>1440</v>
+        <v>480</v>
       </c>
       <c r="R16" s="1">
         <v>960</v>
@@ -4422,13 +4450,13 @@
         <v>1440</v>
       </c>
       <c r="T16" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="U16" s="1">
         <v>40</v>
       </c>
       <c r="V16" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W16" s="1">
         <v>10</v>
@@ -4496,22 +4524,22 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="R17" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="S17" s="1">
         <v>160</v>
       </c>
       <c r="T17" s="1">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="U17" s="1">
         <v>40</v>
       </c>
       <c r="V17" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W17" s="1">
         <v>10</v>
@@ -4579,22 +4607,22 @@
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="R18" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="S18" s="1">
         <v>480</v>
       </c>
       <c r="T18" s="1">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="U18" s="1">
         <v>40</v>
       </c>
       <c r="V18" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="W18" s="1">
         <v>10</v>
@@ -4662,22 +4690,22 @@
         <v>2</v>
       </c>
       <c r="Q19" s="3">
-        <v>1920</v>
+        <v>1440</v>
       </c>
       <c r="R19" s="1">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
         <v>960</v>
       </c>
       <c r="T19" s="1">
-        <v>960</v>
+        <v>2400</v>
       </c>
       <c r="U19" s="1">
         <v>40</v>
       </c>
       <c r="V19" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W19" s="1">
         <v>10</v>
@@ -4744,23 +4772,23 @@
       <c r="P20" s="1">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="1">
+        <v>320</v>
+      </c>
+      <c r="R20" s="1">
         <v>480</v>
       </c>
-      <c r="R20" s="1">
-        <v>800</v>
-      </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T20" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="U20" s="1">
         <v>80</v>
       </c>
       <c r="V20" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="W20" s="1">
         <v>20</v>
@@ -4828,22 +4856,22 @@
         <v>4</v>
       </c>
       <c r="Q21" s="1">
+        <v>960</v>
+      </c>
+      <c r="R21" s="1">
         <v>1440</v>
       </c>
-      <c r="R21" s="1">
-        <v>2400</v>
-      </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="T21" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="U21" s="1">
         <v>80</v>
       </c>
       <c r="V21" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W21" s="1">
         <v>20</v>
@@ -4911,22 +4939,22 @@
         <v>4</v>
       </c>
       <c r="Q22" s="1">
+        <v>1920</v>
+      </c>
+      <c r="R22" s="1">
         <v>2880</v>
       </c>
-      <c r="R22" s="1">
-        <v>4800</v>
-      </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="T22" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="U22" s="1">
         <v>80</v>
       </c>
       <c r="V22" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="W22" s="1">
         <v>20</v>
@@ -4994,22 +5022,22 @@
         <v>4</v>
       </c>
       <c r="Q23" s="1">
+        <v>480</v>
+      </c>
+      <c r="R23" s="1">
+        <v>320</v>
+      </c>
+      <c r="S23" s="1">
+        <v>160</v>
+      </c>
+      <c r="T23" s="1">
         <v>640</v>
-      </c>
-      <c r="R23" s="1">
-        <v>640</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>320</v>
       </c>
       <c r="U23" s="1">
         <v>80</v>
       </c>
       <c r="V23" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="W23" s="1">
         <v>20</v>
@@ -5077,22 +5105,22 @@
         <v>4</v>
       </c>
       <c r="Q24" s="1">
+        <v>1440</v>
+      </c>
+      <c r="R24" s="1">
+        <v>960</v>
+      </c>
+      <c r="S24" s="1">
+        <v>480</v>
+      </c>
+      <c r="T24" s="1">
         <v>1920</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1920</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>960</v>
       </c>
       <c r="U24" s="1">
         <v>80</v>
       </c>
       <c r="V24" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="W24" s="1">
         <v>20</v>
@@ -5160,22 +5188,22 @@
         <v>4</v>
       </c>
       <c r="Q25" s="1">
+        <v>2880</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1920</v>
+      </c>
+      <c r="S25" s="1">
+        <v>960</v>
+      </c>
+      <c r="T25" s="1">
         <v>3840</v>
-      </c>
-      <c r="R25" s="1">
-        <v>3840</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1920</v>
       </c>
       <c r="U25" s="1">
         <v>80</v>
       </c>
       <c r="V25" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="W25" s="1">
         <v>20</v>
@@ -5273,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G39"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5654,7 +5682,7 @@
         <v>40</v>
       </c>
       <c r="R6" s="1">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="S6" s="1">
         <v>10</v>
@@ -5716,7 +5744,7 @@
         <v>40</v>
       </c>
       <c r="R7" s="1">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="S7" s="1">
         <v>10</v>
@@ -5778,7 +5806,7 @@
         <v>80</v>
       </c>
       <c r="R8" s="1">
-        <v>780</v>
+        <v>650</v>
       </c>
       <c r="S8" s="1">
         <v>20</v>
@@ -5840,7 +5868,7 @@
         <v>160</v>
       </c>
       <c r="R9" s="1">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="S9" s="1">
         <v>40</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34340" windowHeight="18080" tabRatio="288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="17980" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1038">
+  <cellStyleXfs count="1074">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -595,6 +595,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1645,7 +1681,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1038">
+  <cellStyles count="1074">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2167,6 +2203,24 @@
     <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2681,6 +2735,24 @@
     <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3132,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27:AB28"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3279,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>80</v>
@@ -3288,16 +3360,16 @@
         <v>120</v>
       </c>
       <c r="T2" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V2" s="1">
         <v>40</v>
       </c>
       <c r="W2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X2" s="5">
         <v>0</v>
@@ -3362,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>240</v>
@@ -3371,16 +3443,16 @@
         <v>360</v>
       </c>
       <c r="T3" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V3" s="1">
         <v>120</v>
       </c>
       <c r="W3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X3" s="5">
         <v>50000</v>
@@ -3445,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>480</v>
@@ -3454,16 +3526,16 @@
         <v>720</v>
       </c>
       <c r="T4" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V4" s="1">
         <v>240</v>
       </c>
       <c r="W4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" s="1">
         <v>100000</v>
@@ -3531,22 +3603,22 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="S5" s="1">
         <v>160</v>
       </c>
       <c r="T5" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V5" s="1">
         <v>40</v>
       </c>
       <c r="W5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X5" s="5">
         <v>0</v>
@@ -3614,22 +3686,22 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="S6" s="1">
         <v>480</v>
       </c>
       <c r="T6" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V6" s="1">
         <v>120</v>
       </c>
       <c r="W6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X6" s="5">
         <v>50000</v>
@@ -3697,22 +3769,22 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="S7" s="1">
         <v>960</v>
       </c>
       <c r="T7" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V7" s="1">
         <v>240</v>
       </c>
       <c r="W7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X7" s="1">
         <v>100000</v>
@@ -3786,16 +3858,16 @@
         <v>120</v>
       </c>
       <c r="T8" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V8" s="1">
         <v>40</v>
       </c>
       <c r="W8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X8" s="5">
         <v>0</v>
@@ -3869,16 +3941,16 @@
         <v>360</v>
       </c>
       <c r="T9" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U9" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V9" s="1">
         <v>120</v>
       </c>
       <c r="W9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X9" s="5">
         <v>50000</v>
@@ -3952,16 +4024,16 @@
         <v>720</v>
       </c>
       <c r="T10" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U10" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V10" s="1">
         <v>240</v>
       </c>
       <c r="W10" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X10" s="1">
         <v>100000</v>
@@ -4035,16 +4107,16 @@
         <v>160</v>
       </c>
       <c r="T11" s="1">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="U11" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V11" s="1">
         <v>40</v>
       </c>
       <c r="W11" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
@@ -4118,16 +4190,16 @@
         <v>480</v>
       </c>
       <c r="T12" s="1">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="U12" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V12" s="1">
         <v>120</v>
       </c>
       <c r="W12" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X12" s="5">
         <v>50000</v>
@@ -4201,16 +4273,16 @@
         <v>960</v>
       </c>
       <c r="T13" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U13" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="V13" s="1">
         <v>240</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X13" s="1">
         <v>100000</v>
@@ -4278,22 +4350,22 @@
         <v>80</v>
       </c>
       <c r="R14" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="S14" s="1">
         <v>240</v>
       </c>
       <c r="T14" s="1">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="U14" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V14" s="1">
         <v>80</v>
       </c>
       <c r="W14" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
@@ -4361,22 +4433,22 @@
         <v>240</v>
       </c>
       <c r="R15" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="S15" s="1">
         <v>720</v>
       </c>
       <c r="T15" s="1">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="U15" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V15" s="1">
         <v>240</v>
       </c>
       <c r="W15" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X15" s="5">
         <v>50000</v>
@@ -4444,22 +4516,22 @@
         <v>480</v>
       </c>
       <c r="R16" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="S16" s="1">
         <v>1440</v>
       </c>
       <c r="T16" s="1">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="U16" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V16" s="1">
         <v>480</v>
       </c>
       <c r="W16" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X16" s="1">
         <v>100000</v>
@@ -4536,13 +4608,13 @@
         <v>400</v>
       </c>
       <c r="U17" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V17" s="1">
         <v>80</v>
       </c>
       <c r="W17" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X17" s="5">
         <v>0</v>
@@ -4619,13 +4691,13 @@
         <v>1200</v>
       </c>
       <c r="U18" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V18" s="1">
         <v>240</v>
       </c>
       <c r="W18" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X18" s="5">
         <v>50000</v>
@@ -4689,11 +4761,11 @@
       <c r="P19" s="1">
         <v>2</v>
       </c>
-      <c r="Q19" s="3">
-        <v>1440</v>
+      <c r="Q19" s="1">
+        <v>960</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S19" s="1">
         <v>960</v>
@@ -4702,13 +4774,13 @@
         <v>2400</v>
       </c>
       <c r="U19" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V19" s="1">
         <v>480</v>
       </c>
       <c r="W19" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X19" s="1">
         <v>100000</v>
@@ -4773,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="Q20" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="R20" s="1">
         <v>480</v>
@@ -4782,16 +4854,16 @@
         <v>160</v>
       </c>
       <c r="T20" s="1">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="U20" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V20" s="1">
         <v>160</v>
       </c>
       <c r="W20" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X20" s="5">
         <v>0</v>
@@ -4856,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="R21" s="1">
         <v>1440</v>
@@ -4865,16 +4937,16 @@
         <v>480</v>
       </c>
       <c r="T21" s="1">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="U21" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V21" s="1">
         <v>480</v>
       </c>
       <c r="W21" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X21" s="5">
         <v>50000</v>
@@ -4939,7 +5011,7 @@
         <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="R22" s="1">
         <v>2880</v>
@@ -4948,16 +5020,16 @@
         <v>960</v>
       </c>
       <c r="T22" s="1">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="U22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V22" s="1">
         <v>960</v>
       </c>
       <c r="W22" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X22" s="1">
         <v>100000</v>
@@ -5025,22 +5097,22 @@
         <v>480</v>
       </c>
       <c r="R23" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="S23" s="1">
         <v>160</v>
       </c>
       <c r="T23" s="1">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="U23" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V23" s="1">
         <v>160</v>
       </c>
       <c r="W23" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X23" s="5">
         <v>0</v>
@@ -5108,22 +5180,22 @@
         <v>1440</v>
       </c>
       <c r="R24" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="S24" s="1">
         <v>480</v>
       </c>
       <c r="T24" s="1">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="U24" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V24" s="1">
         <v>480</v>
       </c>
       <c r="W24" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X24" s="5">
         <v>50000</v>
@@ -5178,7 +5250,7 @@
       <c r="M25" s="1">
         <v>132</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="1">
         <v>6</v>
       </c>
       <c r="O25" s="1">
@@ -5191,22 +5263,22 @@
         <v>2880</v>
       </c>
       <c r="R25" s="1">
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="S25" s="1">
         <v>960</v>
       </c>
       <c r="T25" s="1">
-        <v>3840</v>
+        <v>4800</v>
       </c>
       <c r="U25" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="V25" s="1">
         <v>960</v>
       </c>
       <c r="W25" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X25" s="1">
         <v>100000</v>
@@ -5301,8 +5373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5431,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R2" s="1">
         <v>250</v>
       </c>
       <c r="S2" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>42</v>
@@ -5456,7 +5528,7 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
       <c r="F3" s="1">
@@ -5493,13 +5565,13 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R3" s="1">
         <v>250</v>
       </c>
       <c r="S3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>43</v>
@@ -5518,7 +5590,7 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>9</v>
       </c>
       <c r="F4" s="1">
@@ -5555,13 +5627,13 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="R4" s="1">
         <v>450</v>
       </c>
       <c r="S4" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>44</v>
@@ -5580,7 +5652,7 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>18</v>
       </c>
       <c r="F5" s="1">
@@ -5617,13 +5689,13 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1">
         <v>900</v>
       </c>
       <c r="S5" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>21</v>
@@ -5642,8 +5714,8 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
+      <c r="E6" s="5">
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>150</v>
@@ -5670,22 +5742,22 @@
         <v>160</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R6" s="1">
         <v>350</v>
       </c>
       <c r="S6" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>42</v>
@@ -5704,8 +5776,8 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>5</v>
+      <c r="E7" s="5">
+        <v>7</v>
       </c>
       <c r="F7" s="1">
         <v>375</v>
@@ -5732,22 +5804,22 @@
         <v>150</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R7" s="1">
         <v>350</v>
       </c>
       <c r="S7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>43</v>
@@ -5766,8 +5838,8 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
-        <v>10</v>
+      <c r="E8" s="5">
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -5794,22 +5866,22 @@
         <v>220</v>
       </c>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R8" s="1">
         <v>650</v>
       </c>
       <c r="S8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>44</v>
@@ -5828,8 +5900,8 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1">
-        <v>20</v>
+      <c r="E9" s="5">
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>240</v>
@@ -5856,22 +5928,22 @@
         <v>140</v>
       </c>
       <c r="N9" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O9" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1">
         <v>4</v>
       </c>
       <c r="Q9" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="R9" s="1">
         <v>1250</v>
       </c>
       <c r="S9" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>21</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="17980" tabRatio="288" activeTab="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -423,6 +423,14 @@
   </si>
   <si>
     <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3204,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5373,8 +5381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5698,7 +5706,7 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
@@ -5946,7 +5954,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="17980" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="-24480" yWindow="0" windowWidth="24680" windowHeight="13620" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -588,7 +588,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1074">
+  <cellStyleXfs count="1078">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -603,6 +603,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1689,7 +1693,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1074">
+  <cellStyles count="1078">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2229,6 +2233,8 @@
     <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2761,6 +2767,8 @@
     <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3212,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3344,7 +3352,7 @@
         <v>80</v>
       </c>
       <c r="L2" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1">
         <v>170</v>
@@ -3427,7 +3435,7 @@
         <v>160</v>
       </c>
       <c r="L3" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M3" s="1">
         <v>170</v>
@@ -3510,7 +3518,7 @@
         <v>240</v>
       </c>
       <c r="L4" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="M4" s="1">
         <v>170</v>
@@ -3593,7 +3601,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1">
         <v>140</v>
@@ -3676,7 +3684,7 @@
         <v>200</v>
       </c>
       <c r="L6" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1">
         <v>140</v>
@@ -3759,7 +3767,7 @@
         <v>300</v>
       </c>
       <c r="L7" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M7" s="1">
         <v>140</v>
@@ -3842,7 +3850,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1">
         <v>160</v>
@@ -3925,7 +3933,7 @@
         <v>96</v>
       </c>
       <c r="L9" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M9" s="1">
         <v>160</v>
@@ -4008,7 +4016,7 @@
         <v>144</v>
       </c>
       <c r="L10" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M10" s="1">
         <v>160</v>
@@ -4091,7 +4099,7 @@
         <v>60</v>
       </c>
       <c r="L11" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M11" s="1">
         <v>150</v>
@@ -4174,7 +4182,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M12" s="1">
         <v>150</v>
@@ -4257,7 +4265,7 @@
         <v>180</v>
       </c>
       <c r="L13" s="3">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="M13" s="1">
         <v>150</v>
@@ -4340,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M14" s="1">
         <v>200</v>
@@ -4423,7 +4431,7 @@
         <v>320</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M15" s="1">
         <v>200</v>
@@ -4506,7 +4514,7 @@
         <v>480</v>
       </c>
       <c r="L16" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M16" s="1">
         <v>200</v>
@@ -4589,7 +4597,7 @@
         <v>120</v>
       </c>
       <c r="L17" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M17" s="1">
         <v>240</v>
@@ -4672,7 +4680,7 @@
         <v>240</v>
       </c>
       <c r="L18" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M18" s="1">
         <v>240</v>
@@ -4755,7 +4763,7 @@
         <v>360</v>
       </c>
       <c r="L19" s="3">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="M19" s="1">
         <v>240</v>
@@ -4838,7 +4846,7 @@
         <v>192</v>
       </c>
       <c r="L20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M20" s="1">
         <v>120</v>
@@ -4921,7 +4929,7 @@
         <v>384</v>
       </c>
       <c r="L21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M21" s="1">
         <v>120</v>
@@ -5004,7 +5012,7 @@
         <v>576</v>
       </c>
       <c r="L22" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M22" s="1">
         <v>120</v>
@@ -5086,8 +5094,8 @@
       <c r="K23" s="3">
         <v>240</v>
       </c>
-      <c r="L23" s="3">
-        <v>180</v>
+      <c r="L23" s="1">
+        <v>90</v>
       </c>
       <c r="M23" s="1">
         <v>132</v>
@@ -5170,7 +5178,7 @@
         <v>480</v>
       </c>
       <c r="L24" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="M24" s="1">
         <v>132</v>
@@ -5253,7 +5261,7 @@
         <v>720</v>
       </c>
       <c r="L25" s="1">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="M25" s="1">
         <v>132</v>
@@ -5381,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5496,7 +5504,7 @@
         <v>300</v>
       </c>
       <c r="L2" s="1">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1">
         <v>140</v>
@@ -5558,7 +5566,7 @@
         <v>150</v>
       </c>
       <c r="L3" s="1">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1">
         <v>150</v>
@@ -5620,7 +5628,7 @@
         <v>360</v>
       </c>
       <c r="L4" s="1">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="M4" s="1">
         <v>185</v>
@@ -5682,7 +5690,7 @@
         <v>900</v>
       </c>
       <c r="L5" s="1">
-        <v>640</v>
+        <v>220</v>
       </c>
       <c r="M5" s="1">
         <v>125</v>
@@ -5744,7 +5752,7 @@
         <v>200</v>
       </c>
       <c r="L6" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M6" s="1">
         <v>160</v>
@@ -5806,7 +5814,7 @@
         <v>120</v>
       </c>
       <c r="L7" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="M7" s="1">
         <v>150</v>
@@ -5868,7 +5876,7 @@
         <v>600</v>
       </c>
       <c r="L8" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="M8" s="1">
         <v>220</v>
@@ -5930,7 +5938,7 @@
         <v>1000</v>
       </c>
       <c r="L9" s="1">
-        <v>700</v>
+        <v>560</v>
       </c>
       <c r="M9" s="1">
         <v>140</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24480" yWindow="0" windowWidth="24680" windowHeight="13620" tabRatio="288"/>
+    <workbookView xWindow="5060" yWindow="0" windowWidth="36580" windowHeight="19680" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -372,16 +372,10 @@
     <t>deathHand_1,heroBones_1,magicBox_1</t>
   </si>
   <si>
-    <t>deathHand_2,heroBones_2,magicBox_2</t>
-  </si>
-  <si>
     <t>meatWagon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>heroBones_4,soulStone_4,magicBox_4</t>
-  </si>
-  <si>
     <t>priest</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -400,9 +394,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>confessionHood_2,holyBook_2,brightAlloy_2</t>
-  </si>
-  <si>
     <t>steamTank</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -411,9 +402,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>brightRing_4,holyBook_4,brightAlloy_4</t>
-  </si>
-  <si>
     <t>FLOAT_consumeFoodPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -431,6 +419,22 @@
   </si>
   <si>
     <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_3,heroBones_3,magicBox_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_8,soulStone_8,magicBox_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1078">
+  <cellStyleXfs count="1094">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -603,6 +607,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1693,7 +1713,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1078">
+  <cellStyles count="1094">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2235,6 +2255,14 @@
     <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2769,6 +2797,14 @@
     <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3220,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3275,7 +3311,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -3299,7 +3335,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -3349,7 +3385,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="L2" s="3">
         <v>25</v>
@@ -3369,13 +3405,13 @@
       <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>80</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>120</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <v>200</v>
       </c>
       <c r="U2" s="1">
@@ -3432,7 +3468,7 @@
         <v>96</v>
       </c>
       <c r="K3" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="L3" s="3">
         <v>50</v>
@@ -3452,13 +3488,13 @@
       <c r="Q3" s="3">
         <v>0</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>240</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>360</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <v>600</v>
       </c>
       <c r="U3" s="1">
@@ -3515,7 +3551,7 @@
         <v>144</v>
       </c>
       <c r="K4" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="L4" s="3">
         <v>100</v>
@@ -3535,13 +3571,13 @@
       <c r="Q4" s="3">
         <v>0</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>480</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>720</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="3">
         <v>1200</v>
       </c>
       <c r="U4" s="1">
@@ -3583,22 +3619,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="H5" s="3">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="I5" s="3">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J5" s="3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K5" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L5" s="3">
         <v>30</v>
@@ -3618,13 +3654,13 @@
       <c r="Q5" s="3">
         <v>0</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>40</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>160</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <v>200</v>
       </c>
       <c r="U5" s="1">
@@ -3666,22 +3702,22 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="G6" s="3">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="H6" s="3">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="I6" s="3">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="J6" s="3">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="K6" s="3">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L6" s="3">
         <v>60</v>
@@ -3701,13 +3737,13 @@
       <c r="Q6" s="3">
         <v>0</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>120</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>480</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <v>600</v>
       </c>
       <c r="U6" s="1">
@@ -3749,22 +3785,22 @@
         <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="G7" s="3">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="H7" s="3">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="J7" s="3">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="K7" s="3">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="L7" s="3">
         <v>120</v>
@@ -3784,13 +3820,13 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="3">
         <v>240</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <v>960</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="3">
         <v>1200</v>
       </c>
       <c r="U7" s="1">
@@ -3832,22 +3868,22 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J8" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K8" s="3">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="L8" s="3">
         <v>20</v>
@@ -3867,13 +3903,13 @@
       <c r="Q8" s="3">
         <v>120</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="1">
-        <v>120</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="S8" s="3">
+        <v>80</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="1">
@@ -3915,22 +3951,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K9" s="3">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="L9" s="3">
         <v>40</v>
@@ -3950,13 +3986,13 @@
       <c r="Q9" s="3">
         <v>360</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="1">
-        <v>360</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="S9" s="3">
+        <v>240</v>
+      </c>
+      <c r="T9" s="3">
         <v>600</v>
       </c>
       <c r="U9" s="1">
@@ -3998,22 +4034,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H10" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="I10" s="3">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="J10" s="3">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="K10" s="3">
-        <v>144</v>
+        <v>480</v>
       </c>
       <c r="L10" s="3">
         <v>80</v>
@@ -4033,13 +4069,13 @@
       <c r="Q10" s="3">
         <v>720</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="1">
-        <v>720</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="S10" s="3">
+        <v>480</v>
+      </c>
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
       <c r="U10" s="1">
@@ -4096,7 +4132,7 @@
         <v>96</v>
       </c>
       <c r="K11" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L11" s="3">
         <v>22</v>
@@ -4116,13 +4152,13 @@
       <c r="Q11" s="3">
         <v>80</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="3">
         <v>0</v>
       </c>
-      <c r="S11" s="1">
-        <v>160</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="S11" s="3">
+        <v>120</v>
+      </c>
+      <c r="T11" s="3">
         <v>200</v>
       </c>
       <c r="U11" s="1">
@@ -4179,7 +4215,7 @@
         <v>192</v>
       </c>
       <c r="K12" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L12" s="3">
         <v>45</v>
@@ -4199,13 +4235,13 @@
       <c r="Q12" s="3">
         <v>240</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="1">
-        <v>480</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="S12" s="3">
+        <v>360</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
       <c r="U12" s="1">
@@ -4262,7 +4298,7 @@
         <v>288</v>
       </c>
       <c r="K13" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="L13" s="3">
         <v>90</v>
@@ -4282,13 +4318,13 @@
       <c r="Q13" s="3">
         <v>480</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="1">
-        <v>960</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="S13" s="3">
+        <v>720</v>
+      </c>
+      <c r="T13" s="3">
         <v>1200</v>
       </c>
       <c r="U13" s="1">
@@ -4345,7 +4381,7 @@
         <v>60</v>
       </c>
       <c r="K14" s="3">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="L14" s="3">
         <v>50</v>
@@ -4363,16 +4399,16 @@
         <v>2</v>
       </c>
       <c r="Q14" s="3">
-        <v>80</v>
-      </c>
-      <c r="R14" s="1">
-        <v>80</v>
-      </c>
-      <c r="S14" s="1">
-        <v>240</v>
-      </c>
-      <c r="T14" s="1">
-        <v>400</v>
+        <v>120</v>
+      </c>
+      <c r="R14" s="3">
+        <v>120</v>
+      </c>
+      <c r="S14" s="3">
+        <v>360</v>
+      </c>
+      <c r="T14" s="3">
+        <v>600</v>
       </c>
       <c r="U14" s="1">
         <v>20</v>
@@ -4428,7 +4464,7 @@
         <v>120</v>
       </c>
       <c r="K15" s="3">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -4446,16 +4482,16 @@
         <v>2</v>
       </c>
       <c r="Q15" s="3">
-        <v>240</v>
-      </c>
-      <c r="R15" s="1">
-        <v>240</v>
-      </c>
-      <c r="S15" s="1">
-        <v>720</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1200</v>
+        <v>360</v>
+      </c>
+      <c r="R15" s="3">
+        <v>360</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1080</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1800</v>
       </c>
       <c r="U15" s="1">
         <v>20</v>
@@ -4511,7 +4547,7 @@
         <v>180</v>
       </c>
       <c r="K16" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="L16" s="3">
         <v>150</v>
@@ -4529,16 +4565,16 @@
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <v>480</v>
-      </c>
-      <c r="R16" s="1">
-        <v>480</v>
-      </c>
-      <c r="S16" s="1">
-        <v>1440</v>
-      </c>
-      <c r="T16" s="1">
-        <v>2400</v>
+        <v>720</v>
+      </c>
+      <c r="R16" s="3">
+        <v>720</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2160</v>
+      </c>
+      <c r="T16" s="3">
+        <v>3600</v>
       </c>
       <c r="U16" s="1">
         <v>20</v>
@@ -4594,7 +4630,7 @@
         <v>128</v>
       </c>
       <c r="K17" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="L17" s="3">
         <v>45</v>
@@ -4612,16 +4648,16 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3">
-        <v>160</v>
-      </c>
-      <c r="R17" s="1">
-        <v>80</v>
-      </c>
-      <c r="S17" s="1">
-        <v>160</v>
-      </c>
-      <c r="T17" s="1">
-        <v>400</v>
+        <v>240</v>
+      </c>
+      <c r="R17" s="3">
+        <v>120</v>
+      </c>
+      <c r="S17" s="3">
+        <v>240</v>
+      </c>
+      <c r="T17" s="3">
+        <v>600</v>
       </c>
       <c r="U17" s="1">
         <v>20</v>
@@ -4677,7 +4713,7 @@
         <v>256</v>
       </c>
       <c r="K18" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="L18" s="3">
         <v>90</v>
@@ -4695,16 +4731,16 @@
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <v>480</v>
-      </c>
-      <c r="R18" s="1">
-        <v>240</v>
-      </c>
-      <c r="S18" s="1">
-        <v>480</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1200</v>
+        <v>720</v>
+      </c>
+      <c r="R18" s="3">
+        <v>360</v>
+      </c>
+      <c r="S18" s="3">
+        <v>720</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1800</v>
       </c>
       <c r="U18" s="1">
         <v>20</v>
@@ -4760,7 +4796,7 @@
         <v>384</v>
       </c>
       <c r="K19" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="L19" s="3">
         <v>135</v>
@@ -4777,17 +4813,17 @@
       <c r="P19" s="1">
         <v>2</v>
       </c>
-      <c r="Q19" s="1">
-        <v>960</v>
-      </c>
-      <c r="R19" s="1">
-        <v>480</v>
-      </c>
-      <c r="S19" s="1">
-        <v>960</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2400</v>
+      <c r="Q19" s="3">
+        <v>1440</v>
+      </c>
+      <c r="R19" s="3">
+        <v>720</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1440</v>
+      </c>
+      <c r="T19" s="3">
+        <v>3600</v>
       </c>
       <c r="U19" s="1">
         <v>20</v>
@@ -4828,22 +4864,22 @@
         <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="G20" s="3">
-        <v>480</v>
+        <v>288</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="J20" s="3">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="K20" s="3">
-        <v>192</v>
+        <v>640</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -4860,17 +4896,17 @@
       <c r="P20" s="1">
         <v>4</v>
       </c>
-      <c r="Q20" s="1">
-        <v>160</v>
-      </c>
-      <c r="R20" s="1">
+      <c r="Q20" s="3">
         <v>480</v>
       </c>
-      <c r="S20" s="1">
-        <v>160</v>
-      </c>
-      <c r="T20" s="1">
-        <v>800</v>
+      <c r="R20" s="3">
+        <v>1440</v>
+      </c>
+      <c r="S20" s="3">
+        <v>480</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2400</v>
       </c>
       <c r="U20" s="1">
         <v>40</v>
@@ -4911,22 +4947,22 @@
         <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>640</v>
+        <v>384</v>
       </c>
       <c r="G21" s="3">
-        <v>960</v>
+        <v>576</v>
       </c>
       <c r="H21" s="3">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="I21" s="3">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="J21" s="3">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="K21" s="3">
-        <v>384</v>
+        <v>1280</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
@@ -4943,17 +4979,17 @@
       <c r="P21" s="1">
         <v>4</v>
       </c>
-      <c r="Q21" s="1">
-        <v>480</v>
-      </c>
-      <c r="R21" s="1">
+      <c r="Q21" s="3">
         <v>1440</v>
       </c>
-      <c r="S21" s="1">
-        <v>480</v>
-      </c>
-      <c r="T21" s="1">
-        <v>2400</v>
+      <c r="R21" s="3">
+        <v>4320</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1440</v>
+      </c>
+      <c r="T21" s="3">
+        <v>7200</v>
       </c>
       <c r="U21" s="1">
         <v>40</v>
@@ -4994,22 +5030,22 @@
         <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>960</v>
+        <v>576</v>
       </c>
       <c r="G22" s="3">
-        <v>1440</v>
+        <v>864</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1200</v>
+        <v>360</v>
+      </c>
+      <c r="I22" s="1">
+        <v>720</v>
       </c>
       <c r="J22" s="3">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="K22" s="3">
-        <v>576</v>
+        <v>1920</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -5026,17 +5062,17 @@
       <c r="P22" s="1">
         <v>4</v>
       </c>
-      <c r="Q22" s="1">
-        <v>960</v>
-      </c>
-      <c r="R22" s="1">
+      <c r="Q22" s="3">
         <v>2880</v>
       </c>
-      <c r="S22" s="1">
-        <v>960</v>
-      </c>
-      <c r="T22" s="1">
-        <v>4800</v>
+      <c r="R22" s="3">
+        <v>8640</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2880</v>
+      </c>
+      <c r="T22" s="3">
+        <v>14400</v>
       </c>
       <c r="U22" s="1">
         <v>40</v>
@@ -5079,7 +5115,7 @@
       <c r="F23" s="3">
         <v>160</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>480</v>
       </c>
       <c r="H23" s="3">
@@ -5088,11 +5124,11 @@
       <c r="I23" s="1">
         <v>320</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>384</v>
       </c>
-      <c r="K23" s="3">
-        <v>240</v>
+      <c r="K23" s="1">
+        <v>480</v>
       </c>
       <c r="L23" s="1">
         <v>90</v>
@@ -5109,17 +5145,17 @@
       <c r="P23" s="1">
         <v>4</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="3">
+        <v>1440</v>
+      </c>
+      <c r="R23" s="3">
         <v>480</v>
       </c>
-      <c r="R23" s="1">
-        <v>160</v>
-      </c>
-      <c r="S23" s="1">
-        <v>160</v>
-      </c>
-      <c r="T23" s="1">
-        <v>800</v>
+      <c r="S23" s="3">
+        <v>480</v>
+      </c>
+      <c r="T23" s="3">
+        <v>2400</v>
       </c>
       <c r="U23" s="1">
         <v>40</v>
@@ -5159,13 +5195,13 @@
       <c r="E24" s="4">
         <v>16</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>320</v>
       </c>
       <c r="G24" s="4">
         <v>960</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>512</v>
       </c>
       <c r="I24" s="1">
@@ -5174,8 +5210,8 @@
       <c r="J24" s="1">
         <v>768</v>
       </c>
-      <c r="K24" s="3">
-        <v>480</v>
+      <c r="K24" s="1">
+        <v>960</v>
       </c>
       <c r="L24" s="1">
         <v>180</v>
@@ -5192,17 +5228,17 @@
       <c r="P24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="3">
+        <v>4320</v>
+      </c>
+      <c r="R24" s="3">
         <v>1440</v>
       </c>
-      <c r="R24" s="1">
-        <v>480</v>
-      </c>
-      <c r="S24" s="1">
-        <v>480</v>
-      </c>
-      <c r="T24" s="1">
-        <v>2400</v>
+      <c r="S24" s="3">
+        <v>1440</v>
+      </c>
+      <c r="T24" s="3">
+        <v>7200</v>
       </c>
       <c r="U24" s="1">
         <v>40</v>
@@ -5258,7 +5294,7 @@
         <v>1152</v>
       </c>
       <c r="K25" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="L25" s="1">
         <v>270</v>
@@ -5275,17 +5311,17 @@
       <c r="P25" s="1">
         <v>4</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="3">
+        <v>8640</v>
+      </c>
+      <c r="R25" s="1">
         <v>2880</v>
       </c>
-      <c r="R25" s="1">
-        <v>960</v>
-      </c>
-      <c r="S25" s="1">
-        <v>960</v>
-      </c>
-      <c r="T25" s="1">
-        <v>4800</v>
+      <c r="S25" s="3">
+        <v>2880</v>
+      </c>
+      <c r="T25" s="3">
+        <v>14400</v>
       </c>
       <c r="U25" s="1">
         <v>40</v>
@@ -5314,8 +5350,6 @@
       <c r="B26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:27" ht="20" customHeight="1">
       <c r="A27" s="4"/>
@@ -5389,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5448,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -5460,7 +5494,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>14</v>
@@ -5486,22 +5520,22 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1">
+        <v>180</v>
+      </c>
+      <c r="I2" s="1">
+        <v>225</v>
+      </c>
+      <c r="J2" s="1">
         <v>120</v>
       </c>
-      <c r="I2" s="1">
-        <v>150</v>
-      </c>
-      <c r="J2" s="1">
-        <v>80</v>
-      </c>
       <c r="K2" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L2" s="1">
         <v>40</v>
@@ -5563,7 +5597,7 @@
         <v>300</v>
       </c>
       <c r="K3" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L3" s="1">
         <v>30</v>
@@ -5601,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5625,7 +5659,7 @@
         <v>135</v>
       </c>
       <c r="K4" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="L4" s="1">
         <v>110</v>
@@ -5657,13 +5691,13 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5672,22 +5706,22 @@
         <v>18</v>
       </c>
       <c r="F5" s="1">
-        <v>346</v>
+        <v>576</v>
       </c>
       <c r="G5" s="1">
-        <v>518</v>
+        <v>864</v>
       </c>
       <c r="H5" s="1">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="I5" s="1">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="J5" s="1">
-        <v>648</v>
+        <v>1080</v>
       </c>
       <c r="K5" s="1">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="L5" s="1">
         <v>220</v>
@@ -5714,18 +5748,18 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5734,22 +5768,22 @@
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="G6" s="1">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="H6" s="1">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="I6" s="1">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="J6" s="1">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K6" s="1">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="L6" s="1">
         <v>200</v>
@@ -5787,7 +5821,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5796,22 +5830,22 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G7" s="1">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="H7" s="1">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="I7" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="J7" s="1">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="K7" s="1">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="L7" s="1">
         <v>160</v>
@@ -5843,13 +5877,13 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5858,22 +5892,22 @@
         <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1">
-        <v>300</v>
+        <v>585</v>
       </c>
       <c r="H8" s="1">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="I8" s="1">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="J8" s="1">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="K8" s="1">
-        <v>600</v>
+        <v>1040</v>
       </c>
       <c r="L8" s="1">
         <v>300</v>
@@ -5905,13 +5939,13 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -5920,22 +5954,22 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="G9" s="1">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="1">
-        <v>384</v>
+        <v>800</v>
       </c>
       <c r="I9" s="1">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="1">
-        <v>576</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="1">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L9" s="1">
         <v>560</v>
@@ -5962,7 +5996,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="0" windowWidth="36580" windowHeight="19680" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="2060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -592,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1094">
+  <cellStyleXfs count="1100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -607,6 +607,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1713,7 +1719,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1094">
+  <cellStyles count="1100">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2263,6 +2269,9 @@
     <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2805,6 +2814,9 @@
     <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3256,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3418,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="V2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W2" s="1">
         <v>2</v>
@@ -3501,7 +3513,7 @@
         <v>10</v>
       </c>
       <c r="V3" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W3" s="1">
         <v>2</v>
@@ -3584,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="V4" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W4" s="1">
         <v>2</v>
@@ -3667,7 +3679,7 @@
         <v>10</v>
       </c>
       <c r="V5" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W5" s="1">
         <v>2</v>
@@ -3750,7 +3762,7 @@
         <v>10</v>
       </c>
       <c r="V6" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W6" s="1">
         <v>2</v>
@@ -3833,7 +3845,7 @@
         <v>10</v>
       </c>
       <c r="V7" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W7" s="1">
         <v>2</v>
@@ -3916,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="V8" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W8" s="1">
         <v>2</v>
@@ -3999,7 +4011,7 @@
         <v>10</v>
       </c>
       <c r="V9" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W9" s="1">
         <v>2</v>
@@ -4082,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="V10" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W10" s="1">
         <v>2</v>
@@ -4165,7 +4177,7 @@
         <v>10</v>
       </c>
       <c r="V11" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -4248,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="V12" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
@@ -4331,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W13" s="1">
         <v>2</v>
@@ -4414,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="V14" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="W14" s="1">
         <v>4</v>
@@ -4497,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="V15" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W15" s="1">
         <v>4</v>
@@ -4580,7 +4592,7 @@
         <v>20</v>
       </c>
       <c r="V16" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W16" s="1">
         <v>4</v>
@@ -4663,7 +4675,7 @@
         <v>20</v>
       </c>
       <c r="V17" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="W17" s="1">
         <v>4</v>
@@ -4746,7 +4758,7 @@
         <v>20</v>
       </c>
       <c r="V18" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="W18" s="1">
         <v>4</v>
@@ -4829,7 +4841,7 @@
         <v>20</v>
       </c>
       <c r="V19" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W19" s="1">
         <v>4</v>
@@ -4912,7 +4924,7 @@
         <v>40</v>
       </c>
       <c r="V20" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="W20" s="1">
         <v>8</v>
@@ -4995,7 +5007,7 @@
         <v>40</v>
       </c>
       <c r="V21" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W21" s="1">
         <v>8</v>
@@ -5078,7 +5090,7 @@
         <v>40</v>
       </c>
       <c r="V22" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="W22" s="1">
         <v>8</v>
@@ -5161,7 +5173,7 @@
         <v>40</v>
       </c>
       <c r="V23" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="W23" s="1">
         <v>8</v>
@@ -5244,7 +5256,7 @@
         <v>40</v>
       </c>
       <c r="V24" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="W24" s="1">
         <v>8</v>
@@ -5327,7 +5339,7 @@
         <v>40</v>
       </c>
       <c r="V25" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="W25" s="1">
         <v>8</v>
@@ -5423,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5556,7 +5568,7 @@
         <v>15</v>
       </c>
       <c r="R2" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="S2" s="1">
         <v>4</v>
@@ -5618,7 +5630,7 @@
         <v>15</v>
       </c>
       <c r="R3" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="S3" s="1">
         <v>4</v>
@@ -5680,7 +5692,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="1">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="S4" s="1">
         <v>8</v>
@@ -5742,7 +5754,7 @@
         <v>60</v>
       </c>
       <c r="R5" s="1">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="S5" s="1">
         <v>15</v>
@@ -5804,7 +5816,7 @@
         <v>20</v>
       </c>
       <c r="R6" s="1">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="S6" s="1">
         <v>5</v>
@@ -5866,7 +5878,7 @@
         <v>20</v>
       </c>
       <c r="R7" s="1">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="S7" s="1">
         <v>5</v>
@@ -5928,7 +5940,7 @@
         <v>40</v>
       </c>
       <c r="R8" s="1">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="S8" s="1">
         <v>10</v>
@@ -5990,7 +6002,7 @@
         <v>80</v>
       </c>
       <c r="R9" s="1">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="S9" s="1">
         <v>20</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="288"/>
+    <workbookView xWindow="17860" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="288" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
     <sheet name="special" sheetId="33" r:id="rId2"/>
+    <sheet name="fightFix" sheetId="48" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>deathKnight</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -435,6 +443,22 @@
   </si>
   <si>
     <t>brightRing_8,holyBook_8,brightAlloy_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2894,6 +2918,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="dragons"/>
+      <sheetName val="fightFix"/>
+      <sheetName val="dragonStar"/>
+      <sheetName val="dragonLevel"/>
+      <sheetName val="dragonSkills"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3268,7 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
@@ -6021,4 +6066,144 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="17" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -1,19 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17860" yWindow="2820" windowWidth="25600" windowHeight="16060" tabRatio="288" activeTab="2"/>
+    <workbookView xWindow="2420" yWindow="0" windowWidth="33380" windowHeight="16060" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
     <sheet name="special" sheetId="33" r:id="rId2"/>
     <sheet name="fightFix" sheetId="48" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
@@ -370,95 +367,96 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>skeletonArcher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_1,heroBones_1,magicBox_1</t>
+  </si>
+  <si>
+    <t>meatWagon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>priest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,holyBook_1</t>
+  </si>
+  <si>
+    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
+  </si>
+  <si>
+    <t>paladin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>steamTank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_consumeFoodPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_treatCoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_8,soulStone_8,magicBox_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>deathHand_1,heroBones_1,soulStone_1</t>
-  </si>
-  <si>
-    <t>skeletonArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_1,heroBones_1,magicBox_1</t>
-  </si>
-  <si>
-    <t>meatWagon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>priest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,holyBook_1</t>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
-  </si>
-  <si>
-    <t>paladin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cavalry</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>steamTank</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>siege</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_consumeFoodPerHour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_treatCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_3,heroBones_3,magicBox_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroBones_8,soulStone_8,magicBox_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_index</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_3,soulStone_3,magicBox_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2918,27 +2916,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dragons"/>
-      <sheetName val="fightFix"/>
-      <sheetName val="dragonStar"/>
-      <sheetName val="dragonLevel"/>
-      <sheetName val="dragonSkills"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3368,7 +3345,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -3392,7 +3369,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -5480,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5539,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -5551,7 +5528,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>14</v>
@@ -5568,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5624,13 +5601,13 @@
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5692,7 +5669,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5748,13 +5725,13 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5805,18 +5782,18 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5878,7 +5855,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5934,13 +5911,13 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5996,13 +5973,13 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -6053,7 +6030,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6072,7 +6049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -6086,16 +6063,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -371,9 +371,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>deathHand_1,heroBones_1,magicBox_1</t>
-  </si>
-  <si>
     <t>meatWagon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -382,12 +379,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>confessionHood_1,brightRing_1,holyBook_1</t>
-  </si>
-  <si>
-    <t>confessionHood_1,brightRing_1,brightAlloy_1</t>
-  </si>
-  <si>
     <t>paladin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -424,18 +415,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>heroBones_8,soulStone_8,magicBox_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessionHood_3,holyBook_3,brightAlloy_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightRing_8,holyBook_8,brightAlloy_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -452,11 +431,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>deathHand_1,heroBones_1,soulStone_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathHand_3,soulStone_3,magicBox_3</t>
+    <t>magicBox_16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soulStone_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathHand_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>holyBook_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessionHood_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightAlloy_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightRing_16</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroBones_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3345,7 +3348,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -3369,7 +3372,7 @@
         <v>13</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>14</v>
@@ -5458,14 +5461,14 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="36.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="1" customWidth="1"/>
     <col min="4" max="13" width="17" style="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="1" customWidth="1"/>
     <col min="15" max="16" width="17" style="1" customWidth="1"/>
@@ -5516,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>40</v>
@@ -5528,7 +5531,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>14</v>
@@ -5545,7 +5548,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5607,7 +5610,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5669,7 +5672,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -5725,13 +5728,13 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -5782,18 +5785,18 @@
         <v>15</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -5855,7 +5858,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5911,13 +5914,13 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -5973,13 +5976,13 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -6030,7 +6033,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6063,16 +6066,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="0" windowWidth="33380" windowHeight="16060" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="140" yWindow="640" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1100">
+  <cellStyleXfs count="1116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1744,7 +1760,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1100">
+  <cellStyles count="1116">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2297,6 +2313,14 @@
     <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2842,6 +2866,14 @@
     <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3293,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3304,7 +3336,9 @@
     <col min="15" max="21" width="20.6640625" style="1"/>
     <col min="22" max="22" width="14.83203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="20.6640625" style="1"/>
+    <col min="24" max="25" width="20.6640625" style="1"/>
+    <col min="26" max="26" width="30.33203125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="20" customHeight="1">
@@ -3407,19 +3441,19 @@
         <v>2</v>
       </c>
       <c r="F2" s="3">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3">
         <v>60</v>
       </c>
-      <c r="G2" s="3">
-        <v>30</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>72</v>
       </c>
-      <c r="I2" s="3">
-        <v>90</v>
-      </c>
       <c r="J2" s="3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K2" s="3">
         <v>160</v>
@@ -3490,19 +3524,19 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3">
+        <v>72</v>
+      </c>
+      <c r="H3" s="3">
         <v>120</v>
       </c>
-      <c r="G3" s="3">
-        <v>60</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>144</v>
       </c>
-      <c r="I3" s="3">
-        <v>180</v>
-      </c>
       <c r="J3" s="3">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K3" s="3">
         <v>320</v>
@@ -3544,10 +3578,10 @@
         <v>2</v>
       </c>
       <c r="X3" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y3" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z3" s="5">
         <v>43200</v>
@@ -3573,19 +3607,19 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3">
+        <v>108</v>
+      </c>
+      <c r="H4" s="3">
         <v>180</v>
       </c>
-      <c r="G4" s="3">
-        <v>90</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>216</v>
       </c>
-      <c r="I4" s="3">
-        <v>270</v>
-      </c>
       <c r="J4" s="3">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="K4" s="3">
         <v>480</v>
@@ -3627,10 +3661,10 @@
         <v>2</v>
       </c>
       <c r="X4" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y4" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z4" s="1">
         <v>86400</v>
@@ -3656,19 +3690,19 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3">
         <v>80</v>
-      </c>
-      <c r="G5" s="3">
-        <v>64</v>
-      </c>
-      <c r="H5" s="3">
-        <v>120</v>
       </c>
       <c r="I5" s="3">
         <v>96</v>
       </c>
       <c r="J5" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="K5" s="3">
         <v>120</v>
@@ -3739,19 +3773,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
+        <v>128</v>
+      </c>
+      <c r="G6" s="3">
+        <v>96</v>
+      </c>
+      <c r="H6" s="3">
         <v>160</v>
-      </c>
-      <c r="G6" s="3">
-        <v>128</v>
-      </c>
-      <c r="H6" s="3">
-        <v>240</v>
       </c>
       <c r="I6" s="3">
         <v>192</v>
       </c>
       <c r="J6" s="3">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="K6" s="3">
         <v>240</v>
@@ -3793,10 +3827,10 @@
         <v>2</v>
       </c>
       <c r="X6" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y6" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z6" s="5">
         <v>43200</v>
@@ -3822,19 +3856,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="3">
+        <v>192</v>
+      </c>
+      <c r="G7" s="3">
+        <v>144</v>
+      </c>
+      <c r="H7" s="3">
         <v>240</v>
-      </c>
-      <c r="G7" s="3">
-        <v>192</v>
-      </c>
-      <c r="H7" s="3">
-        <v>360</v>
       </c>
       <c r="I7" s="3">
         <v>288</v>
       </c>
       <c r="J7" s="3">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="K7" s="3">
         <v>360</v>
@@ -3876,10 +3910,10 @@
         <v>2</v>
       </c>
       <c r="X7" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y7" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z7" s="1">
         <v>86400</v>
@@ -3905,22 +3939,22 @@
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G8" s="3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K8" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="L8" s="3">
         <v>20</v>
@@ -3988,22 +4022,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G9" s="3">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H9" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="J9" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="L9" s="3">
         <v>40</v>
@@ -4042,10 +4076,10 @@
         <v>2</v>
       </c>
       <c r="X9" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y9" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z9" s="5">
         <v>43200</v>
@@ -4071,22 +4105,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="3">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="G10" s="3">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H10" s="3">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="I10" s="3">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="J10" s="3">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K10" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="L10" s="3">
         <v>80</v>
@@ -4125,10 +4159,10 @@
         <v>2</v>
       </c>
       <c r="X10" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y10" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z10" s="1">
         <v>86400</v>
@@ -4160,16 +4194,16 @@
         <v>80</v>
       </c>
       <c r="H11" s="3">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J11" s="3">
+        <v>50</v>
+      </c>
+      <c r="K11" s="3">
         <v>96</v>
-      </c>
-      <c r="K11" s="3">
-        <v>120</v>
       </c>
       <c r="L11" s="3">
         <v>22</v>
@@ -4243,16 +4277,16 @@
         <v>160</v>
       </c>
       <c r="H12" s="3">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I12" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>192</v>
-      </c>
-      <c r="K12" s="3">
-        <v>240</v>
       </c>
       <c r="L12" s="3">
         <v>45</v>
@@ -4291,10 +4325,10 @@
         <v>2</v>
       </c>
       <c r="X12" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y12" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z12" s="5">
         <v>43200</v>
@@ -4326,16 +4360,16 @@
         <v>240</v>
       </c>
       <c r="H13" s="3">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I13" s="3">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="J13" s="3">
+        <v>150</v>
+      </c>
+      <c r="K13" s="3">
         <v>288</v>
-      </c>
-      <c r="K13" s="3">
-        <v>360</v>
       </c>
       <c r="L13" s="3">
         <v>90</v>
@@ -4374,10 +4408,10 @@
         <v>2</v>
       </c>
       <c r="X13" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y13" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z13" s="1">
         <v>86400</v>
@@ -4403,22 +4437,22 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>160</v>
+      </c>
+      <c r="G14" s="3">
+        <v>192</v>
+      </c>
+      <c r="H14" s="3">
+        <v>128</v>
+      </c>
+      <c r="I14" s="3">
         <v>96</v>
       </c>
-      <c r="G14" s="3">
-        <v>144</v>
-      </c>
-      <c r="H14" s="3">
-        <v>120</v>
-      </c>
-      <c r="I14" s="3">
-        <v>180</v>
-      </c>
       <c r="J14" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K14" s="3">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="L14" s="3">
         <v>50</v>
@@ -4486,22 +4520,22 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
+        <v>320</v>
+      </c>
+      <c r="G15" s="3">
+        <v>384</v>
+      </c>
+      <c r="H15" s="3">
+        <v>256</v>
+      </c>
+      <c r="I15" s="3">
         <v>192</v>
       </c>
-      <c r="G15" s="3">
-        <v>288</v>
-      </c>
-      <c r="H15" s="3">
-        <v>240</v>
-      </c>
-      <c r="I15" s="3">
-        <v>360</v>
-      </c>
       <c r="J15" s="3">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="K15" s="3">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -4540,10 +4574,10 @@
         <v>4</v>
       </c>
       <c r="X15" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y15" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z15" s="5">
         <v>43200</v>
@@ -4569,22 +4603,22 @@
         <v>12</v>
       </c>
       <c r="F16" s="3">
+        <v>480</v>
+      </c>
+      <c r="G16" s="3">
+        <v>576</v>
+      </c>
+      <c r="H16" s="3">
+        <v>384</v>
+      </c>
+      <c r="I16" s="3">
         <v>288</v>
       </c>
-      <c r="G16" s="3">
-        <v>432</v>
-      </c>
-      <c r="H16" s="3">
-        <v>360</v>
-      </c>
-      <c r="I16" s="3">
-        <v>540</v>
-      </c>
       <c r="J16" s="3">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="K16" s="3">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="L16" s="3">
         <v>150</v>
@@ -4623,10 +4657,10 @@
         <v>4</v>
       </c>
       <c r="X16" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y16" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z16" s="1">
         <v>86400</v>
@@ -4652,22 +4686,22 @@
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="G17" s="3">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H17" s="3">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I17" s="3">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="J17" s="3">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K17" s="3">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>45</v>
@@ -4735,22 +4769,22 @@
         <v>8</v>
       </c>
       <c r="F18" s="3">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="G18" s="3">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="H18" s="3">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I18" s="3">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="J18" s="3">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="K18" s="3">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="L18" s="3">
         <v>90</v>
@@ -4789,10 +4823,10 @@
         <v>4</v>
       </c>
       <c r="X18" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y18" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z18" s="5">
         <v>43200</v>
@@ -4818,22 +4852,22 @@
         <v>12</v>
       </c>
       <c r="F19" s="3">
-        <v>240</v>
+        <v>576</v>
       </c>
       <c r="G19" s="3">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="H19" s="3">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I19" s="3">
-        <v>576</v>
+        <v>346</v>
       </c>
       <c r="J19" s="3">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="K19" s="3">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="L19" s="3">
         <v>135</v>
@@ -4872,10 +4906,10 @@
         <v>4</v>
       </c>
       <c r="X19" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y19" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z19" s="1">
         <v>86400</v>
@@ -4901,22 +4935,22 @@
         <v>8</v>
       </c>
       <c r="F20" s="3">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G20" s="3">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="H20" s="3">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="I20" s="3">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="J20" s="3">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="K20" s="3">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
@@ -4984,22 +5018,22 @@
         <v>16</v>
       </c>
       <c r="F21" s="3">
-        <v>384</v>
+        <v>307</v>
       </c>
       <c r="G21" s="3">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="H21" s="3">
-        <v>240</v>
-      </c>
-      <c r="I21" s="3">
-        <v>480</v>
+        <v>614</v>
+      </c>
+      <c r="I21" s="1">
+        <v>410</v>
       </c>
       <c r="J21" s="3">
-        <v>720</v>
+        <v>410</v>
       </c>
       <c r="K21" s="3">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
@@ -5038,10 +5072,10 @@
         <v>8</v>
       </c>
       <c r="X21" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y21" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z21" s="5">
         <v>43200</v>
@@ -5067,22 +5101,22 @@
         <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>576</v>
-      </c>
-      <c r="G22" s="3">
-        <v>864</v>
+        <v>461</v>
+      </c>
+      <c r="G22" s="4">
+        <v>768</v>
       </c>
       <c r="H22" s="3">
-        <v>360</v>
+        <v>922</v>
       </c>
       <c r="I22" s="1">
-        <v>720</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1080</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1920</v>
+        <v>614</v>
+      </c>
+      <c r="J22" s="1">
+        <v>614</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1800</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -5121,10 +5155,10 @@
         <v>8</v>
       </c>
       <c r="X22" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y22" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z22" s="1">
         <v>86400</v>
@@ -5149,20 +5183,20 @@
       <c r="E23" s="4">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
-        <v>160</v>
+      <c r="F23" s="4">
+        <v>192</v>
       </c>
       <c r="G23" s="4">
-        <v>480</v>
-      </c>
-      <c r="H23" s="3">
+        <v>320</v>
+      </c>
+      <c r="H23" s="1">
+        <v>384</v>
+      </c>
+      <c r="I23" s="1">
         <v>256</v>
       </c>
-      <c r="I23" s="1">
-        <v>320</v>
-      </c>
       <c r="J23" s="1">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="K23" s="1">
         <v>480</v>
@@ -5233,19 +5267,19 @@
         <v>16</v>
       </c>
       <c r="F24" s="4">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="G24" s="4">
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="H24" s="1">
+        <v>768</v>
+      </c>
+      <c r="I24" s="1">
         <v>512</v>
       </c>
-      <c r="I24" s="1">
-        <v>640</v>
-      </c>
       <c r="J24" s="1">
-        <v>768</v>
+        <v>512</v>
       </c>
       <c r="K24" s="1">
         <v>960</v>
@@ -5287,10 +5321,10 @@
         <v>8</v>
       </c>
       <c r="X24" s="5">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="Y24" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Z24" s="5">
         <v>43200</v>
@@ -5315,20 +5349,20 @@
       <c r="E25" s="4">
         <v>24</v>
       </c>
-      <c r="F25" s="4">
-        <v>480</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1440</v>
+      <c r="F25" s="1">
+        <v>576</v>
+      </c>
+      <c r="G25" s="1">
+        <v>960</v>
       </c>
       <c r="H25" s="1">
+        <v>1152</v>
+      </c>
+      <c r="I25" s="1">
         <v>768</v>
       </c>
-      <c r="I25" s="1">
-        <v>960</v>
-      </c>
       <c r="J25" s="1">
-        <v>1152</v>
+        <v>768</v>
       </c>
       <c r="K25" s="1">
         <v>1440</v>
@@ -5370,10 +5404,10 @@
         <v>8</v>
       </c>
       <c r="X25" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Y25" s="5">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Z25" s="1">
         <v>86400</v>
@@ -5460,8 +5494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5557,19 +5591,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1">
         <v>150</v>
       </c>
-      <c r="G2" s="1">
-        <v>75</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>180</v>
       </c>
-      <c r="I2" s="1">
-        <v>225</v>
-      </c>
       <c r="J2" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K2" s="1">
         <v>400</v>
@@ -5619,22 +5653,22 @@
         <v>5</v>
       </c>
       <c r="F3" s="1">
+        <v>288</v>
+      </c>
+      <c r="G3" s="1">
+        <v>192</v>
+      </c>
+      <c r="H3" s="1">
+        <v>144</v>
+      </c>
+      <c r="I3" s="1">
         <v>240</v>
       </c>
-      <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>160</v>
-      </c>
       <c r="J3" s="1">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K3" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1">
         <v>30</v>
@@ -5681,22 +5715,22 @@
         <v>9</v>
       </c>
       <c r="F4" s="1">
+        <v>360</v>
+      </c>
+      <c r="G4" s="1">
+        <v>432</v>
+      </c>
+      <c r="H4" s="1">
+        <v>288</v>
+      </c>
+      <c r="I4" s="1">
         <v>216</v>
       </c>
-      <c r="G4" s="1">
-        <v>324</v>
-      </c>
-      <c r="H4" s="1">
-        <v>270</v>
-      </c>
-      <c r="I4" s="1">
-        <v>405</v>
-      </c>
       <c r="J4" s="1">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="K4" s="1">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="L4" s="1">
         <v>110</v>
@@ -5743,22 +5777,22 @@
         <v>18</v>
       </c>
       <c r="F5" s="1">
+        <v>346</v>
+      </c>
+      <c r="G5" s="1">
         <v>576</v>
       </c>
-      <c r="G5" s="1">
-        <v>864</v>
-      </c>
       <c r="H5" s="1">
-        <v>360</v>
+        <v>691</v>
       </c>
       <c r="I5" s="1">
-        <v>720</v>
+        <v>461</v>
       </c>
       <c r="J5" s="1">
-        <v>1080</v>
+        <v>461</v>
       </c>
       <c r="K5" s="1">
-        <v>1080</v>
+        <v>1350</v>
       </c>
       <c r="L5" s="1">
         <v>220</v>
@@ -5805,22 +5839,22 @@
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G6" s="1">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="I6" s="1">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J6" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K6" s="1">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="L6" s="1">
         <v>200</v>
@@ -5867,22 +5901,22 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
+        <v>525</v>
+      </c>
+      <c r="G7" s="1">
+        <v>350</v>
+      </c>
+      <c r="H7" s="1">
+        <v>280</v>
+      </c>
+      <c r="I7" s="1">
+        <v>175</v>
+      </c>
+      <c r="J7" s="1">
         <v>420</v>
       </c>
-      <c r="G7" s="1">
-        <v>280</v>
-      </c>
-      <c r="H7" s="1">
-        <v>224</v>
-      </c>
-      <c r="I7" s="1">
-        <v>140</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>336</v>
-      </c>
-      <c r="K7" s="1">
-        <v>420</v>
       </c>
       <c r="L7" s="1">
         <v>160</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="640" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="1320" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1116">
+  <cellStyleXfs count="1122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1760,7 +1766,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1116">
+  <cellStyles count="1122">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2321,6 +2327,9 @@
     <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2874,6 +2883,9 @@
     <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3325,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:K25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3581,7 +3593,7 @@
         <v>500000</v>
       </c>
       <c r="Y3" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z3" s="5">
         <v>43200</v>
@@ -3664,7 +3676,7 @@
         <v>1000000</v>
       </c>
       <c r="Y4" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z4" s="1">
         <v>86400</v>
@@ -4079,7 +4091,7 @@
         <v>500000</v>
       </c>
       <c r="Y9" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z9" s="5">
         <v>43200</v>
@@ -4162,7 +4174,7 @@
         <v>1000000</v>
       </c>
       <c r="Y10" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z10" s="1">
         <v>86400</v>
@@ -4577,7 +4589,7 @@
         <v>500000</v>
       </c>
       <c r="Y15" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z15" s="5">
         <v>43200</v>
@@ -4660,7 +4672,7 @@
         <v>1000000</v>
       </c>
       <c r="Y16" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z16" s="1">
         <v>86400</v>
@@ -5075,7 +5087,7 @@
         <v>500000</v>
       </c>
       <c r="Y21" s="5">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Z21" s="5">
         <v>43200</v>
@@ -5158,7 +5170,7 @@
         <v>1000000</v>
       </c>
       <c r="Y22" s="5">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Z22" s="1">
         <v>86400</v>
@@ -5494,7 +5506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="1320" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
+    <workbookView xWindow="-60" yWindow="1100" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1122">
+  <cellStyleXfs count="1140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1766,7 +1784,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1122">
+  <cellStyles count="1140">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2330,6 +2348,15 @@
     <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2886,6 +2913,15 @@
     <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3337,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView showRuler="0" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3474,7 +3510,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="1">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="N2" s="6">
         <v>0.5</v>
@@ -3557,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3640,7 +3676,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="1">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="N4" s="6">
         <v>1.5</v>
@@ -3723,7 +3759,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N5" s="6">
         <v>0.5</v>
@@ -3806,7 +3842,7 @@
         <v>60</v>
       </c>
       <c r="M6" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N6" s="6">
         <v>1</v>
@@ -3889,7 +3925,7 @@
         <v>120</v>
       </c>
       <c r="M7" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N7" s="6">
         <v>1.5</v>
@@ -3972,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N8" s="6">
         <v>0.5</v>
@@ -4055,7 +4091,7 @@
         <v>40</v>
       </c>
       <c r="M9" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -4138,7 +4174,7 @@
         <v>80</v>
       </c>
       <c r="M10" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N10" s="6">
         <v>1.5</v>
@@ -4221,7 +4257,7 @@
         <v>22</v>
       </c>
       <c r="M11" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N11" s="6">
         <v>0.5</v>
@@ -4304,7 +4340,7 @@
         <v>45</v>
       </c>
       <c r="M12" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N12" s="6">
         <v>1</v>
@@ -4387,7 +4423,7 @@
         <v>90</v>
       </c>
       <c r="M13" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N13" s="6">
         <v>1.5</v>
@@ -4470,7 +4506,7 @@
         <v>50</v>
       </c>
       <c r="M14" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N14" s="6">
         <v>1</v>
@@ -4553,7 +4589,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -4636,7 +4672,7 @@
         <v>150</v>
       </c>
       <c r="M16" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -4719,7 +4755,7 @@
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N17" s="6">
         <v>1</v>
@@ -4802,7 +4838,7 @@
         <v>90</v>
       </c>
       <c r="M18" s="1">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -4885,7 +4921,7 @@
         <v>135</v>
       </c>
       <c r="M19" s="1">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="N19" s="6">
         <v>3</v>
@@ -4968,7 +5004,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N20" s="6">
         <v>2</v>
@@ -5051,7 +5087,7 @@
         <v>200</v>
       </c>
       <c r="M21" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N21" s="6">
         <v>4</v>
@@ -5134,7 +5170,7 @@
         <v>300</v>
       </c>
       <c r="M22" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N22" s="6">
         <v>6</v>
@@ -5217,7 +5253,7 @@
         <v>90</v>
       </c>
       <c r="M23" s="1">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="N23" s="6">
         <v>2</v>
@@ -5300,7 +5336,7 @@
         <v>180</v>
       </c>
       <c r="M24" s="1">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="N24" s="6">
         <v>4</v>
@@ -5383,7 +5419,7 @@
         <v>270</v>
       </c>
       <c r="M25" s="1">
-        <v>132</v>
+        <v>396</v>
       </c>
       <c r="N25" s="1">
         <v>6</v>
@@ -5506,8 +5542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5624,7 +5660,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -5686,7 +5722,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -5748,7 +5784,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="1">
-        <v>185</v>
+        <v>555</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -5810,7 +5846,7 @@
         <v>220</v>
       </c>
       <c r="M5" s="1">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -5872,7 +5908,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="1">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -5934,7 +5970,7 @@
         <v>160</v>
       </c>
       <c r="M7" s="1">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -5996,7 +6032,7 @@
         <v>300</v>
       </c>
       <c r="M8" s="1">
-        <v>220</v>
+        <v>660</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -6058,7 +6094,7 @@
         <v>560</v>
       </c>
       <c r="M9" s="1">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="1100" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="580" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1140">
+  <cellStyleXfs count="1158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1784,7 +1802,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1140">
+  <cellStyles count="1158">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2357,6 +2375,15 @@
     <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2922,6 +2949,15 @@
     <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3373,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3510,7 +3546,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="1">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="N2" s="6">
         <v>0.5</v>
@@ -3593,7 +3629,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3676,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="M4" s="1">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="N4" s="6">
         <v>1.5</v>
@@ -3759,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="M5" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N5" s="6">
         <v>0.5</v>
@@ -3842,7 +3878,7 @@
         <v>60</v>
       </c>
       <c r="M6" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N6" s="6">
         <v>1</v>
@@ -3925,7 +3961,7 @@
         <v>120</v>
       </c>
       <c r="M7" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N7" s="6">
         <v>1.5</v>
@@ -4008,7 +4044,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N8" s="6">
         <v>0.5</v>
@@ -4091,7 +4127,7 @@
         <v>40</v>
       </c>
       <c r="M9" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -4174,7 +4210,7 @@
         <v>80</v>
       </c>
       <c r="M10" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N10" s="6">
         <v>1.5</v>
@@ -4257,7 +4293,7 @@
         <v>22</v>
       </c>
       <c r="M11" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N11" s="6">
         <v>0.5</v>
@@ -4340,7 +4376,7 @@
         <v>45</v>
       </c>
       <c r="M12" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N12" s="6">
         <v>1</v>
@@ -4423,7 +4459,7 @@
         <v>90</v>
       </c>
       <c r="M13" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N13" s="6">
         <v>1.5</v>
@@ -4506,7 +4542,7 @@
         <v>50</v>
       </c>
       <c r="M14" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N14" s="6">
         <v>1</v>
@@ -4589,7 +4625,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -4672,7 +4708,7 @@
         <v>150</v>
       </c>
       <c r="M16" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -4755,7 +4791,7 @@
         <v>45</v>
       </c>
       <c r="M17" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="N17" s="6">
         <v>1</v>
@@ -4838,7 +4874,7 @@
         <v>90</v>
       </c>
       <c r="M18" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -4921,7 +4957,7 @@
         <v>135</v>
       </c>
       <c r="M19" s="1">
-        <v>720</v>
+        <v>120</v>
       </c>
       <c r="N19" s="6">
         <v>3</v>
@@ -5004,7 +5040,7 @@
         <v>100</v>
       </c>
       <c r="M20" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="N20" s="6">
         <v>2</v>
@@ -5087,7 +5123,7 @@
         <v>200</v>
       </c>
       <c r="M21" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="N21" s="6">
         <v>4</v>
@@ -5170,7 +5206,7 @@
         <v>300</v>
       </c>
       <c r="M22" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="N22" s="6">
         <v>6</v>
@@ -5253,7 +5289,7 @@
         <v>90</v>
       </c>
       <c r="M23" s="1">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="N23" s="6">
         <v>2</v>
@@ -5336,7 +5372,7 @@
         <v>180</v>
       </c>
       <c r="M24" s="1">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="N24" s="6">
         <v>4</v>
@@ -5419,7 +5455,7 @@
         <v>270</v>
       </c>
       <c r="M25" s="1">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="N25" s="1">
         <v>6</v>
@@ -5542,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L26"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5660,7 +5696,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -5722,7 +5758,7 @@
         <v>30</v>
       </c>
       <c r="M3" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -5784,7 +5820,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="1">
-        <v>555</v>
+        <v>95</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -5846,7 +5882,7 @@
         <v>220</v>
       </c>
       <c r="M5" s="1">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -5908,7 +5944,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="1">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -5970,7 +6006,7 @@
         <v>160</v>
       </c>
       <c r="M7" s="1">
-        <v>450</v>
+        <v>75</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -6032,7 +6068,7 @@
         <v>300</v>
       </c>
       <c r="M8" s="1">
-        <v>660</v>
+        <v>110</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -6094,7 +6130,7 @@
         <v>560</v>
       </c>
       <c r="M9" s="1">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1158">
+  <cellStyleXfs count="1168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1802,7 +1812,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1158">
+  <cellStyles count="1168">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2384,6 +2394,11 @@
     <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2958,6 +2973,11 @@
     <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3409,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3543,7 +3563,7 @@
         <v>160</v>
       </c>
       <c r="L2" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1">
         <v>85</v>
@@ -3626,7 +3646,7 @@
         <v>320</v>
       </c>
       <c r="L3" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1">
         <v>85</v>
@@ -3709,7 +3729,7 @@
         <v>480</v>
       </c>
       <c r="L4" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M4" s="1">
         <v>85</v>
@@ -3792,7 +3812,7 @@
         <v>120</v>
       </c>
       <c r="L5" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M5" s="1">
         <v>70</v>
@@ -3875,7 +3895,7 @@
         <v>240</v>
       </c>
       <c r="L6" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1">
         <v>70</v>
@@ -3958,7 +3978,7 @@
         <v>360</v>
       </c>
       <c r="L7" s="3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M7" s="1">
         <v>70</v>
@@ -4041,7 +4061,7 @@
         <v>120</v>
       </c>
       <c r="L8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M8" s="1">
         <v>80</v>
@@ -4124,7 +4144,7 @@
         <v>240</v>
       </c>
       <c r="L9" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1">
         <v>80</v>
@@ -4207,7 +4227,7 @@
         <v>360</v>
       </c>
       <c r="L10" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1">
         <v>80</v>
@@ -4290,7 +4310,7 @@
         <v>96</v>
       </c>
       <c r="L11" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1">
         <v>75</v>
@@ -4373,7 +4393,7 @@
         <v>192</v>
       </c>
       <c r="L12" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1">
         <v>75</v>
@@ -4456,7 +4476,7 @@
         <v>288</v>
       </c>
       <c r="L13" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M13" s="1">
         <v>75</v>
@@ -4539,7 +4559,7 @@
         <v>240</v>
       </c>
       <c r="L14" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M14" s="1">
         <v>100</v>
@@ -4622,7 +4642,7 @@
         <v>480</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M15" s="1">
         <v>100</v>
@@ -4705,7 +4725,7 @@
         <v>720</v>
       </c>
       <c r="L16" s="3">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="M16" s="1">
         <v>100</v>
@@ -4788,7 +4808,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1">
         <v>120</v>
@@ -4871,7 +4891,7 @@
         <v>400</v>
       </c>
       <c r="L18" s="3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M18" s="1">
         <v>120</v>
@@ -4954,7 +4974,7 @@
         <v>600</v>
       </c>
       <c r="L19" s="3">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="M19" s="1">
         <v>120</v>
@@ -5037,7 +5057,7 @@
         <v>600</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1">
         <v>60</v>
@@ -5120,7 +5140,7 @@
         <v>1200</v>
       </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="1">
         <v>60</v>
@@ -5203,7 +5223,7 @@
         <v>1800</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M22" s="1">
         <v>60</v>
@@ -5286,7 +5306,7 @@
         <v>480</v>
       </c>
       <c r="L23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M23" s="1">
         <v>65</v>
@@ -5369,7 +5389,7 @@
         <v>960</v>
       </c>
       <c r="L24" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="M24" s="1">
         <v>65</v>
@@ -5452,7 +5472,7 @@
         <v>1440</v>
       </c>
       <c r="L25" s="1">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="M25" s="1">
         <v>65</v>
@@ -5579,7 +5599,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M22"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5693,7 +5713,7 @@
         <v>400</v>
       </c>
       <c r="L2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
         <v>70</v>
@@ -5755,7 +5775,7 @@
         <v>250</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1">
         <v>75</v>
@@ -5817,7 +5837,7 @@
         <v>540</v>
       </c>
       <c r="L4" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M4" s="1">
         <v>95</v>
@@ -5879,7 +5899,7 @@
         <v>1350</v>
       </c>
       <c r="L5" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="M5" s="1">
         <v>65</v>
@@ -5941,7 +5961,7 @@
         <v>525</v>
       </c>
       <c r="L6" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M6" s="1">
         <v>80</v>
@@ -6003,7 +6023,7 @@
         <v>336</v>
       </c>
       <c r="L7" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1">
         <v>75</v>
@@ -6065,7 +6085,7 @@
         <v>1040</v>
       </c>
       <c r="L8" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="M8" s="1">
         <v>110</v>
@@ -6127,7 +6147,7 @@
         <v>1500</v>
       </c>
       <c r="L9" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="M9" s="1">
         <v>70</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="580" windowWidth="38240" windowHeight="18800" tabRatio="288"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="38240" windowHeight="18800" tabRatio="288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -617,7 +617,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1168">
+  <cellStyleXfs count="1184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -632,6 +632,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1812,7 +1828,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1168">
+  <cellStyles count="1184">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2399,6 +2415,14 @@
     <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2978,6 +3002,14 @@
     <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3429,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26:L64"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3566,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N2" s="6">
         <v>0.5</v>
@@ -3649,7 +3681,7 @@
         <v>25</v>
       </c>
       <c r="M3" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N3" s="6">
         <v>1</v>
@@ -3732,7 +3764,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="N4" s="6">
         <v>1.5</v>
@@ -3815,7 +3847,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N5" s="6">
         <v>0.5</v>
@@ -3898,7 +3930,7 @@
         <v>30</v>
       </c>
       <c r="M6" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N6" s="6">
         <v>1</v>
@@ -3981,7 +4013,7 @@
         <v>60</v>
       </c>
       <c r="M7" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N7" s="6">
         <v>1.5</v>
@@ -4064,7 +4096,7 @@
         <v>10</v>
       </c>
       <c r="M8" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N8" s="6">
         <v>0.5</v>
@@ -4147,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N9" s="6">
         <v>1</v>
@@ -4230,7 +4262,7 @@
         <v>40</v>
       </c>
       <c r="M10" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N10" s="6">
         <v>1.5</v>
@@ -4313,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="M11" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N11" s="6">
         <v>0.5</v>
@@ -4396,7 +4428,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N12" s="6">
         <v>1</v>
@@ -4479,7 +4511,7 @@
         <v>45</v>
       </c>
       <c r="M13" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N13" s="6">
         <v>1.5</v>
@@ -4562,7 +4594,7 @@
         <v>25</v>
       </c>
       <c r="M14" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N14" s="6">
         <v>1</v>
@@ -4645,7 +4677,7 @@
         <v>50</v>
       </c>
       <c r="M15" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N15" s="6">
         <v>2</v>
@@ -4728,7 +4760,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N16" s="6">
         <v>3</v>
@@ -4811,7 +4843,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N17" s="6">
         <v>1</v>
@@ -4894,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="M18" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N18" s="6">
         <v>2</v>
@@ -4977,7 +5009,7 @@
         <v>67</v>
       </c>
       <c r="M19" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N19" s="6">
         <v>3</v>
@@ -5060,7 +5092,7 @@
         <v>50</v>
       </c>
       <c r="M20" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N20" s="6">
         <v>2</v>
@@ -5143,7 +5175,7 @@
         <v>100</v>
       </c>
       <c r="M21" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N21" s="6">
         <v>4</v>
@@ -5226,7 +5258,7 @@
         <v>150</v>
       </c>
       <c r="M22" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N22" s="6">
         <v>6</v>
@@ -5309,7 +5341,7 @@
         <v>45</v>
       </c>
       <c r="M23" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N23" s="6">
         <v>2</v>
@@ -5392,7 +5424,7 @@
         <v>90</v>
       </c>
       <c r="M24" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N24" s="6">
         <v>4</v>
@@ -5475,7 +5507,7 @@
         <v>135</v>
       </c>
       <c r="M25" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N25" s="1">
         <v>6</v>
@@ -5598,8 +5630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5716,7 +5748,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -5778,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -5840,7 +5872,7 @@
         <v>55</v>
       </c>
       <c r="M4" s="1">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -5902,7 +5934,7 @@
         <v>110</v>
       </c>
       <c r="M5" s="1">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -5964,7 +5996,7 @@
         <v>100</v>
       </c>
       <c r="M6" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -6026,7 +6058,7 @@
         <v>80</v>
       </c>
       <c r="M7" s="1">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -6088,7 +6120,7 @@
         <v>150</v>
       </c>
       <c r="M8" s="1">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="N8" s="1">
         <v>4</v>
@@ -6150,7 +6182,7 @@
         <v>280</v>
       </c>
       <c r="M9" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="0" windowWidth="38100" windowHeight="21140" tabRatio="165" activeTab="1"/>
+    <workbookView xWindow="-25860" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="165"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1376">
+  <cellStyleXfs count="1378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2152,7 +2154,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1376">
+  <cellStyles count="1378">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2843,6 +2845,7 @@
     <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3526,6 +3529,7 @@
     <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3977,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:AF28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4134,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R2" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S2" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T2" s="1">
         <v>10</v>
@@ -4214,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R3" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S3" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T3" s="1">
         <v>10</v>
@@ -4294,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R4" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S4" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T4" s="1">
         <v>10</v>
@@ -4374,13 +4378,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="R5" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S5" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T5" s="1">
         <v>15</v>
@@ -4454,13 +4458,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="R6" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S6" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T6" s="1">
         <v>15</v>
@@ -4534,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="R7" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S7" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T7" s="1">
         <v>15</v>
@@ -4614,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R8" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S8" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T8" s="1">
         <v>20</v>
@@ -4694,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R9" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S9" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T9" s="1">
         <v>20</v>
@@ -4774,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R10" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S10" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T10" s="1">
         <v>20</v>
@@ -4854,13 +4858,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R11" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S11" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T11" s="1">
         <v>10</v>
@@ -4934,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S12" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T12" s="1">
         <v>10</v>
@@ -5014,13 +5018,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R13" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S13" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T13" s="1">
         <v>10</v>
@@ -5094,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R14" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S14" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T14" s="1">
         <v>15</v>
@@ -5174,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S15" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T15" s="1">
         <v>15</v>
@@ -5254,13 +5258,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R16" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S16" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T16" s="1">
         <v>15</v>
@@ -5334,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R17" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="S17" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T17" s="1">
         <v>20</v>
@@ -5414,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R18" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="S18" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T18" s="1">
         <v>20</v>
@@ -5494,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R19" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="S19" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T19" s="1">
         <v>20</v>
@@ -5571,16 +5575,16 @@
         <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S20" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T20" s="1">
         <v>10</v>
@@ -5651,16 +5655,16 @@
         <v>1</v>
       </c>
       <c r="P21" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S21" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T21" s="1">
         <v>10</v>
@@ -5731,16 +5735,16 @@
         <v>1</v>
       </c>
       <c r="P22" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="S22" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T22" s="1">
         <v>10</v>
@@ -5811,16 +5815,16 @@
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S23" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T23" s="1">
         <v>15</v>
@@ -5891,16 +5895,16 @@
         <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S24" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T24" s="1">
         <v>15</v>
@@ -5971,16 +5975,16 @@
         <v>1</v>
       </c>
       <c r="P25" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="S25" s="3">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T25" s="1">
         <v>15</v>
@@ -6051,16 +6055,16 @@
         <v>1</v>
       </c>
       <c r="P26" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S26" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T26" s="1">
         <v>20</v>
@@ -6131,16 +6135,16 @@
         <v>1</v>
       </c>
       <c r="P27" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S27" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T27" s="1">
         <v>20</v>
@@ -6211,16 +6215,16 @@
         <v>1</v>
       </c>
       <c r="P28" s="3">
-        <v>360</v>
-      </c>
-      <c r="Q28" s="3">
+        <v>720</v>
+      </c>
+      <c r="Q28" s="1">
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S28" s="3">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T28" s="1">
         <v>20</v>
@@ -6290,17 +6294,17 @@
       <c r="O29" s="1">
         <v>1</v>
       </c>
-      <c r="P29" s="3">
-        <v>40</v>
+      <c r="P29" s="1">
+        <v>80</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="R29" s="3">
-        <v>80</v>
-      </c>
-      <c r="S29" s="3">
-        <v>80</v>
+      <c r="R29" s="1">
+        <v>160</v>
+      </c>
+      <c r="S29" s="1">
+        <v>160</v>
       </c>
       <c r="T29" s="1">
         <v>10</v>
@@ -6371,16 +6375,16 @@
         <v>1</v>
       </c>
       <c r="P30" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S30" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T30" s="1">
         <v>10</v>
@@ -6451,16 +6455,16 @@
         <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S31" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="T31" s="1">
         <v>10</v>
@@ -6531,16 +6535,16 @@
         <v>1</v>
       </c>
       <c r="P32" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S32" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T32" s="1">
         <v>15</v>
@@ -6611,16 +6615,16 @@
         <v>1</v>
       </c>
       <c r="P33" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S33" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T33" s="1">
         <v>15</v>
@@ -6691,16 +6695,16 @@
         <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S34" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="T34" s="1">
         <v>15</v>
@@ -6771,16 +6775,16 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S35" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T35" s="1">
         <v>20</v>
@@ -6851,16 +6855,16 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S36" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T36" s="1">
         <v>20</v>
@@ -6931,16 +6935,16 @@
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q37" s="1">
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S37" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T37" s="1">
         <v>20</v>
@@ -7014,13 +7018,13 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R38" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S38" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T38" s="1">
         <v>20</v>
@@ -7094,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R39" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S39" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T39" s="1">
         <v>20</v>
@@ -7174,13 +7178,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R40" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S40" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T40" s="1">
         <v>20</v>
@@ -7254,13 +7258,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R41" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S41" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T41" s="1">
         <v>30</v>
@@ -7334,13 +7338,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R42" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S42" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T42" s="1">
         <v>30</v>
@@ -7414,13 +7418,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="R43" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S43" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T43" s="1">
         <v>30</v>
@@ -7494,13 +7498,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="R44" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S44" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T44" s="1">
         <v>40</v>
@@ -7574,13 +7578,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="R45" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S45" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T45" s="1">
         <v>40</v>
@@ -7654,13 +7658,13 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="R46" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S46" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T46" s="1">
         <v>40</v>
@@ -7731,16 +7735,16 @@
         <v>2</v>
       </c>
       <c r="P47" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q47" s="1">
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S47" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T47" s="1">
         <v>20</v>
@@ -7811,16 +7815,16 @@
         <v>2</v>
       </c>
       <c r="P48" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q48" s="1">
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S48" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T48" s="1">
         <v>20</v>
@@ -7891,16 +7895,16 @@
         <v>2</v>
       </c>
       <c r="P49" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q49" s="1">
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S49" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T49" s="1">
         <v>20</v>
@@ -7971,16 +7975,16 @@
         <v>2</v>
       </c>
       <c r="P50" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q50" s="1">
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S50" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T50" s="1">
         <v>30</v>
@@ -8051,16 +8055,16 @@
         <v>2</v>
       </c>
       <c r="P51" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q51" s="1">
         <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S51" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T51" s="1">
         <v>30</v>
@@ -8131,16 +8135,16 @@
         <v>2</v>
       </c>
       <c r="P52" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="Q52" s="1">
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="S52" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T52" s="1">
         <v>30</v>
@@ -8211,16 +8215,16 @@
         <v>2</v>
       </c>
       <c r="P53" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="Q53" s="1">
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S53" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T53" s="1">
         <v>40</v>
@@ -8291,16 +8295,16 @@
         <v>2</v>
       </c>
       <c r="P54" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="Q54" s="1">
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S54" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T54" s="1">
         <v>40</v>
@@ -8371,16 +8375,16 @@
         <v>2</v>
       </c>
       <c r="P55" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="Q55" s="1">
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="S55" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T55" s="1">
         <v>40</v>
@@ -8451,16 +8455,16 @@
         <v>2</v>
       </c>
       <c r="P56" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="R56" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S56" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T56" s="1">
         <v>20</v>
@@ -8531,16 +8535,16 @@
         <v>2</v>
       </c>
       <c r="P57" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q57" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="R57" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S57" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T57" s="1">
         <v>20</v>
@@ -8611,16 +8615,16 @@
         <v>2</v>
       </c>
       <c r="P58" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q58" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="R58" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="S58" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T58" s="1">
         <v>20</v>
@@ -8691,16 +8695,16 @@
         <v>2</v>
       </c>
       <c r="P59" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q59" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R59" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S59" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T59" s="1">
         <v>30</v>
@@ -8771,16 +8775,16 @@
         <v>2</v>
       </c>
       <c r="P60" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q60" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R60" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S60" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T60" s="1">
         <v>30</v>
@@ -8851,16 +8855,16 @@
         <v>2</v>
       </c>
       <c r="P61" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="Q61" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R61" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="S61" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T61" s="1">
         <v>30</v>
@@ -8931,16 +8935,16 @@
         <v>2</v>
       </c>
       <c r="P62" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q62" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="R62" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S62" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T62" s="1">
         <v>40</v>
@@ -9011,16 +9015,16 @@
         <v>2</v>
       </c>
       <c r="P63" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q63" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="R63" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S63" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T63" s="1">
         <v>40</v>
@@ -9091,16 +9095,16 @@
         <v>2</v>
       </c>
       <c r="P64" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q64" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="R64" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S64" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T64" s="1">
         <v>40</v>
@@ -9171,16 +9175,16 @@
         <v>2</v>
       </c>
       <c r="P65" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q65" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R65" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S65" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T65" s="1">
         <v>20</v>
@@ -9251,16 +9255,16 @@
         <v>2</v>
       </c>
       <c r="P66" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q66" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R66" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S66" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T66" s="1">
         <v>20</v>
@@ -9331,16 +9335,16 @@
         <v>2</v>
       </c>
       <c r="P67" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="Q67" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="R67" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="S67" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="T67" s="1">
         <v>20</v>
@@ -9411,16 +9415,16 @@
         <v>2</v>
       </c>
       <c r="P68" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q68" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="R68" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S68" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T68" s="1">
         <v>30</v>
@@ -9491,16 +9495,16 @@
         <v>2</v>
       </c>
       <c r="P69" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q69" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="R69" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S69" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T69" s="1">
         <v>30</v>
@@ -9571,16 +9575,16 @@
         <v>2</v>
       </c>
       <c r="P70" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="Q70" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="R70" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="S70" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="T70" s="1">
         <v>30</v>
@@ -9651,16 +9655,16 @@
         <v>2</v>
       </c>
       <c r="P71" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="Q71" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R71" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S71" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T71" s="1">
         <v>40</v>
@@ -9731,16 +9735,16 @@
         <v>2</v>
       </c>
       <c r="P72" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="Q72" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R72" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S72" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T72" s="1">
         <v>40</v>
@@ -9811,16 +9815,16 @@
         <v>2</v>
       </c>
       <c r="P73" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="Q73" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="R73" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="S73" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="T73" s="1">
         <v>40</v>
@@ -9848,6 +9852,10 @@
       <c r="I74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
@@ -9903,10 +9911,6 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
@@ -10077,7 +10081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25860" yWindow="0" windowWidth="25600" windowHeight="14960" tabRatio="165"/>
+    <workbookView xWindow="5460" yWindow="0" windowWidth="28540" windowHeight="17560" tabRatio="165"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1378">
+  <cellStyleXfs count="1400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2154,7 +2176,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1378">
+  <cellStyles count="1400">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2846,6 +2868,17 @@
     <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3530,6 +3563,17 @@
     <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3981,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:S75"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="N53" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4147,7 +4191,7 @@
         <v>160</v>
       </c>
       <c r="T2" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U2" s="1">
         <v>10</v>
@@ -4227,7 +4271,7 @@
         <v>160</v>
       </c>
       <c r="T3" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1">
         <v>15</v>
@@ -4307,7 +4351,7 @@
         <v>160</v>
       </c>
       <c r="T4" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U4" s="1">
         <v>20</v>
@@ -4387,7 +4431,7 @@
         <v>480</v>
       </c>
       <c r="T5" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U5" s="1">
         <v>25</v>
@@ -4467,7 +4511,7 @@
         <v>480</v>
       </c>
       <c r="T6" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U6" s="1">
         <v>30</v>
@@ -4547,7 +4591,7 @@
         <v>480</v>
       </c>
       <c r="T7" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U7" s="1">
         <v>35</v>
@@ -4627,7 +4671,7 @@
         <v>960</v>
       </c>
       <c r="T8" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U8" s="1">
         <v>40</v>
@@ -4707,7 +4751,7 @@
         <v>960</v>
       </c>
       <c r="T9" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U9" s="1">
         <v>45</v>
@@ -4787,7 +4831,7 @@
         <v>960</v>
       </c>
       <c r="T10" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U10" s="1">
         <v>50</v>
@@ -4867,7 +4911,7 @@
         <v>160</v>
       </c>
       <c r="T11" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U11" s="1">
         <v>10</v>
@@ -4947,7 +4991,7 @@
         <v>160</v>
       </c>
       <c r="T12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U12" s="1">
         <v>15</v>
@@ -5027,7 +5071,7 @@
         <v>160</v>
       </c>
       <c r="T13" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U13" s="1">
         <v>20</v>
@@ -5107,7 +5151,7 @@
         <v>480</v>
       </c>
       <c r="T14" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U14" s="1">
         <v>25</v>
@@ -5187,7 +5231,7 @@
         <v>480</v>
       </c>
       <c r="T15" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U15" s="1">
         <v>30</v>
@@ -5267,7 +5311,7 @@
         <v>480</v>
       </c>
       <c r="T16" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U16" s="1">
         <v>35</v>
@@ -5347,7 +5391,7 @@
         <v>960</v>
       </c>
       <c r="T17" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U17" s="1">
         <v>40</v>
@@ -5427,7 +5471,7 @@
         <v>960</v>
       </c>
       <c r="T18" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U18" s="1">
         <v>45</v>
@@ -5507,7 +5551,7 @@
         <v>960</v>
       </c>
       <c r="T19" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U19" s="1">
         <v>50</v>
@@ -5587,7 +5631,7 @@
         <v>160</v>
       </c>
       <c r="T20" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U20" s="1">
         <v>10</v>
@@ -5667,7 +5711,7 @@
         <v>160</v>
       </c>
       <c r="T21" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U21" s="1">
         <v>15</v>
@@ -5747,7 +5791,7 @@
         <v>160</v>
       </c>
       <c r="T22" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U22" s="1">
         <v>20</v>
@@ -5827,7 +5871,7 @@
         <v>480</v>
       </c>
       <c r="T23" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U23" s="1">
         <v>25</v>
@@ -5907,7 +5951,7 @@
         <v>480</v>
       </c>
       <c r="T24" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U24" s="1">
         <v>30</v>
@@ -5987,7 +6031,7 @@
         <v>480</v>
       </c>
       <c r="T25" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U25" s="1">
         <v>35</v>
@@ -6067,7 +6111,7 @@
         <v>960</v>
       </c>
       <c r="T26" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U26" s="1">
         <v>40</v>
@@ -6147,7 +6191,7 @@
         <v>960</v>
       </c>
       <c r="T27" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U27" s="1">
         <v>45</v>
@@ -6227,7 +6271,7 @@
         <v>960</v>
       </c>
       <c r="T28" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U28" s="1">
         <v>50</v>
@@ -6307,7 +6351,7 @@
         <v>160</v>
       </c>
       <c r="T29" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U29" s="1">
         <v>10</v>
@@ -6387,7 +6431,7 @@
         <v>160</v>
       </c>
       <c r="T30" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U30" s="1">
         <v>15</v>
@@ -6467,7 +6511,7 @@
         <v>160</v>
       </c>
       <c r="T31" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U31" s="1">
         <v>20</v>
@@ -6547,7 +6591,7 @@
         <v>480</v>
       </c>
       <c r="T32" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U32" s="1">
         <v>25</v>
@@ -6627,7 +6671,7 @@
         <v>480</v>
       </c>
       <c r="T33" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U33" s="1">
         <v>30</v>
@@ -6707,7 +6751,7 @@
         <v>480</v>
       </c>
       <c r="T34" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="U34" s="1">
         <v>35</v>
@@ -6787,7 +6831,7 @@
         <v>960</v>
       </c>
       <c r="T35" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U35" s="1">
         <v>40</v>
@@ -6867,7 +6911,7 @@
         <v>960</v>
       </c>
       <c r="T36" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U36" s="1">
         <v>45</v>
@@ -6947,7 +6991,7 @@
         <v>960</v>
       </c>
       <c r="T37" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U37" s="1">
         <v>50</v>
@@ -7027,7 +7071,7 @@
         <v>320</v>
       </c>
       <c r="T38" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U38" s="1">
         <v>20</v>
@@ -7107,7 +7151,7 @@
         <v>320</v>
       </c>
       <c r="T39" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U39" s="1">
         <v>30</v>
@@ -7187,7 +7231,7 @@
         <v>320</v>
       </c>
       <c r="T40" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U40" s="1">
         <v>40</v>
@@ -7267,7 +7311,7 @@
         <v>960</v>
       </c>
       <c r="T41" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U41" s="1">
         <v>50</v>
@@ -7347,7 +7391,7 @@
         <v>960</v>
       </c>
       <c r="T42" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U42" s="1">
         <v>60</v>
@@ -7427,7 +7471,7 @@
         <v>960</v>
       </c>
       <c r="T43" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U43" s="1">
         <v>70</v>
@@ -7507,7 +7551,7 @@
         <v>1920</v>
       </c>
       <c r="T44" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U44" s="1">
         <v>80</v>
@@ -7587,7 +7631,7 @@
         <v>1920</v>
       </c>
       <c r="T45" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U45" s="1">
         <v>90</v>
@@ -7667,7 +7711,7 @@
         <v>1920</v>
       </c>
       <c r="T46" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U46" s="1">
         <v>100</v>
@@ -7747,7 +7791,7 @@
         <v>320</v>
       </c>
       <c r="T47" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U47" s="1">
         <v>20</v>
@@ -7826,8 +7870,8 @@
       <c r="S48" s="1">
         <v>320</v>
       </c>
-      <c r="T48" s="1">
-        <v>20</v>
+      <c r="T48" s="4">
+        <v>12</v>
       </c>
       <c r="U48" s="1">
         <v>30</v>
@@ -7906,8 +7950,8 @@
       <c r="S49" s="1">
         <v>320</v>
       </c>
-      <c r="T49" s="1">
-        <v>20</v>
+      <c r="T49" s="4">
+        <v>12</v>
       </c>
       <c r="U49" s="1">
         <v>40</v>
@@ -7986,8 +8030,8 @@
       <c r="S50" s="1">
         <v>960</v>
       </c>
-      <c r="T50" s="1">
-        <v>30</v>
+      <c r="T50" s="4">
+        <v>18</v>
       </c>
       <c r="U50" s="1">
         <v>50</v>
@@ -8066,8 +8110,8 @@
       <c r="S51" s="1">
         <v>960</v>
       </c>
-      <c r="T51" s="1">
-        <v>30</v>
+      <c r="T51" s="4">
+        <v>18</v>
       </c>
       <c r="U51" s="1">
         <v>60</v>
@@ -8146,8 +8190,8 @@
       <c r="S52" s="1">
         <v>960</v>
       </c>
-      <c r="T52" s="1">
-        <v>30</v>
+      <c r="T52" s="4">
+        <v>18</v>
       </c>
       <c r="U52" s="1">
         <v>70</v>
@@ -8226,8 +8270,8 @@
       <c r="S53" s="1">
         <v>1920</v>
       </c>
-      <c r="T53" s="1">
-        <v>40</v>
+      <c r="T53" s="4">
+        <v>24</v>
       </c>
       <c r="U53" s="1">
         <v>80</v>
@@ -8306,8 +8350,8 @@
       <c r="S54" s="1">
         <v>1920</v>
       </c>
-      <c r="T54" s="1">
-        <v>40</v>
+      <c r="T54" s="4">
+        <v>24</v>
       </c>
       <c r="U54" s="1">
         <v>90</v>
@@ -8386,8 +8430,8 @@
       <c r="S55" s="1">
         <v>1920</v>
       </c>
-      <c r="T55" s="1">
-        <v>40</v>
+      <c r="T55" s="4">
+        <v>24</v>
       </c>
       <c r="U55" s="1">
         <v>100</v>
@@ -8467,7 +8511,7 @@
         <v>320</v>
       </c>
       <c r="T56" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U56" s="1">
         <v>20</v>
@@ -8547,7 +8591,7 @@
         <v>320</v>
       </c>
       <c r="T57" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U57" s="1">
         <v>30</v>
@@ -8627,7 +8671,7 @@
         <v>320</v>
       </c>
       <c r="T58" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U58" s="1">
         <v>40</v>
@@ -8707,7 +8751,7 @@
         <v>960</v>
       </c>
       <c r="T59" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U59" s="1">
         <v>50</v>
@@ -8787,7 +8831,7 @@
         <v>960</v>
       </c>
       <c r="T60" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U60" s="1">
         <v>60</v>
@@ -8867,7 +8911,7 @@
         <v>960</v>
       </c>
       <c r="T61" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U61" s="1">
         <v>70</v>
@@ -8947,7 +8991,7 @@
         <v>1920</v>
       </c>
       <c r="T62" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U62" s="1">
         <v>80</v>
@@ -9027,7 +9071,7 @@
         <v>1920</v>
       </c>
       <c r="T63" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U63" s="1">
         <v>90</v>
@@ -9107,7 +9151,7 @@
         <v>1920</v>
       </c>
       <c r="T64" s="1">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="U64" s="1">
         <v>100</v>
@@ -9187,7 +9231,7 @@
         <v>320</v>
       </c>
       <c r="T65" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U65" s="1">
         <v>20</v>
@@ -9266,8 +9310,8 @@
       <c r="S66" s="1">
         <v>320</v>
       </c>
-      <c r="T66" s="1">
-        <v>20</v>
+      <c r="T66" s="4">
+        <v>12</v>
       </c>
       <c r="U66" s="1">
         <v>30</v>
@@ -9346,8 +9390,8 @@
       <c r="S67" s="1">
         <v>320</v>
       </c>
-      <c r="T67" s="1">
-        <v>20</v>
+      <c r="T67" s="4">
+        <v>12</v>
       </c>
       <c r="U67" s="1">
         <v>40</v>
@@ -9426,8 +9470,8 @@
       <c r="S68" s="1">
         <v>960</v>
       </c>
-      <c r="T68" s="1">
-        <v>30</v>
+      <c r="T68" s="4">
+        <v>18</v>
       </c>
       <c r="U68" s="1">
         <v>50</v>
@@ -9506,8 +9550,8 @@
       <c r="S69" s="1">
         <v>960</v>
       </c>
-      <c r="T69" s="1">
-        <v>30</v>
+      <c r="T69" s="4">
+        <v>18</v>
       </c>
       <c r="U69" s="1">
         <v>60</v>
@@ -9586,8 +9630,8 @@
       <c r="S70" s="1">
         <v>960</v>
       </c>
-      <c r="T70" s="1">
-        <v>30</v>
+      <c r="T70" s="4">
+        <v>18</v>
       </c>
       <c r="U70" s="1">
         <v>70</v>
@@ -9666,8 +9710,8 @@
       <c r="S71" s="1">
         <v>1920</v>
       </c>
-      <c r="T71" s="1">
-        <v>40</v>
+      <c r="T71" s="4">
+        <v>24</v>
       </c>
       <c r="U71" s="1">
         <v>80</v>
@@ -9746,8 +9790,8 @@
       <c r="S72" s="1">
         <v>1920</v>
       </c>
-      <c r="T72" s="1">
-        <v>40</v>
+      <c r="T72" s="4">
+        <v>24</v>
       </c>
       <c r="U72" s="1">
         <v>90</v>
@@ -9826,8 +9870,8 @@
       <c r="S73" s="1">
         <v>1920</v>
       </c>
-      <c r="T73" s="1">
-        <v>40</v>
+      <c r="T73" s="4">
+        <v>24</v>
       </c>
       <c r="U73" s="1">
         <v>100</v>
@@ -10081,8 +10125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10211,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R2" s="1">
         <v>40</v>
@@ -10273,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R3" s="1">
         <v>40</v>
@@ -10335,7 +10379,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R4" s="1">
         <v>80</v>
@@ -10397,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R5" s="1">
         <v>80</v>
@@ -10459,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R6" s="1">
         <v>50</v>
@@ -10521,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R7" s="1">
         <v>50</v>
@@ -10583,7 +10627,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R8" s="1">
         <v>100</v>
@@ -10645,7 +10689,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R9" s="1">
         <v>100</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="0" windowWidth="28540" windowHeight="17560" tabRatio="165"/>
+    <workbookView xWindow="-23700" yWindow="0" windowWidth="28540" windowHeight="15420" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1400">
+  <cellStyleXfs count="1404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2176,7 +2180,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1400">
+  <cellStyles count="1404">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2879,6 +2883,8 @@
     <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3574,6 +3580,8 @@
     <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4025,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N53" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView showRuler="0" topLeftCell="E54" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4167,7 +4175,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="5">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M2" s="5">
         <v>0.4</v>
@@ -4247,7 +4255,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="5">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M3" s="5">
         <v>0.4</v>
@@ -4327,7 +4335,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="5">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M4" s="5">
         <v>0.4</v>
@@ -4407,7 +4415,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="5">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M5" s="5">
         <v>0.8</v>
@@ -4487,7 +4495,7 @@
         <v>45</v>
       </c>
       <c r="L6" s="5">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="M6" s="5">
         <v>0.8</v>
@@ -4567,7 +4575,7 @@
         <v>56</v>
       </c>
       <c r="L7" s="5">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M7" s="5">
         <v>0.8</v>
@@ -4647,7 +4655,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="5">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="M8" s="5">
         <v>1.2</v>
@@ -4727,7 +4735,7 @@
         <v>65</v>
       </c>
       <c r="L9" s="5">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M9" s="5">
         <v>1.2</v>
@@ -4807,7 +4815,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="5">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M10" s="5">
         <v>1.2</v>
@@ -4884,10 +4892,10 @@
         <v>120</v>
       </c>
       <c r="K11" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L11" s="5">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="M11" s="5">
         <v>0.4</v>
@@ -4964,10 +4972,10 @@
         <v>180</v>
       </c>
       <c r="K12" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L12" s="5">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="M12" s="5">
         <v>0.4</v>
@@ -5044,10 +5052,10 @@
         <v>240</v>
       </c>
       <c r="K13" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L13" s="5">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="M13" s="5">
         <v>0.4</v>
@@ -5124,10 +5132,10 @@
         <v>300</v>
       </c>
       <c r="K14" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L14" s="5">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="M14" s="5">
         <v>0.8</v>
@@ -5204,10 +5212,10 @@
         <v>360</v>
       </c>
       <c r="K15" s="7">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L15" s="5">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="M15" s="5">
         <v>0.8</v>
@@ -5284,10 +5292,10 @@
         <v>420</v>
       </c>
       <c r="K16" s="7">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L16" s="5">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="M16" s="5">
         <v>0.8</v>
@@ -5364,10 +5372,10 @@
         <v>480</v>
       </c>
       <c r="K17" s="7">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L17" s="5">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="M17" s="5">
         <v>1.2</v>
@@ -5444,10 +5452,10 @@
         <v>540</v>
       </c>
       <c r="K18" s="7">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L18" s="5">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="M18" s="5">
         <v>1.2</v>
@@ -5524,10 +5532,10 @@
         <v>600</v>
       </c>
       <c r="K19" s="7">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L19" s="5">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="M19" s="5">
         <v>1.2</v>
@@ -5604,10 +5612,10 @@
         <v>120</v>
       </c>
       <c r="K20" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L20" s="5">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M20" s="5">
         <v>0.4</v>
@@ -5684,10 +5692,10 @@
         <v>180</v>
       </c>
       <c r="K21" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L21" s="5">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M21" s="5">
         <v>0.4</v>
@@ -5764,10 +5772,10 @@
         <v>240</v>
       </c>
       <c r="K22" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L22" s="5">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M22" s="5">
         <v>0.4</v>
@@ -5844,10 +5852,10 @@
         <v>300</v>
       </c>
       <c r="K23" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L23" s="5">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M23" s="5">
         <v>0.8</v>
@@ -5924,10 +5932,10 @@
         <v>360</v>
       </c>
       <c r="K24" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L24" s="5">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M24" s="5">
         <v>0.8</v>
@@ -6003,11 +6011,11 @@
       <c r="J25" s="7">
         <v>420</v>
       </c>
-      <c r="K25" s="7">
-        <v>44</v>
+      <c r="K25" s="5">
+        <v>58</v>
       </c>
       <c r="L25" s="5">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M25" s="5">
         <v>0.8</v>
@@ -6084,10 +6092,10 @@
         <v>480</v>
       </c>
       <c r="K26" s="5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L26" s="5">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M26" s="5">
         <v>1.2</v>
@@ -6164,10 +6172,10 @@
         <v>540</v>
       </c>
       <c r="K27" s="5">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L27" s="5">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M27" s="5">
         <v>1.2</v>
@@ -6244,10 +6252,10 @@
         <v>600</v>
       </c>
       <c r="K28" s="5">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="L28" s="5">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M28" s="5">
         <v>1.2</v>
@@ -6324,10 +6332,10 @@
         <v>96</v>
       </c>
       <c r="K29" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L29" s="5">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="M29" s="5">
         <v>0.4</v>
@@ -6404,10 +6412,10 @@
         <v>144</v>
       </c>
       <c r="K30" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L30" s="5">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M30" s="5">
         <v>0.4</v>
@@ -6484,10 +6492,10 @@
         <v>192</v>
       </c>
       <c r="K31" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L31" s="5">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="M31" s="5">
         <v>0.4</v>
@@ -6564,10 +6572,10 @@
         <v>240</v>
       </c>
       <c r="K32" s="5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L32" s="5">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="M32" s="5">
         <v>0.8</v>
@@ -6644,10 +6652,10 @@
         <v>288</v>
       </c>
       <c r="K33" s="5">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L33" s="5">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="M33" s="5">
         <v>0.8</v>
@@ -6724,10 +6732,10 @@
         <v>336</v>
       </c>
       <c r="K34" s="5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L34" s="5">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="M34" s="5">
         <v>0.8</v>
@@ -6804,10 +6812,10 @@
         <v>384</v>
       </c>
       <c r="K35" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L35" s="5">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="M35" s="5">
         <v>1.2</v>
@@ -6884,10 +6892,10 @@
         <v>432</v>
       </c>
       <c r="K36" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L36" s="5">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="M36" s="5">
         <v>1.2</v>
@@ -6964,10 +6972,10 @@
         <v>480</v>
       </c>
       <c r="K37" s="5">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L37" s="5">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="M37" s="5">
         <v>1.2</v>
@@ -7044,10 +7052,10 @@
         <v>240</v>
       </c>
       <c r="K38" s="5">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L38" s="5">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="M38" s="5">
         <v>0.8</v>
@@ -7124,10 +7132,10 @@
         <v>360</v>
       </c>
       <c r="K39" s="5">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L39" s="5">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="M39" s="5">
         <v>0.8</v>
@@ -7204,10 +7212,10 @@
         <v>480</v>
       </c>
       <c r="K40" s="5">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L40" s="5">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="M40" s="5">
         <v>0.8</v>
@@ -7284,10 +7292,10 @@
         <v>600</v>
       </c>
       <c r="K41" s="5">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="L41" s="5">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="M41" s="5">
         <v>1.6</v>
@@ -7364,10 +7372,10 @@
         <v>720</v>
       </c>
       <c r="K42" s="5">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="L42" s="5">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="M42" s="5">
         <v>1.6</v>
@@ -7444,10 +7452,10 @@
         <v>840</v>
       </c>
       <c r="K43" s="5">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="L43" s="5">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="M43" s="5">
         <v>1.6</v>
@@ -7524,10 +7532,10 @@
         <v>960</v>
       </c>
       <c r="K44" s="5">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L44" s="5">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="M44" s="5">
         <v>2.4</v>
@@ -7604,10 +7612,10 @@
         <v>1080</v>
       </c>
       <c r="K45" s="5">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="L45" s="5">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="M45" s="5">
         <v>2.4</v>
@@ -7684,10 +7692,10 @@
         <v>1200</v>
       </c>
       <c r="K46" s="5">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="L46" s="5">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="M46" s="5">
         <v>2.4</v>
@@ -7764,10 +7772,10 @@
         <v>200</v>
       </c>
       <c r="K47" s="5">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L47" s="5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M47" s="5">
         <v>0.8</v>
@@ -7844,10 +7852,10 @@
         <v>300</v>
       </c>
       <c r="K48" s="5">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L48" s="5">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M48" s="5">
         <v>0.8</v>
@@ -7924,10 +7932,10 @@
         <v>400</v>
       </c>
       <c r="K49" s="5">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="L49" s="5">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M49" s="5">
         <v>0.8</v>
@@ -8004,10 +8012,10 @@
         <v>500</v>
       </c>
       <c r="K50" s="5">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L50" s="5">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M50" s="5">
         <v>1.6</v>
@@ -8084,10 +8092,10 @@
         <v>600</v>
       </c>
       <c r="K51" s="5">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="L51" s="5">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M51" s="5">
         <v>1.6</v>
@@ -8164,10 +8172,10 @@
         <v>700</v>
       </c>
       <c r="K52" s="5">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="L52" s="5">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M52" s="5">
         <v>1.6</v>
@@ -8244,10 +8252,10 @@
         <v>800</v>
       </c>
       <c r="K53" s="5">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="L53" s="5">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M53" s="5">
         <v>2.4</v>
@@ -8324,10 +8332,10 @@
         <v>900</v>
       </c>
       <c r="K54" s="5">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="L54" s="5">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M54" s="5">
         <v>2.4</v>
@@ -8404,10 +8412,10 @@
         <v>1000</v>
       </c>
       <c r="K55" s="5">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="L55" s="5">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M55" s="5">
         <v>2.4</v>
@@ -8484,10 +8492,10 @@
         <v>300</v>
       </c>
       <c r="K56" s="5">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="L56" s="5">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="M56" s="5">
         <v>0.8</v>
@@ -8564,10 +8572,10 @@
         <v>450</v>
       </c>
       <c r="K57" s="5">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="L57" s="5">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="M57" s="5">
         <v>0.8</v>
@@ -8644,10 +8652,10 @@
         <v>600</v>
       </c>
       <c r="K58" s="5">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="L58" s="5">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="M58" s="5">
         <v>0.8</v>
@@ -8724,10 +8732,10 @@
         <v>750</v>
       </c>
       <c r="K59" s="5">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="L59" s="5">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="M59" s="5">
         <v>1.6</v>
@@ -8804,10 +8812,10 @@
         <v>900</v>
       </c>
       <c r="K60" s="5">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="L60" s="5">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="M60" s="5">
         <v>1.6</v>
@@ -8884,10 +8892,10 @@
         <v>1050</v>
       </c>
       <c r="K61" s="5">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="L61" s="5">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="M61" s="5">
         <v>1.6</v>
@@ -8964,10 +8972,10 @@
         <v>1200</v>
       </c>
       <c r="K62" s="5">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="L62" s="5">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="M62" s="5">
         <v>2.4</v>
@@ -9044,10 +9052,10 @@
         <v>1350</v>
       </c>
       <c r="K63" s="5">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="L63" s="5">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="M63" s="5">
         <v>2.4</v>
@@ -9124,10 +9132,10 @@
         <v>1500</v>
       </c>
       <c r="K64" s="5">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="L64" s="5">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="M64" s="5">
         <v>2.4</v>
@@ -9204,10 +9212,10 @@
         <v>240</v>
       </c>
       <c r="K65" s="5">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="L65" s="5">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="M65" s="5">
         <v>0.8</v>
@@ -9284,10 +9292,10 @@
         <v>360</v>
       </c>
       <c r="K66" s="5">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="L66" s="5">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M66" s="5">
         <v>0.8</v>
@@ -9364,10 +9372,10 @@
         <v>480</v>
       </c>
       <c r="K67" s="5">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="L67" s="5">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M67" s="5">
         <v>0.8</v>
@@ -9444,10 +9452,10 @@
         <v>600</v>
       </c>
       <c r="K68" s="5">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="L68" s="5">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="M68" s="5">
         <v>1.6</v>
@@ -9524,10 +9532,10 @@
         <v>720</v>
       </c>
       <c r="K69" s="5">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L69" s="5">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="M69" s="5">
         <v>1.6</v>
@@ -9604,10 +9612,10 @@
         <v>840</v>
       </c>
       <c r="K70" s="5">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L70" s="5">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="M70" s="5">
         <v>1.6</v>
@@ -9684,10 +9692,10 @@
         <v>960</v>
       </c>
       <c r="K71" s="5">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="L71" s="5">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="M71" s="5">
         <v>2.4</v>
@@ -9764,10 +9772,10 @@
         <v>1080</v>
       </c>
       <c r="K72" s="5">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="L72" s="5">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="M72" s="5">
         <v>2.4</v>
@@ -9844,10 +9852,10 @@
         <v>1200</v>
       </c>
       <c r="K73" s="5">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="L73" s="5">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="M73" s="5">
         <v>2.4</v>
@@ -9894,6 +9902,7 @@
     </row>
     <row r="74" spans="1:39" ht="20" customHeight="1">
       <c r="I74" s="5"/>
+      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="P74" s="5"/>
@@ -9922,7 +9931,6 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -10125,8 +10133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10240,10 +10248,10 @@
         <v>560</v>
       </c>
       <c r="L2" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -10305,7 +10313,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
@@ -10364,10 +10372,10 @@
         <v>900</v>
       </c>
       <c r="L4" s="1">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -10426,10 +10434,10 @@
         <v>1125</v>
       </c>
       <c r="L5" s="1">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="M5" s="1">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -10488,7 +10496,7 @@
         <v>600</v>
       </c>
       <c r="L6" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" s="1">
         <v>200</v>
@@ -10550,10 +10558,10 @@
         <v>384</v>
       </c>
       <c r="L7" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="N7" s="1">
         <v>1.2</v>
@@ -10612,10 +10620,10 @@
         <v>1280</v>
       </c>
       <c r="L8" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M8" s="1">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N8" s="1">
         <v>2.4</v>
@@ -10674,10 +10682,10 @@
         <v>960</v>
       </c>
       <c r="L9" s="1">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M9" s="1">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="N9" s="1">
         <v>2.4</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23700" yWindow="0" windowWidth="28540" windowHeight="15420" tabRatio="165" activeTab="1"/>
+    <workbookView xWindow="2140" yWindow="0" windowWidth="32820" windowHeight="18660" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1404">
+  <cellStyleXfs count="1412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2180,7 +2188,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1404">
+  <cellStyles count="1412">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2885,6 +2893,10 @@
     <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3582,6 +3594,10 @@
     <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4033,8 +4049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E54" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4175,7 +4191,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="5">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M2" s="5">
         <v>0.4</v>
@@ -4255,7 +4271,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="5">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M3" s="5">
         <v>0.4</v>
@@ -4335,7 +4351,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="5">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M4" s="5">
         <v>0.4</v>
@@ -4415,7 +4431,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="5">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M5" s="5">
         <v>0.8</v>
@@ -4495,7 +4511,7 @@
         <v>45</v>
       </c>
       <c r="L6" s="5">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="M6" s="5">
         <v>0.8</v>
@@ -4575,7 +4591,7 @@
         <v>56</v>
       </c>
       <c r="L7" s="5">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M7" s="5">
         <v>0.8</v>
@@ -4655,7 +4671,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="5">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M8" s="5">
         <v>1.2</v>
@@ -4735,7 +4751,7 @@
         <v>65</v>
       </c>
       <c r="L9" s="5">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M9" s="5">
         <v>1.2</v>
@@ -4815,7 +4831,7 @@
         <v>80</v>
       </c>
       <c r="L10" s="5">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M10" s="5">
         <v>1.2</v>
@@ -4895,7 +4911,7 @@
         <v>26</v>
       </c>
       <c r="L11" s="5">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M11" s="5">
         <v>0.4</v>
@@ -4975,7 +4991,7 @@
         <v>34</v>
       </c>
       <c r="L12" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M12" s="5">
         <v>0.4</v>
@@ -5055,7 +5071,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M13" s="5">
         <v>0.4</v>
@@ -5135,7 +5151,7 @@
         <v>37</v>
       </c>
       <c r="L14" s="5">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M14" s="5">
         <v>0.8</v>
@@ -5215,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="L15" s="5">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M15" s="5">
         <v>0.8</v>
@@ -5295,7 +5311,7 @@
         <v>58</v>
       </c>
       <c r="L16" s="5">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M16" s="5">
         <v>0.8</v>
@@ -5375,7 +5391,7 @@
         <v>52</v>
       </c>
       <c r="L17" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M17" s="5">
         <v>1.2</v>
@@ -5455,7 +5471,7 @@
         <v>68</v>
       </c>
       <c r="L18" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M18" s="5">
         <v>1.2</v>
@@ -5535,7 +5551,7 @@
         <v>84</v>
       </c>
       <c r="L19" s="5">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M19" s="5">
         <v>1.2</v>
@@ -5615,7 +5631,7 @@
         <v>26</v>
       </c>
       <c r="L20" s="5">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="M20" s="5">
         <v>0.4</v>
@@ -5695,7 +5711,7 @@
         <v>34</v>
       </c>
       <c r="L21" s="5">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M21" s="5">
         <v>0.4</v>
@@ -5775,7 +5791,7 @@
         <v>42</v>
       </c>
       <c r="L22" s="5">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M22" s="5">
         <v>0.4</v>
@@ -5855,7 +5871,7 @@
         <v>37</v>
       </c>
       <c r="L23" s="5">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="M23" s="5">
         <v>0.8</v>
@@ -5935,7 +5951,7 @@
         <v>47</v>
       </c>
       <c r="L24" s="5">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="M24" s="5">
         <v>0.8</v>
@@ -6015,7 +6031,7 @@
         <v>58</v>
       </c>
       <c r="L25" s="5">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M25" s="5">
         <v>0.8</v>
@@ -6095,7 +6111,7 @@
         <v>52</v>
       </c>
       <c r="L26" s="5">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="M26" s="5">
         <v>1.2</v>
@@ -6175,7 +6191,7 @@
         <v>68</v>
       </c>
       <c r="L27" s="5">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M27" s="5">
         <v>1.2</v>
@@ -6255,7 +6271,7 @@
         <v>84</v>
       </c>
       <c r="L28" s="5">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="M28" s="5">
         <v>1.2</v>
@@ -6335,7 +6351,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="5">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M29" s="5">
         <v>0.4</v>
@@ -6415,7 +6431,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="5">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M30" s="5">
         <v>0.4</v>
@@ -6495,7 +6511,7 @@
         <v>44</v>
       </c>
       <c r="L31" s="5">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M31" s="5">
         <v>0.4</v>
@@ -6575,7 +6591,7 @@
         <v>38</v>
       </c>
       <c r="L32" s="5">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M32" s="5">
         <v>0.8</v>
@@ -6655,7 +6671,7 @@
         <v>49</v>
       </c>
       <c r="L33" s="5">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="M33" s="5">
         <v>0.8</v>
@@ -6735,7 +6751,7 @@
         <v>60</v>
       </c>
       <c r="L34" s="5">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="M34" s="5">
         <v>0.8</v>
@@ -6815,7 +6831,7 @@
         <v>54</v>
       </c>
       <c r="L35" s="5">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M35" s="5">
         <v>1.2</v>
@@ -6895,7 +6911,7 @@
         <v>71</v>
       </c>
       <c r="L36" s="5">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M36" s="5">
         <v>1.2</v>
@@ -6975,7 +6991,7 @@
         <v>87</v>
       </c>
       <c r="L37" s="5">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="M37" s="5">
         <v>1.2</v>
@@ -7055,7 +7071,7 @@
         <v>37</v>
       </c>
       <c r="L38" s="5">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M38" s="5">
         <v>0.8</v>
@@ -7135,7 +7151,7 @@
         <v>49</v>
       </c>
       <c r="L39" s="5">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M39" s="5">
         <v>0.8</v>
@@ -7215,7 +7231,7 @@
         <v>60</v>
       </c>
       <c r="L40" s="5">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="M40" s="5">
         <v>0.8</v>
@@ -7295,7 +7311,7 @@
         <v>52</v>
       </c>
       <c r="L41" s="5">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M41" s="5">
         <v>1.6</v>
@@ -7375,7 +7391,7 @@
         <v>67</v>
       </c>
       <c r="L42" s="5">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M42" s="5">
         <v>1.6</v>
@@ -7455,7 +7471,7 @@
         <v>82</v>
       </c>
       <c r="L43" s="5">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="M43" s="5">
         <v>1.6</v>
@@ -7535,7 +7551,7 @@
         <v>74</v>
       </c>
       <c r="L44" s="5">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M44" s="5">
         <v>2.4</v>
@@ -7615,7 +7631,7 @@
         <v>97</v>
       </c>
       <c r="L45" s="5">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="M45" s="5">
         <v>2.4</v>
@@ -7695,7 +7711,7 @@
         <v>119</v>
       </c>
       <c r="L46" s="5">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M46" s="5">
         <v>2.4</v>
@@ -8495,7 +8511,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="5">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M56" s="5">
         <v>0.8</v>
@@ -8575,7 +8591,7 @@
         <v>63</v>
       </c>
       <c r="L57" s="5">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M57" s="5">
         <v>0.8</v>
@@ -8655,7 +8671,7 @@
         <v>77</v>
       </c>
       <c r="L58" s="5">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="M58" s="5">
         <v>0.8</v>
@@ -8735,7 +8751,7 @@
         <v>68</v>
       </c>
       <c r="L59" s="5">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="M59" s="5">
         <v>1.6</v>
@@ -8815,7 +8831,7 @@
         <v>87</v>
       </c>
       <c r="L60" s="5">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="M60" s="5">
         <v>1.6</v>
@@ -8895,7 +8911,7 @@
         <v>106</v>
       </c>
       <c r="L61" s="5">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="M61" s="5">
         <v>1.6</v>
@@ -8975,7 +8991,7 @@
         <v>96</v>
       </c>
       <c r="L62" s="5">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="M62" s="5">
         <v>2.4</v>
@@ -9055,7 +9071,7 @@
         <v>125</v>
       </c>
       <c r="L63" s="5">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="M63" s="5">
         <v>2.4</v>
@@ -9135,7 +9151,7 @@
         <v>154</v>
       </c>
       <c r="L64" s="5">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="M64" s="5">
         <v>2.4</v>
@@ -9215,7 +9231,7 @@
         <v>47</v>
       </c>
       <c r="L65" s="5">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M65" s="5">
         <v>0.8</v>
@@ -9295,7 +9311,7 @@
         <v>62</v>
       </c>
       <c r="L66" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M66" s="5">
         <v>0.8</v>
@@ -9375,7 +9391,7 @@
         <v>76</v>
       </c>
       <c r="L67" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M67" s="5">
         <v>0.8</v>
@@ -9455,7 +9471,7 @@
         <v>66</v>
       </c>
       <c r="L68" s="5">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M68" s="5">
         <v>1.6</v>
@@ -9535,7 +9551,7 @@
         <v>85</v>
       </c>
       <c r="L69" s="5">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M69" s="5">
         <v>1.6</v>
@@ -9615,7 +9631,7 @@
         <v>104</v>
       </c>
       <c r="L70" s="5">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M70" s="5">
         <v>1.6</v>
@@ -9695,7 +9711,7 @@
         <v>94</v>
       </c>
       <c r="L71" s="5">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M71" s="5">
         <v>2.4</v>
@@ -9775,7 +9791,7 @@
         <v>123</v>
       </c>
       <c r="L72" s="5">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M72" s="5">
         <v>2.4</v>
@@ -9855,7 +9871,7 @@
         <v>151</v>
       </c>
       <c r="L73" s="5">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M73" s="5">
         <v>2.4</v>
@@ -9902,7 +9918,6 @@
     </row>
     <row r="74" spans="1:39" ht="20" customHeight="1">
       <c r="I74" s="5"/>
-      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="P74" s="5"/>
@@ -9931,6 +9946,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -10084,6 +10100,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -10134,7 +10151,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10251,7 +10268,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
@@ -10375,7 +10392,7 @@
         <v>70</v>
       </c>
       <c r="M4" s="1">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -10437,7 +10454,7 @@
         <v>88</v>
       </c>
       <c r="M5" s="1">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -10499,7 +10516,7 @@
         <v>80</v>
       </c>
       <c r="M6" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N6" s="1">
         <v>1.2</v>
@@ -10561,7 +10578,7 @@
         <v>75</v>
       </c>
       <c r="M7" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="N7" s="1">
         <v>1.2</v>
@@ -10623,7 +10640,7 @@
         <v>130</v>
       </c>
       <c r="M8" s="1">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N8" s="1">
         <v>2.4</v>
@@ -10685,7 +10702,7 @@
         <v>140</v>
       </c>
       <c r="M9" s="1">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="N9" s="1">
         <v>2.4</v>

--- a/datas/shared/Soldiers.xlsx
+++ b/datas/shared/Soldiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="32820" windowHeight="18660" tabRatio="165" activeTab="1"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="35800" windowHeight="15200" tabRatio="165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="47" r:id="rId1"/>
@@ -743,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1412">
+  <cellStyleXfs count="1452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +758,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2188,7 +2228,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1412">
+  <cellStyles count="1452">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2897,6 +2937,26 @@
     <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1450" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3598,6 +3658,26 @@
     <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1451" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4049,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM82"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L73"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4170,19 +4250,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7">
         <v>60</v>
       </c>
       <c r="H2" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I2" s="7">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" s="7">
         <v>160</v>
@@ -4250,19 +4330,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G3" s="7">
         <v>90</v>
       </c>
       <c r="H3" s="7">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I3" s="7">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J3" s="7">
         <v>240</v>
@@ -4330,19 +4410,19 @@
         <v>4</v>
       </c>
       <c r="E4" s="7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7">
         <v>120</v>
       </c>
       <c r="H4" s="7">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="J4" s="7">
         <v>320</v>
@@ -4410,22 +4490,22 @@
         <v>5</v>
       </c>
       <c r="E5" s="7">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="I5" s="7">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="J5" s="7">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7">
         <v>35</v>
@@ -4490,22 +4570,22 @@
         <v>6</v>
       </c>
       <c r="E6" s="7">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="I6" s="7">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="J6" s="7">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="K6" s="7">
         <v>45</v>
@@ -4570,22 +4650,22 @@
         <v>7</v>
       </c>
       <c r="E7" s="7">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="I7" s="7">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="J7" s="7">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K7" s="7">
         <v>56</v>
@@ -4650,22 +4730,22 @@
         <v>8</v>
       </c>
       <c r="E8" s="7">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="H8" s="7">
-        <v>288</v>
+        <v>518</v>
       </c>
       <c r="I8" s="7">
-        <v>168</v>
+        <v>383</v>
       </c>
       <c r="J8" s="7">
-        <v>640</v>
+        <v>1200</v>
       </c>
       <c r="K8" s="7">
         <v>50</v>
@@ -4730,22 +4810,22 @@
         <v>9</v>
       </c>
       <c r="E9" s="7">
-        <v>216</v>
+        <v>510</v>
       </c>
       <c r="F9" s="7">
-        <v>162</v>
+        <v>420</v>
       </c>
       <c r="G9" s="7">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="H9" s="7">
-        <v>324</v>
+        <v>690</v>
       </c>
       <c r="I9" s="7">
-        <v>189</v>
+        <v>510</v>
       </c>
       <c r="J9" s="7">
-        <v>720</v>
+        <v>1600</v>
       </c>
       <c r="K9" s="7">
         <v>65</v>
@@ -4810,22 +4890,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="7">
-        <v>240</v>
+        <v>638</v>
       </c>
       <c r="F10" s="7">
-        <v>180</v>
+        <v>525</v>
       </c>
       <c r="G10" s="7">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>863</v>
       </c>
       <c r="I10" s="7">
-        <v>210</v>
+        <v>638</v>
       </c>
       <c r="J10" s="7">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K10" s="7">
         <v>80</v>
@@ -4890,19 +4970,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="7">
+        <v>80</v>
+      </c>
+      <c r="F11" s="7">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
+        <v>92</v>
+      </c>
+      <c r="I11" s="7">
         <v>64</v>
-      </c>
-      <c r="F11" s="7">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7">
-        <v>80</v>
-      </c>
-      <c r="H11" s="7">
-        <v>96</v>
-      </c>
-      <c r="I11" s="7">
-        <v>56</v>
       </c>
       <c r="J11" s="7">
         <v>120</v>
@@ -4970,19 +5050,19 @@
         <v>3</v>
       </c>
       <c r="E12" s="7">
+        <v>120</v>
+      </c>
+      <c r="F12" s="7">
+        <v>84</v>
+      </c>
+      <c r="G12" s="7">
+        <v>102</v>
+      </c>
+      <c r="H12" s="7">
+        <v>138</v>
+      </c>
+      <c r="I12" s="7">
         <v>96</v>
-      </c>
-      <c r="F12" s="7">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7">
-        <v>120</v>
-      </c>
-      <c r="H12" s="7">
-        <v>144</v>
-      </c>
-      <c r="I12" s="7">
-        <v>84</v>
       </c>
       <c r="J12" s="7">
         <v>180</v>
@@ -5050,19 +5130,19 @@
         <v>4</v>
       </c>
       <c r="E13" s="7">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7">
+        <v>112</v>
+      </c>
+      <c r="G13" s="7">
+        <v>136</v>
+      </c>
+      <c r="H13" s="7">
+        <v>184</v>
+      </c>
+      <c r="I13" s="7">
         <v>128</v>
-      </c>
-      <c r="F13" s="7">
-        <v>96</v>
-      </c>
-      <c r="G13" s="7">
-        <v>160</v>
-      </c>
-      <c r="H13" s="7">
-        <v>192</v>
-      </c>
-      <c r="I13" s="7">
-        <v>112</v>
       </c>
       <c r="J13" s="7">
         <v>240</v>
@@ -5130,22 +5210,22 @@
         <v>5</v>
       </c>
       <c r="E14" s="7">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="J14" s="7">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7">
         <v>37</v>
@@ -5210,22 +5290,22 @@
         <v>6</v>
       </c>
       <c r="E15" s="7">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="F15" s="7">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G15" s="7">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="H15" s="7">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="I15" s="7">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="J15" s="7">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K15" s="7">
         <v>47</v>
@@ -5290,22 +5370,22 @@
         <v>7</v>
       </c>
       <c r="E16" s="7">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="I16" s="7">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="J16" s="7">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="K16" s="7">
         <v>58</v>
@@ -5370,22 +5450,22 @@
         <v>8</v>
       </c>
       <c r="E17" s="7">
-        <v>256</v>
+        <v>600</v>
       </c>
       <c r="F17" s="7">
-        <v>192</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7">
-        <v>320</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
-        <v>384</v>
+        <v>690</v>
       </c>
       <c r="I17" s="7">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="J17" s="7">
-        <v>480</v>
+        <v>900</v>
       </c>
       <c r="K17" s="7">
         <v>52</v>
@@ -5450,22 +5530,22 @@
         <v>9</v>
       </c>
       <c r="E18" s="7">
-        <v>288</v>
+        <v>800</v>
       </c>
       <c r="F18" s="7">
-        <v>216</v>
+        <v>560</v>
       </c>
       <c r="G18" s="7">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="H18" s="7">
-        <v>432</v>
+        <v>920</v>
       </c>
       <c r="I18" s="7">
-        <v>252</v>
+        <v>640</v>
       </c>
       <c r="J18" s="7">
-        <v>540</v>
+        <v>1200</v>
       </c>
       <c r="K18" s="7">
         <v>68</v>
@@ -5530,22 +5610,22 @@
         <v>10</v>
       </c>
       <c r="E19" s="7">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="7">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="G19" s="7">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="H19" s="7">
-        <v>480</v>
+        <v>1150</v>
       </c>
       <c r="I19" s="7">
-        <v>280</v>
+        <v>800</v>
       </c>
       <c r="J19" s="7">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K19" s="7">
         <v>84</v>
@@ -5610,19 +5690,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J20" s="7">
         <v>120</v>
@@ -5690,19 +5770,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="7">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
       </c>
       <c r="I21" s="7">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J21" s="7">
         <v>180</v>
@@ -5770,19 +5850,19 @@
         <v>4</v>
       </c>
       <c r="E22" s="7">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>160</v>
       </c>
       <c r="I22" s="7">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J22" s="7">
         <v>240</v>
@@ -5850,22 +5930,22 @@
         <v>5</v>
       </c>
       <c r="E23" s="7">
+        <v>276</v>
+      </c>
+      <c r="F23" s="7">
+        <v>204</v>
+      </c>
+      <c r="G23" s="7">
+        <v>168</v>
+      </c>
+      <c r="H23" s="7">
         <v>240</v>
       </c>
-      <c r="F23" s="7">
-        <v>160</v>
-      </c>
-      <c r="G23" s="7">
-        <v>120</v>
-      </c>
-      <c r="H23" s="7">
-        <v>200</v>
-      </c>
       <c r="I23" s="7">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="J23" s="7">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="K23" s="7">
         <v>37</v>
@@ -5930,22 +6010,22 @@
         <v>6</v>
       </c>
       <c r="E24" s="7">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="F24" s="7">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="G24" s="7">
-        <v>144</v>
-      </c>
-      <c r="H24" s="5">
-        <v>240</v>
+        <v>224</v>
+      </c>
+      <c r="H24" s="7">
+        <v>320</v>
       </c>
       <c r="I24" s="7">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="J24" s="7">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="K24" s="7">
         <v>47</v>
@@ -6009,23 +6089,23 @@
       <c r="D25" s="7">
         <v>7</v>
       </c>
-      <c r="E25" s="7">
-        <v>336</v>
-      </c>
-      <c r="F25" s="8">
-        <v>224</v>
+      <c r="E25" s="8">
+        <v>460</v>
+      </c>
+      <c r="F25" s="7">
+        <v>340</v>
       </c>
       <c r="G25" s="7">
-        <v>168</v>
-      </c>
-      <c r="H25" s="5">
         <v>280</v>
       </c>
-      <c r="I25" s="5">
-        <v>140</v>
+      <c r="H25" s="7">
+        <v>400</v>
+      </c>
+      <c r="I25" s="7">
+        <v>260</v>
       </c>
       <c r="J25" s="7">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="K25" s="5">
         <v>58</v>
@@ -6090,22 +6170,22 @@
         <v>8</v>
       </c>
       <c r="E26" s="8">
-        <v>384</v>
-      </c>
-      <c r="F26" s="8">
-        <v>256</v>
-      </c>
-      <c r="G26" s="5">
-        <v>192</v>
-      </c>
-      <c r="H26" s="5">
-        <v>320</v>
-      </c>
-      <c r="I26" s="5">
-        <v>160</v>
-      </c>
-      <c r="J26" s="5">
-        <v>480</v>
+        <v>690</v>
+      </c>
+      <c r="F26" s="7">
+        <v>510</v>
+      </c>
+      <c r="G26" s="7">
+        <v>420</v>
+      </c>
+      <c r="H26" s="7">
+        <v>600</v>
+      </c>
+      <c r="I26" s="7">
+        <v>390</v>
+      </c>
+      <c r="J26" s="7">
+        <v>900</v>
       </c>
       <c r="K26" s="5">
         <v>52</v>
@@ -6169,23 +6249,23 @@
       <c r="D27" s="7">
         <v>9</v>
       </c>
-      <c r="E27" s="8">
-        <v>432</v>
-      </c>
-      <c r="F27" s="8">
-        <v>288</v>
-      </c>
-      <c r="G27" s="5">
-        <v>216</v>
-      </c>
-      <c r="H27" s="5">
-        <v>360</v>
-      </c>
-      <c r="I27" s="5">
-        <v>180</v>
-      </c>
-      <c r="J27" s="5">
-        <v>540</v>
+      <c r="E27" s="5">
+        <v>920</v>
+      </c>
+      <c r="F27" s="7">
+        <v>680</v>
+      </c>
+      <c r="G27" s="7">
+        <v>560</v>
+      </c>
+      <c r="H27" s="7">
+        <v>800</v>
+      </c>
+      <c r="I27" s="7">
+        <v>520</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1200</v>
       </c>
       <c r="K27" s="5">
         <v>68</v>
@@ -6250,22 +6330,22 @@
         <v>10</v>
       </c>
       <c r="E28" s="5">
-        <v>480</v>
-      </c>
-      <c r="F28" s="5">
-        <v>320</v>
-      </c>
-      <c r="G28" s="5">
-        <v>240</v>
-      </c>
-      <c r="H28" s="5">
-        <v>400</v>
-      </c>
-      <c r="I28" s="5">
-        <v>200</v>
-      </c>
-      <c r="J28" s="5">
-        <v>600</v>
+        <v>1150</v>
+      </c>
+      <c r="F28" s="7">
+        <v>850</v>
+      </c>
+      <c r="G28" s="7">
+        <v>700</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="7">
+        <v>650</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1500</v>
       </c>
       <c r="K28" s="5">
         <v>84</v>
@@ -6329,22 +6409,22 @@
       <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="5">
-        <v>120</v>
-      </c>
-      <c r="F29" s="5">
-        <v>80</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="E29" s="8">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7">
+        <v>100</v>
+      </c>
+      <c r="G29" s="7">
+        <v>70</v>
+      </c>
+      <c r="H29" s="7">
+        <v>85</v>
+      </c>
+      <c r="I29" s="7">
         <v>60</v>
       </c>
-      <c r="H29" s="5">
-        <v>100</v>
-      </c>
-      <c r="I29" s="5">
-        <v>50</v>
-      </c>
-      <c r="J29" s="5">
+      <c r="J29" s="7">
         <v>96</v>
       </c>
       <c r="K29" s="5">
@@ -6410,21 +6490,21 @@
         <v>3</v>
       </c>
       <c r="E30" s="8">
-        <v>180</v>
-      </c>
-      <c r="F30" s="8">
-        <v>120</v>
-      </c>
-      <c r="G30" s="5">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7">
+        <v>105</v>
+      </c>
+      <c r="H30" s="7">
+        <v>128</v>
+      </c>
+      <c r="I30" s="7">
         <v>90</v>
       </c>
-      <c r="H30" s="5">
-        <v>150</v>
-      </c>
-      <c r="I30" s="5">
-        <v>75</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="J30" s="7">
         <v>144</v>
       </c>
       <c r="K30" s="5">
@@ -6490,21 +6570,21 @@
         <v>4</v>
       </c>
       <c r="E31" s="8">
-        <v>240</v>
-      </c>
-      <c r="F31" s="8">
-        <v>160</v>
-      </c>
-      <c r="G31" s="5">
+        <v>230</v>
+      </c>
+      <c r="F31" s="7">
+        <v>200</v>
+      </c>
+      <c r="G31" s="7">
+        <v>140</v>
+      </c>
+      <c r="H31" s="7">
+        <v>170</v>
+      </c>
+      <c r="I31" s="7">
         <v>120</v>
       </c>
-      <c r="H31" s="5">
-        <v>200</v>
-      </c>
-      <c r="I31" s="5">
-        <v>100</v>
-      </c>
-      <c r="J31" s="5">
+      <c r="J31" s="7">
         <v>192</v>
       </c>
       <c r="K31" s="5">
@@ -6570,22 +6650,22 @@
         <v>5</v>
       </c>
       <c r="E32" s="8">
+        <v>345</v>
+      </c>
+      <c r="F32" s="7">
         <v>300</v>
       </c>
-      <c r="F32" s="8">
-        <v>200</v>
-      </c>
-      <c r="G32" s="5">
-        <v>150</v>
-      </c>
-      <c r="H32" s="5">
-        <v>250</v>
-      </c>
-      <c r="I32" s="5">
-        <v>125</v>
-      </c>
-      <c r="J32" s="5">
-        <v>240</v>
+      <c r="G32" s="7">
+        <v>210</v>
+      </c>
+      <c r="H32" s="7">
+        <v>255</v>
+      </c>
+      <c r="I32" s="7">
+        <v>180</v>
+      </c>
+      <c r="J32" s="7">
+        <v>288</v>
       </c>
       <c r="K32" s="5">
         <v>38</v>
@@ -6650,22 +6730,22 @@
         <v>6</v>
       </c>
       <c r="E33" s="8">
-        <v>360</v>
-      </c>
-      <c r="F33" s="8">
+        <v>460</v>
+      </c>
+      <c r="F33" s="7">
+        <v>400</v>
+      </c>
+      <c r="G33" s="7">
+        <v>280</v>
+      </c>
+      <c r="H33" s="7">
+        <v>340</v>
+      </c>
+      <c r="I33" s="7">
         <v>240</v>
       </c>
-      <c r="G33" s="5">
-        <v>180</v>
-      </c>
-      <c r="H33" s="5">
-        <v>300</v>
-      </c>
-      <c r="I33" s="5">
-        <v>150</v>
-      </c>
-      <c r="J33" s="5">
-        <v>288</v>
+      <c r="J33" s="7">
+        <v>384</v>
       </c>
       <c r="K33" s="5">
         <v>49</v>
@@ -6730,22 +6810,22 @@
         <v>7</v>
       </c>
       <c r="E34" s="8">
-        <v>420</v>
-      </c>
-      <c r="F34" s="8">
-        <v>280</v>
-      </c>
-      <c r="G34" s="5">
-        <v>210</v>
-      </c>
-      <c r="H34" s="5">
+        <v>575</v>
+      </c>
+      <c r="F34" s="7">
+        <v>500</v>
+      </c>
+      <c r="G34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="5">
-        <v>175</v>
-      </c>
-      <c r="J34" s="5">
-        <v>336</v>
+      <c r="H34" s="7">
+        <v>425</v>
+      </c>
+      <c r="I34" s="7">
+        <v>300</v>
+      </c>
+      <c r="J34" s="7">
+        <v>480</v>
       </c>
       <c r="K34" s="5">
         <v>60</v>
@@ -6810,22 +6890,22 @@
         <v>8</v>
       </c>
       <c r="E35" s="8">
-        <v>480</v>
-      </c>
-      <c r="F35" s="8">
-        <v>320</v>
-      </c>
-      <c r="G35" s="5">
-        <v>240</v>
-      </c>
-      <c r="H35" s="5">
-        <v>400</v>
-      </c>
-      <c r="I35" s="5">
-        <v>200</v>
-      </c>
-      <c r="J35" s="5">
-        <v>384</v>
+        <v>863</v>
+      </c>
+      <c r="F35" s="7">
+        <v>750</v>
+      </c>
+      <c r="G35" s="7">
+        <v>525</v>
+      </c>
+      <c r="H35" s="7">
+        <v>638</v>
+      </c>
+      <c r="I35" s="7">
+        <v>450</v>
+      </c>
+      <c r="J35" s="7">
+        <v>720</v>
       </c>
       <c r="K35" s="5">
         <v>54</v>
@@ -6889,23 +6969,23 @@
       <c r="D36" s="7">
         <v>9</v>
       </c>
-      <c r="E36" s="8">
-        <v>540</v>
-      </c>
-      <c r="F36" s="8">
-        <v>360</v>
-      </c>
-      <c r="G36" s="5">
-        <v>270</v>
-      </c>
-      <c r="H36" s="5">
-        <v>450</v>
-      </c>
-      <c r="I36" s="5">
-        <v>225</v>
-      </c>
-      <c r="J36" s="5">
-        <v>432</v>
+      <c r="E36" s="5">
+        <v>1150</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="7">
+        <v>700</v>
+      </c>
+      <c r="H36" s="7">
+        <v>850</v>
+      </c>
+      <c r="I36" s="7">
+        <v>600</v>
+      </c>
+      <c r="J36" s="7">
+        <v>960</v>
       </c>
       <c r="K36" s="5">
         <v>71</v>
@@ -6970,22 +7050,22 @@
         <v>10</v>
       </c>
       <c r="E37" s="5">
-        <v>600</v>
-      </c>
-      <c r="F37" s="5">
-        <v>400</v>
-      </c>
-      <c r="G37" s="5">
-        <v>300</v>
-      </c>
-      <c r="H37" s="5">
-        <v>500</v>
-      </c>
-      <c r="I37" s="5">
-        <v>250</v>
-      </c>
-      <c r="J37" s="5">
-        <v>480</v>
+        <v>1438</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1250</v>
+      </c>
+      <c r="G37" s="7">
+        <v>875</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1063</v>
+      </c>
+      <c r="I37" s="7">
+        <v>750</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1200</v>
       </c>
       <c r="K37" s="5">
         <v>87</v>
@@ -7050,21 +7130,21 @@
         <v>4</v>
       </c>
       <c r="E38" s="5">
+        <v>136</v>
+      </c>
+      <c r="F38" s="7">
+        <v>184</v>
+      </c>
+      <c r="G38" s="7">
         <v>160</v>
       </c>
-      <c r="F38" s="5">
-        <v>192</v>
-      </c>
-      <c r="G38" s="5">
-        <v>128</v>
-      </c>
-      <c r="H38" s="5">
-        <v>96</v>
-      </c>
-      <c r="I38" s="5">
-        <v>96</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="H38" s="7">
+        <v>112</v>
+      </c>
+      <c r="I38" s="7">
+        <v>120</v>
+      </c>
+      <c r="J38" s="7">
         <v>240</v>
       </c>
       <c r="K38" s="5">
@@ -7130,21 +7210,21 @@
         <v>6</v>
       </c>
       <c r="E39" s="5">
+        <v>204</v>
+      </c>
+      <c r="F39" s="7">
+        <v>276</v>
+      </c>
+      <c r="G39" s="7">
         <v>240</v>
       </c>
-      <c r="F39" s="5">
-        <v>288</v>
-      </c>
-      <c r="G39" s="5">
-        <v>192</v>
-      </c>
-      <c r="H39" s="5">
-        <v>144</v>
-      </c>
-      <c r="I39" s="5">
-        <v>144</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="H39" s="7">
+        <v>168</v>
+      </c>
+      <c r="I39" s="7">
+        <v>180</v>
+      </c>
+      <c r="J39" s="7">
         <v>360</v>
       </c>
       <c r="K39" s="5">
@@ -7210,21 +7290,21 @@
         <v>8</v>
       </c>
       <c r="E40" s="5">
+        <v>272</v>
+      </c>
+      <c r="F40" s="7">
+        <v>368</v>
+      </c>
+      <c r="G40" s="7">
         <v>320</v>
       </c>
-      <c r="F40" s="5">
-        <v>384</v>
-      </c>
-      <c r="G40" s="5">
-        <v>256</v>
-      </c>
-      <c r="H40" s="5">
-        <v>192</v>
-      </c>
-      <c r="I40" s="5">
-        <v>192</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="H40" s="7">
+        <v>224</v>
+      </c>
+      <c r="I40" s="7">
+        <v>240</v>
+      </c>
+      <c r="J40" s="7">
         <v>480</v>
       </c>
       <c r="K40" s="5">
@@ -7290,22 +7370,22 @@
         <v>10</v>
       </c>
       <c r="E41" s="5">
-        <v>400</v>
-      </c>
-      <c r="F41" s="5">
+        <v>408</v>
+      </c>
+      <c r="F41" s="7">
+        <v>552</v>
+      </c>
+      <c r="G41" s="7">
         <v>480</v>
       </c>
-      <c r="G41" s="5">
-        <v>320</v>
-      </c>
-      <c r="H41" s="5">
-        <v>240</v>
-      </c>
-      <c r="I41" s="5">
-        <v>240</v>
-      </c>
-      <c r="J41" s="5">
-        <v>600</v>
+      <c r="H41" s="7">
+        <v>336</v>
+      </c>
+      <c r="I41" s="7">
+        <v>360</v>
+      </c>
+      <c r="J41" s="7">
+        <v>720</v>
       </c>
       <c r="K41" s="5">
         <v>52</v>
@@ -7370,22 +7450,22 @@
         <v>12</v>
       </c>
       <c r="E42" s="5">
+        <v>544</v>
+      </c>
+      <c r="F42" s="7">
+        <v>736</v>
+      </c>
+      <c r="G42" s="7">
+        <v>640</v>
+      </c>
+      <c r="H42" s="7">
+        <v>448</v>
+      </c>
+      <c r="I42" s="7">
         <v>480</v>
       </c>
-      <c r="F42" s="5">
-        <v>576</v>
-      </c>
-      <c r="G42" s="5">
-        <v>384</v>
-      </c>
-      <c r="H42" s="5">
-        <v>288</v>
-      </c>
-      <c r="I42" s="5">
-        <v>288</v>
-      </c>
-      <c r="J42" s="5">
-        <v>720</v>
+      <c r="J42" s="7">
+        <v>960</v>
       </c>
       <c r="K42" s="5">
         <v>67</v>
@@ -7450,22 +7530,22 @@
         <v>14</v>
       </c>
       <c r="E43" s="5">
+        <v>680</v>
+      </c>
+      <c r="F43" s="7">
+        <v>920</v>
+      </c>
+      <c r="G43" s="7">
+        <v>800</v>
+      </c>
+      <c r="H43" s="7">
         <v>560</v>
       </c>
-      <c r="F43" s="5">
-        <v>672</v>
-      </c>
-      <c r="G43" s="5">
-        <v>448</v>
-      </c>
-      <c r="H43" s="5">
-        <v>336</v>
-      </c>
-      <c r="I43" s="5">
-        <v>336</v>
-      </c>
-      <c r="J43" s="5">
-        <v>840</v>
+      <c r="I43" s="7">
+        <v>600</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1200</v>
       </c>
       <c r="K43" s="5">
         <v>82</v>
@@ -7530,22 +7610,22 @@
         <v>16</v>
       </c>
       <c r="E44" s="5">
-        <v>640</v>
-      </c>
-      <c r="F44" s="5">
-        <v>768</v>
-      </c>
-      <c r="G44" s="5">
-        <v>512</v>
-      </c>
-      <c r="H44" s="5">
-        <v>384</v>
-      </c>
-      <c r="I44" s="5">
-        <v>384</v>
-      </c>
-      <c r="J44" s="5">
-        <v>960</v>
+        <v>1020</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1380</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1200</v>
+      </c>
+      <c r="H44" s="7">
+        <v>840</v>
+      </c>
+      <c r="I44" s="7">
+        <v>900</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1800</v>
       </c>
       <c r="K44" s="5">
         <v>74</v>
@@ -7610,22 +7690,22 @@
         <v>18</v>
       </c>
       <c r="E45" s="5">
-        <v>720</v>
-      </c>
-      <c r="F45" s="5">
-        <v>864</v>
-      </c>
-      <c r="G45" s="5">
-        <v>576</v>
-      </c>
-      <c r="H45" s="5">
-        <v>432</v>
-      </c>
-      <c r="I45" s="5">
-        <v>432</v>
-      </c>
-      <c r="J45" s="5">
-        <v>1080</v>
+        <v>1360</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1840</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1600</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1120</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1200</v>
+      </c>
+      <c r="J45" s="7">
+        <v>2400</v>
       </c>
       <c r="K45" s="5">
         <v>97</v>
@@ -7690,22 +7770,22 @@
         <v>20</v>
       </c>
       <c r="E46" s="5">
-        <v>800</v>
-      </c>
-      <c r="F46" s="5">
-        <v>960</v>
-      </c>
-      <c r="G46" s="5">
-        <v>640</v>
-      </c>
-      <c r="H46" s="5">
-        <v>480</v>
-      </c>
-      <c r="I46" s="5">
-        <v>480</v>
-      </c>
-      <c r="J46" s="5">
-        <v>1200</v>
+        <v>1700</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2300</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3000</v>
       </c>
       <c r="K46" s="5">
         <v>119</v>
@@ -7772,19 +7852,19 @@
       <c r="E47" s="5">
         <v>192</v>
       </c>
-      <c r="F47" s="5">
-        <v>230</v>
-      </c>
-      <c r="G47" s="5">
-        <v>154</v>
-      </c>
-      <c r="H47" s="5">
-        <v>115</v>
-      </c>
-      <c r="I47" s="5">
-        <v>115</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="F47" s="7">
+        <v>221</v>
+      </c>
+      <c r="G47" s="7">
+        <v>163</v>
+      </c>
+      <c r="H47" s="7">
+        <v>134</v>
+      </c>
+      <c r="I47" s="7">
+        <v>134</v>
+      </c>
+      <c r="J47" s="7">
         <v>200</v>
       </c>
       <c r="K47" s="5">
@@ -7852,19 +7932,19 @@
       <c r="E48" s="5">
         <v>288</v>
       </c>
-      <c r="F48" s="5">
-        <v>346</v>
-      </c>
-      <c r="G48" s="5">
-        <v>230</v>
-      </c>
-      <c r="H48" s="5">
-        <v>173</v>
-      </c>
-      <c r="I48" s="5">
-        <v>173</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="F48" s="7">
+        <v>331</v>
+      </c>
+      <c r="G48" s="7">
+        <v>245</v>
+      </c>
+      <c r="H48" s="7">
+        <v>202</v>
+      </c>
+      <c r="I48" s="7">
+        <v>202</v>
+      </c>
+      <c r="J48" s="7">
         <v>300</v>
       </c>
       <c r="K48" s="5">
@@ -7932,19 +8012,19 @@
       <c r="E49" s="5">
         <v>384</v>
       </c>
-      <c r="F49" s="5">
-        <v>461</v>
-      </c>
-      <c r="G49" s="5">
-        <v>307</v>
-      </c>
-      <c r="H49" s="5">
-        <v>230</v>
-      </c>
-      <c r="I49" s="5">
-        <v>230</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="F49" s="7">
+        <v>442</v>
+      </c>
+      <c r="G49" s="7">
+        <v>326</v>
+      </c>
+      <c r="H49" s="7">
+        <v>269</v>
+      </c>
+      <c r="I49" s="7">
+        <v>269</v>
+      </c>
+      <c r="J49" s="7">
         <v>400</v>
       </c>
       <c r="K49" s="5">
@@ -8010,22 +8090,22 @@
         <v>10</v>
       </c>
       <c r="E50" s="5">
-        <v>480</v>
-      </c>
-      <c r="F50" s="5">
         <v>576</v>
       </c>
-      <c r="G50" s="5">
-        <v>384</v>
-      </c>
-      <c r="H50" s="5">
-        <v>288</v>
-      </c>
-      <c r="I50" s="5">
-        <v>288</v>
-      </c>
-      <c r="J50" s="5">
-        <v>500</v>
+      <c r="F50" s="7">
+        <v>662</v>
+      </c>
+      <c r="G50" s="7">
+        <v>490</v>
+      </c>
+      <c r="H50" s="7">
+        <v>403</v>
+      </c>
+      <c r="I50" s="7">
+        <v>403</v>
+      </c>
+      <c r="J50" s="7">
+        <v>600</v>
       </c>
       <c r="K50" s="5">
         <v>51</v>
@@ -8090,22 +8170,22 @@
         <v>12</v>
       </c>
       <c r="E51" s="5">
-        <v>576</v>
-      </c>
-      <c r="F51" s="5">
-        <v>691</v>
-      </c>
-      <c r="G51" s="5">
-        <v>461</v>
-      </c>
-      <c r="H51" s="5">
-        <v>346</v>
-      </c>
-      <c r="I51" s="5">
-        <v>346</v>
-      </c>
-      <c r="J51" s="5">
-        <v>600</v>
+        <v>768</v>
+      </c>
+      <c r="F51" s="7">
+        <v>883</v>
+      </c>
+      <c r="G51" s="7">
+        <v>653</v>
+      </c>
+      <c r="H51" s="7">
+        <v>538</v>
+      </c>
+      <c r="I51" s="7">
+        <v>538</v>
+      </c>
+      <c r="J51" s="7">
+        <v>800</v>
       </c>
       <c r="K51" s="5">
         <v>65</v>
@@ -8170,22 +8250,22 @@
         <v>14</v>
       </c>
       <c r="E52" s="5">
+        <v>960</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1104</v>
+      </c>
+      <c r="G52" s="7">
+        <v>816</v>
+      </c>
+      <c r="H52" s="7">
         <v>672</v>
       </c>
-      <c r="F52" s="5">
-        <v>806</v>
-      </c>
-      <c r="G52" s="5">
-        <v>538</v>
-      </c>
-      <c r="H52" s="5">
-        <v>403</v>
-      </c>
-      <c r="I52" s="5">
-        <v>403</v>
-      </c>
-      <c r="J52" s="5">
-        <v>700</v>
+      <c r="I52" s="7">
+        <v>672</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1000</v>
       </c>
       <c r="K52" s="5">
         <v>80</v>
@@ -8250,22 +8330,22 @@
         <v>16</v>
       </c>
       <c r="E53" s="5">
-        <v>768</v>
-      </c>
-      <c r="F53" s="5">
-        <v>922</v>
-      </c>
-      <c r="G53" s="5">
-        <v>614</v>
-      </c>
-      <c r="H53" s="5">
-        <v>461</v>
-      </c>
-      <c r="I53" s="5">
-        <v>461</v>
-      </c>
-      <c r="J53" s="5">
-        <v>800</v>
+        <v>1440</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1656</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1224</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1008</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1008</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1500</v>
       </c>
       <c r="K53" s="5">
         <v>72</v>
@@ -8330,22 +8410,22 @@
         <v>18</v>
       </c>
       <c r="E54" s="5">
-        <v>864</v>
-      </c>
-      <c r="F54" s="5">
-        <v>1037</v>
-      </c>
-      <c r="G54" s="5">
-        <v>691</v>
-      </c>
-      <c r="H54" s="5">
-        <v>518</v>
-      </c>
-      <c r="I54" s="5">
-        <v>518</v>
-      </c>
-      <c r="J54" s="5">
-        <v>900</v>
+        <v>1920</v>
+      </c>
+      <c r="F54" s="7">
+        <v>2208</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1632</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1344</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1344</v>
+      </c>
+      <c r="J54" s="7">
+        <v>2000</v>
       </c>
       <c r="K54" s="5">
         <v>94</v>
@@ -8410,22 +8490,22 @@
         <v>20</v>
       </c>
       <c r="E55" s="5">
-        <v>960</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1152</v>
-      </c>
-      <c r="G55" s="5">
-        <v>768</v>
-      </c>
-      <c r="H55" s="5">
-        <v>576</v>
-      </c>
-      <c r="I55" s="5">
-        <v>576</v>
-      </c>
-      <c r="J55" s="5">
-        <v>1000</v>
+        <v>2400</v>
+      </c>
+      <c r="F55" s="7">
+        <v>2760</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2040</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1680</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1680</v>
+      </c>
+      <c r="J55" s="7">
+        <v>2500</v>
       </c>
       <c r="K55" s="5">
         <v>116</v>
@@ -8490,21 +8570,21 @@
         <v>4</v>
       </c>
       <c r="E56" s="5">
-        <v>77</v>
-      </c>
-      <c r="F56" s="5">
+        <v>90</v>
+      </c>
+      <c r="F56" s="7">
         <v>128</v>
       </c>
-      <c r="G56" s="5">
-        <v>154</v>
-      </c>
-      <c r="H56" s="5">
-        <v>102</v>
-      </c>
-      <c r="I56" s="5">
-        <v>102</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="G56" s="7">
+        <v>147</v>
+      </c>
+      <c r="H56" s="7">
+        <v>109</v>
+      </c>
+      <c r="I56" s="7">
+        <v>122</v>
+      </c>
+      <c r="J56" s="7">
         <v>300</v>
       </c>
       <c r="K56" s="5">
@@ -8570,21 +8650,21 @@
         <v>6</v>
       </c>
       <c r="E57" s="5">
-        <v>115</v>
-      </c>
-      <c r="F57" s="5">
+        <v>134</v>
+      </c>
+      <c r="F57" s="7">
         <v>192</v>
       </c>
-      <c r="G57" s="5">
-        <v>230</v>
-      </c>
-      <c r="H57" s="5">
-        <v>154</v>
-      </c>
-      <c r="I57" s="5">
-        <v>154</v>
-      </c>
-      <c r="J57" s="5">
+      <c r="G57" s="7">
+        <v>221</v>
+      </c>
+      <c r="H57" s="7">
+        <v>163</v>
+      </c>
+      <c r="I57" s="7">
+        <v>182</v>
+      </c>
+      <c r="J57" s="7">
         <v>450</v>
       </c>
       <c r="K57" s="5">
@@ -8650,21 +8730,21 @@
         <v>8</v>
       </c>
       <c r="E58" s="5">
-        <v>154</v>
-      </c>
-      <c r="F58" s="5">
+        <v>179</v>
+      </c>
+      <c r="F58" s="7">
         <v>256</v>
       </c>
-      <c r="G58" s="5">
-        <v>307</v>
-      </c>
-      <c r="H58" s="5">
-        <v>205</v>
-      </c>
-      <c r="I58" s="5">
-        <v>205</v>
-      </c>
-      <c r="J58" s="5">
+      <c r="G58" s="7">
+        <v>294</v>
+      </c>
+      <c r="H58" s="7">
+        <v>218</v>
+      </c>
+      <c r="I58" s="7">
+        <v>243</v>
+      </c>
+      <c r="J58" s="7">
         <v>600</v>
       </c>
       <c r="K58" s="5">
@@ -8730,22 +8810,22 @@
         <v>10</v>
       </c>
       <c r="E59" s="5">
-        <v>192</v>
-      </c>
-      <c r="F59" s="5">
-        <v>320</v>
-      </c>
-      <c r="G59" s="5">
+        <v>269</v>
+      </c>
+      <c r="F59" s="7">
         <v>384</v>
       </c>
-      <c r="H59" s="5">
-        <v>256</v>
-      </c>
-      <c r="I59" s="5">
-        <v>256</v>
-      </c>
-      <c r="J59" s="5">
-        <v>750</v>
+      <c r="G59" s="7">
+        <v>442</v>
+      </c>
+      <c r="H59" s="7">
+        <v>326</v>
+      </c>
+      <c r="I59" s="7">
+        <v>365</v>
+      </c>
+      <c r="J59" s="7">
+        <v>900</v>
       </c>
       <c r="K59" s="5">
         <v>68</v>
@@ -8810,22 +8890,22 @@
         <v>12</v>
       </c>
       <c r="E60" s="5">
-        <v>230</v>
-      </c>
-      <c r="F60" s="5">
-        <v>384</v>
-      </c>
-      <c r="G60" s="5">
-        <v>461</v>
-      </c>
-      <c r="H60" s="5">
-        <v>307</v>
-      </c>
-      <c r="I60" s="5">
-        <v>307</v>
-      </c>
-      <c r="J60" s="5">
-        <v>900</v>
+        <v>358</v>
+      </c>
+      <c r="F60" s="7">
+        <v>512</v>
+      </c>
+      <c r="G60" s="7">
+        <v>589</v>
+      </c>
+      <c r="H60" s="7">
+        <v>435</v>
+      </c>
+      <c r="I60" s="7">
+        <v>486</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1200</v>
       </c>
       <c r="K60" s="5">
         <v>87</v>
@@ -8890,22 +8970,22 @@
         <v>14</v>
       </c>
       <c r="E61" s="5">
-        <v>269</v>
-      </c>
-      <c r="F61" s="5">
         <v>448</v>
       </c>
-      <c r="G61" s="5">
-        <v>538</v>
-      </c>
-      <c r="H61" s="5">
-        <v>358</v>
-      </c>
-      <c r="I61" s="5">
-        <v>358</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1050</v>
+      <c r="F61" s="7">
+        <v>640</v>
+      </c>
+      <c r="G61" s="7">
+        <v>736</v>
+      </c>
+      <c r="H61" s="7">
+        <v>544</v>
+      </c>
+      <c r="I61" s="7">
+        <v>608</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1500</v>
       </c>
       <c r="K61" s="5">
         <v>106</v>
@@ -8970,22 +9050,22 @@
         <v>16</v>
       </c>
       <c r="E62" s="5">
-        <v>307</v>
-      </c>
-      <c r="F62" s="5">
-        <v>512</v>
-      </c>
-      <c r="G62" s="5">
-        <v>614</v>
-      </c>
-      <c r="H62" s="5">
-        <v>410</v>
-      </c>
-      <c r="I62" s="5">
-        <v>410</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1200</v>
+        <v>672</v>
+      </c>
+      <c r="F62" s="7">
+        <v>960</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1104</v>
+      </c>
+      <c r="H62" s="7">
+        <v>816</v>
+      </c>
+      <c r="I62" s="7">
+        <v>912</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2250</v>
       </c>
       <c r="K62" s="5">
         <v>96</v>
@@ -9050,22 +9130,22 @@
         <v>18</v>
       </c>
       <c r="E63" s="5">
-        <v>346</v>
-      </c>
-      <c r="F63" s="5">
-        <v>576</v>
-      </c>
-      <c r="G63" s="5">
-        <v>691</v>
-      </c>
-      <c r="H63" s="5">
-        <v>461</v>
-      </c>
-      <c r="I63" s="5">
-        <v>461</v>
-      </c>
-      <c r="J63" s="5">
-        <v>1350</v>
+        <v>896</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1280</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1472</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1088</v>
+      </c>
+      <c r="I63" s="7">
+        <v>1216</v>
+      </c>
+      <c r="J63" s="7">
+        <v>3000</v>
       </c>
       <c r="K63" s="5">
         <v>125</v>
@@ -9130,22 +9210,22 @@
         <v>20</v>
       </c>
       <c r="E64" s="5">
-        <v>384</v>
-      </c>
-      <c r="F64" s="5">
-        <v>640</v>
-      </c>
-      <c r="G64" s="5">
-        <v>768</v>
-      </c>
-      <c r="H64" s="5">
-        <v>512</v>
-      </c>
-      <c r="I64" s="5">
-        <v>512</v>
-      </c>
-      <c r="J64" s="5">
-        <v>1500</v>
+        <v>1120</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1600</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1840</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1360</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1520</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3750</v>
       </c>
       <c r="K64" s="5">
         <v>154</v>
@@ -9210,21 +9290,21 @@
         <v>4</v>
       </c>
       <c r="E65" s="5">
-        <v>96</v>
-      </c>
-      <c r="F65" s="5">
+        <v>112</v>
+      </c>
+      <c r="F65" s="7">
+        <v>136</v>
+      </c>
+      <c r="G65" s="7">
+        <v>184</v>
+      </c>
+      <c r="H65" s="7">
         <v>160</v>
       </c>
-      <c r="G65" s="5">
-        <v>192</v>
-      </c>
-      <c r="H65" s="5">
-        <v>128</v>
-      </c>
-      <c r="I65" s="5">
-        <v>128</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="I65" s="7">
+        <v>144</v>
+      </c>
+      <c r="J65" s="7">
         <v>240</v>
       </c>
       <c r="K65" s="5">
@@ -9290,21 +9370,21 @@
         <v>6</v>
       </c>
       <c r="E66" s="5">
-        <v>144</v>
-      </c>
-      <c r="F66" s="5">
+        <v>168</v>
+      </c>
+      <c r="F66" s="7">
+        <v>204</v>
+      </c>
+      <c r="G66" s="7">
+        <v>276</v>
+      </c>
+      <c r="H66" s="7">
         <v>240</v>
       </c>
-      <c r="G66" s="5">
-        <v>288</v>
-      </c>
-      <c r="H66" s="5">
-        <v>192</v>
-      </c>
-      <c r="I66" s="5">
-        <v>192</v>
-      </c>
-      <c r="J66" s="5">
+      <c r="I66" s="7">
+        <v>216</v>
+      </c>
+      <c r="J66" s="7">
         <v>360</v>
       </c>
       <c r="K66" s="5">
@@ -9370,21 +9450,21 @@
         <v>8</v>
       </c>
       <c r="E67" s="5">
-        <v>192</v>
-      </c>
-      <c r="F67" s="5">
+        <v>224</v>
+      </c>
+      <c r="F67" s="7">
+        <v>272</v>
+      </c>
+      <c r="G67" s="7">
+        <v>368</v>
+      </c>
+      <c r="H67" s="7">
         <v>320</v>
       </c>
-      <c r="G67" s="5">
-        <v>384</v>
-      </c>
-      <c r="H67" s="5">
-        <v>256</v>
-      </c>
-      <c r="I67" s="5">
-        <v>256</v>
-      </c>
-      <c r="J67" s="5">
+      <c r="I67" s="7">
+        <v>288</v>
+      </c>
+      <c r="J67" s="7">
         <v>480</v>
       </c>
       <c r="K67" s="5">
@@ -9450,22 +9530,22 @@
         <v>10</v>
       </c>
       <c r="E68" s="5">
-        <v>240</v>
-      </c>
-      <c r="F68" s="5">
-        <v>400</v>
-      </c>
-      <c r="G68" s="5">
+        <v>336</v>
+      </c>
+      <c r="F68" s="7">
+        <v>408</v>
+      </c>
+      <c r="G68" s="7">
+        <v>552</v>
+      </c>
+      <c r="H68" s="7">
         <v>480</v>
       </c>
-      <c r="H68" s="5">
-        <v>320</v>
-      </c>
-      <c r="I68" s="5">
-        <v>320</v>
-      </c>
-      <c r="J68" s="5">
-        <v>600</v>
+      <c r="I68" s="7">
+        <v>432</v>
+      </c>
+      <c r="J68" s="7">
+        <v>720</v>
       </c>
       <c r="K68" s="5">
         <v>66</v>
@@ -9530,22 +9610,22 @@
         <v>12</v>
       </c>
       <c r="E69" s="5">
-        <v>288</v>
-      </c>
-      <c r="F69" s="5">
-        <v>480</v>
-      </c>
-      <c r="G69" s="5">
+        <v>448</v>
+      </c>
+      <c r="F69" s="7">
+        <v>544</v>
+      </c>
+      <c r="G69" s="7">
+        <v>736</v>
+      </c>
+      <c r="H69" s="7">
+        <v>640</v>
+      </c>
+      <c r="I69" s="7">
         <v>576</v>
       </c>
-      <c r="H69" s="5">
-        <v>384</v>
-      </c>
-      <c r="I69" s="5">
-        <v>384</v>
-      </c>
-      <c r="J69" s="5">
-        <v>720</v>
+      <c r="J69" s="7">
+        <v>960</v>
       </c>
       <c r="K69" s="5">
         <v>85</v>
@@ -9610,22 +9690,22 @@
         <v>14</v>
       </c>
       <c r="E70" s="5">
-        <v>336</v>
-      </c>
-      <c r="F70" s="5">
         <v>560</v>
       </c>
-      <c r="G70" s="5">
-        <v>672</v>
-      </c>
-      <c r="H70" s="5">
-        <v>448</v>
-      </c>
-      <c r="I70" s="5">
-        <v>448</v>
-      </c>
-      <c r="J70" s="5">
-        <v>840</v>
+      <c r="F70" s="7">
+        <v>680</v>
+      </c>
+      <c r="G70" s="7">
+        <v>920</v>
+      </c>
+      <c r="H70" s="7">
+        <v>800</v>
+      </c>
+      <c r="I70" s="7">
+        <v>720</v>
+      </c>
+      <c r="J70" s="7">
+        <v>1200</v>
       </c>
       <c r="K70" s="5">
         <v>104</v>
@@ -9690,22 +9770,22 @@
         <v>16</v>
       </c>
       <c r="E71" s="5">
-        <v>384</v>
-      </c>
-      <c r="F71" s="5">
-        <v>640</v>
-      </c>
-      <c r="G71" s="5">
-        <v>768</v>
-      </c>
-      <c r="H71" s="5">
-        <v>512</v>
-      </c>
-      <c r="I71" s="5">
-        <v>512</v>
-      </c>
-      <c r="J71" s="5">
-        <v>960</v>
+        <v>840</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1020</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1380</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1800</v>
       </c>
       <c r="K71" s="5">
         <v>94</v>
@@ -9770,22 +9850,22 @@
         <v>18</v>
       </c>
       <c r="E72" s="5">
-        <v>432</v>
-      </c>
-      <c r="F72" s="5">
-        <v>720</v>
-      </c>
-      <c r="G72" s="5">
-        <v>864</v>
-      </c>
-      <c r="H72" s="5">
-        <v>576</v>
-      </c>
-      <c r="I72" s="5">
-        <v>576</v>
-      </c>
-      <c r="J72" s="5">
-        <v>1080</v>
+        <v>1120</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1360</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1840</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1600</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1440</v>
+      </c>
+      <c r="J72" s="7">
+        <v>2400</v>
       </c>
       <c r="K72" s="5">
         <v>123</v>
@@ -9850,22 +9930,22 @@
         <v>20</v>
       </c>
       <c r="E73" s="5">
-        <v>480</v>
-      </c>
-      <c r="F73" s="5">
-        <v>800</v>
-      </c>
-      <c r="G73" s="5">
-        <v>960</v>
-      </c>
-      <c r="H73" s="5">
-        <v>640</v>
-      </c>
-      <c r="I73" s="5">
-        <v>640</v>
-      </c>
-      <c r="J73" s="5">
-        <v>1200</v>
+        <v>1400</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1700</v>
+      </c>
+      <c r="G73" s="7">
+        <v>2300</v>
+      </c>
+      <c r="H73" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1800</v>
+      </c>
+      <c r="J73" s="7">
+        <v>3000</v>
       </c>
       <c r="K73" s="5">
         <v>151</v>
@@ -9917,7 +9997,10 @@
       </c>
     </row>
     <row r="74" spans="1:39" ht="20" customHeight="1">
-      <c r="I74" s="5"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="P74" s="5"/>
@@ -9943,8 +10026,10 @@
       <c r="AM74" s="5"/>
     </row>
     <row r="75" spans="1:39" ht="20" customHeight="1">
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -9973,8 +10058,10 @@
       <c r="AM75" s="5"/>
     </row>
     <row r="76" spans="1:39" ht="20" customHeight="1">
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -10001,8 +10088,11 @@
       <c r="AM76" s="5"/>
     </row>
     <row r="77" spans="1:39" ht="20" customHeight="1">
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -10033,8 +10123,11 @@
       <c r="AM77" s="5"/>
     </row>
     <row r="78" spans="1:39" ht="20" customHeight="1">
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -10066,8 +10159,11 @@
       <c r="AM78" s="5"/>
     </row>
     <row r="79" spans="1:39" ht="20" customHeight="1">
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
@@ -10097,8 +10193,9 @@
       <c r="AM79" s="5"/>
     </row>
     <row r="80" spans="1:39" ht="20" customHeight="1">
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="F80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -10150,8 +10247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10244,25 +10341,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="G2" s="1">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="I2" s="1">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="J2" s="1">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="K2" s="1">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="L2" s="1">
         <v>55</v>
@@ -10306,25 +10403,25 @@
         <v>3</v>
       </c>
       <c r="E3" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>403</v>
+        <v>552</v>
       </c>
       <c r="G3" s="1">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="H3" s="1">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="I3" s="1">
-        <v>336</v>
+        <v>480</v>
       </c>
       <c r="J3" s="1">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="K3" s="1">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L3" s="1">
         <v>50</v>
@@ -10368,25 +10465,25 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
+        <v>800</v>
+      </c>
+      <c r="G4" s="1">
+        <v>920</v>
+      </c>
+      <c r="H4" s="1">
+        <v>680</v>
+      </c>
+      <c r="I4" s="1">
+        <v>560</v>
+      </c>
+      <c r="J4" s="1">
         <v>600</v>
       </c>
-      <c r="G4" s="1">
-        <v>720</v>
-      </c>
-      <c r="H4" s="1">
-        <v>480</v>
-      </c>
-      <c r="I4" s="1">
-        <v>360</v>
-      </c>
-      <c r="J4" s="1">
-        <v>360</v>
-      </c>
       <c r="K4" s="1">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L4" s="1">
         <v>70</v>
@@ -10398,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
@@ -10430,25 +10527,25 @@
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
-        <v>288</v>
+        <v>448</v>
       </c>
       <c r="G5" s="1">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>576</v>
+        <v>736</v>
       </c>
       <c r="I5" s="1">
-        <v>384</v>
+        <v>544</v>
       </c>
       <c r="J5" s="1">
-        <v>384</v>
+        <v>640</v>
       </c>
       <c r="K5" s="1">
-        <v>1125</v>
+        <v>1500</v>
       </c>
       <c r="L5" s="1">
         <v>88</v>
@@ -10460,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
@@ -10492,25 +10589,25 @@
         <v>3</v>
       </c>
       <c r="E6" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>256</v>
+        <v>960</v>
       </c>
       <c r="G6" s="1">
-        <v>205</v>
+        <v>768</v>
       </c>
       <c r="H6" s="1">
-        <v>384</v>
+        <v>1440</v>
       </c>
       <c r="I6" s="1">
-        <v>307</v>
+        <v>1152</v>
       </c>
       <c r="J6" s="1">
-        <v>128</v>
+        <v>576</v>
       </c>
       <c r="K6" s="1">
-        <v>600</v>
+        <v>2250</v>
       </c>
       <c r="L6" s="1">
         <v>80</v>
@@ -10522,7 +10619,7 @@
         <v>1.2</v>
       </c>
       <c r="O6" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
@@ -10554,25 +10651,25 @@
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1">
-        <v>600</v>
+        <v>2250</v>
       </c>
       <c r="G7" s="1">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H7" s="1">
-        <v>320</v>
+        <v>1200</v>
       </c>
       <c r="I7" s="1">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="J7" s="1">
-        <v>480</v>
+        <v>1950</v>
       </c>
       <c r="K7" s="1">
-        <v>384</v>
+        <v>1440</v>
       </c>
       <c r="L7" s="1">
         <v>75</v>
@@ -10584,7 +10681,7 @@
         <v>1.2</v>
       </c>
       <c r="O7" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -10616,25 +10713,25 @@
         <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="G8" s="1">
-        <v>720</v>
+        <v>2700</v>
       </c>
       <c r="H8" s="1">
-        <v>480</v>
+        <v>1800</v>
       </c>
       <c r="I8" s="1">
-        <v>576</v>
+        <v>2160</v>
       </c>
       <c r="J8" s="1">
-        <v>384</v>
+        <v>1620</v>
       </c>
       <c r="K8" s="1">
-        <v>1280</v>
+        <v>4800</v>
       </c>
       <c r="L8" s="1">
         <v>130</v>
@@ -10646,7 +10743,7 @@
         <v>2.4</v>
       </c>
       <c r="O8" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -10678,25 +10775,25 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
-        <v>320</v>
+        <v>1200</v>
       </c>
       <c r="G9" s="1">
-        <v>960</v>
+        <v>3600</v>
       </c>
       <c r="H9" s="1">
-        <v>512</v>
+        <v>1920</v>
       </c>
       <c r="I9" s="1">
-        <v>640</v>
+        <v>2400</v>
       </c>
       <c r="J9" s="1">
-        <v>768</v>
+        <v>3120</v>
       </c>
       <c r="K9" s="1">
-        <v>960</v>
+        <v>3600</v>
       </c>
       <c r="L9" s="1">
         <v>140</v>
@@ -10708,7 +10805,7 @@
         <v>2.4</v>
       </c>
       <c r="O9" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P9" s="1">
         <v>2</v>
